--- a/Code/Results/Cases/Case_3_1/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_1/res_line/pl_mw.xlsx
@@ -412,7 +412,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.653322138937568</v>
+        <v>1.653322138937625</v>
       </c>
       <c r="C2">
         <v>0.5391172207603461</v>
@@ -424,7 +424,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.351280259581671</v>
+        <v>1.351280259581657</v>
       </c>
       <c r="G2">
         <v>0.9154937077987881</v>
@@ -433,16 +433,16 @@
         <v>0.6184458199067464</v>
       </c>
       <c r="I2">
-        <v>0.2358267891378745</v>
+        <v>0.2358267891378603</v>
       </c>
       <c r="J2">
-        <v>0.5019945381340563</v>
+        <v>0.501994538134042</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>1.031346979320624</v>
+        <v>1.031346979320645</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,13 +450,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.43212626445748</v>
+        <v>1.432126264457338</v>
       </c>
       <c r="C3">
-        <v>0.4664632550086765</v>
+        <v>0.466463255008648</v>
       </c>
       <c r="D3">
-        <v>0.03362398472273043</v>
+        <v>0.0336239847226949</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -471,10 +471,10 @@
         <v>0.58137795006337</v>
       </c>
       <c r="I3">
-        <v>0.2061162335083964</v>
+        <v>0.2061162335083822</v>
       </c>
       <c r="J3">
-        <v>0.4346857007791627</v>
+        <v>0.4346857007791485</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -488,37 +488,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.29729144482144</v>
+        <v>1.297291444821582</v>
       </c>
       <c r="C4">
         <v>0.4222946799893634</v>
       </c>
       <c r="D4">
-        <v>0.03086515889533104</v>
+        <v>0.03086515889523156</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.145997238443968</v>
+        <v>1.145997238443982</v>
       </c>
       <c r="G4">
-        <v>0.7881323853430686</v>
+        <v>0.7881323853430828</v>
       </c>
       <c r="H4">
-        <v>0.5601896139602971</v>
+        <v>0.56018961396029</v>
       </c>
       <c r="I4">
-        <v>0.1884680378141148</v>
+        <v>0.1884680378141077</v>
       </c>
       <c r="J4">
-        <v>0.3936859868049112</v>
+        <v>0.3936859868049467</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.80365660496971</v>
+        <v>0.8036566049696958</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,13 +526,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.242544592911855</v>
+        <v>1.242544592911884</v>
       </c>
       <c r="C5">
-        <v>0.4043865011299204</v>
+        <v>0.4043865011299488</v>
       </c>
       <c r="D5">
-        <v>0.02974165284630459</v>
+        <v>0.02974165284634722</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -541,22 +541,22 @@
         <v>1.11564474086623</v>
       </c>
       <c r="G5">
-        <v>0.7694414143431629</v>
+        <v>0.7694414143431416</v>
       </c>
       <c r="H5">
-        <v>0.5519187565891741</v>
+        <v>0.5519187565891954</v>
       </c>
       <c r="I5">
-        <v>0.1814078081858597</v>
+        <v>0.181407808185849</v>
       </c>
       <c r="J5">
-        <v>0.3770453193002865</v>
+        <v>0.377045319300251</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.7689820766274167</v>
+        <v>0.7689820766274096</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,37 +564,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.233464658726291</v>
+        <v>1.233464658726405</v>
       </c>
       <c r="C6">
-        <v>0.4014177935671057</v>
+        <v>0.4014177935676173</v>
       </c>
       <c r="D6">
-        <v>0.02955511931470056</v>
+        <v>0.02955511931448029</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.110644936501643</v>
+        <v>1.110644936501657</v>
       </c>
       <c r="G6">
-        <v>0.7663666674682474</v>
+        <v>0.7663666674682617</v>
       </c>
       <c r="H6">
-        <v>0.5505664654644988</v>
+        <v>0.5505664654644917</v>
       </c>
       <c r="I6">
-        <v>0.1802429145824043</v>
+        <v>0.1802429145824114</v>
       </c>
       <c r="J6">
-        <v>0.3742857694222366</v>
+        <v>0.3742857694222153</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.7632403766004501</v>
+        <v>0.763240376600443</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,37 +602,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.296552361686537</v>
+        <v>1.296552361686565</v>
       </c>
       <c r="C7">
         <v>0.4220528214579531</v>
       </c>
       <c r="D7">
-        <v>0.03085000486033351</v>
+        <v>0.0308500048604472</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.145585156116155</v>
+        <v>1.145585156116141</v>
       </c>
       <c r="G7">
-        <v>0.7878783471335069</v>
+        <v>0.7878783471334998</v>
       </c>
       <c r="H7">
         <v>0.5600766383041957</v>
       </c>
       <c r="I7">
-        <v>0.1883723109319568</v>
+        <v>0.1883723109319639</v>
       </c>
       <c r="J7">
-        <v>0.3934613130345141</v>
+        <v>0.3934613130345213</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.8031878721984214</v>
+        <v>0.8031878721984285</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -643,10 +643,10 @@
         <v>1.576820748050466</v>
       </c>
       <c r="C8">
-        <v>0.5139619276434928</v>
+        <v>0.5139619276436349</v>
       </c>
       <c r="D8">
-        <v>0.03657253372089997</v>
+        <v>0.03657253372102787</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -655,22 +655,22 @@
         <v>1.306091338392406</v>
       </c>
       <c r="G8">
-        <v>0.8873329872938527</v>
+        <v>0.8873329872938598</v>
       </c>
       <c r="H8">
-        <v>0.605318874590921</v>
+        <v>0.6053188745909068</v>
       </c>
       <c r="I8">
-        <v>0.2254480066880831</v>
+        <v>0.2254480066880689</v>
       </c>
       <c r="J8">
-        <v>0.4787086121911841</v>
+        <v>0.4787086121911912</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.9821136554290959</v>
+        <v>0.982113655429103</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -681,10 +681,10 @@
         <v>2.136559772921771</v>
       </c>
       <c r="C9">
-        <v>0.698701067633408</v>
+        <v>0.6987010676335501</v>
       </c>
       <c r="D9">
-        <v>0.0478797103069013</v>
+        <v>0.0478797103068942</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -693,22 +693,22 @@
         <v>1.648672731777566</v>
       </c>
       <c r="G9">
-        <v>1.102169319004219</v>
+        <v>1.102169319004204</v>
       </c>
       <c r="H9">
-        <v>0.708069346857215</v>
+        <v>0.7080693468572292</v>
       </c>
       <c r="I9">
-        <v>0.3037655474031595</v>
+        <v>0.3037655474031453</v>
       </c>
       <c r="J9">
-        <v>0.6492561999988169</v>
+        <v>0.6492561999988098</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>1.345984225446642</v>
+        <v>1.345984225446657</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,31 +716,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.557644248907366</v>
+        <v>2.557644248907422</v>
       </c>
       <c r="C10">
-        <v>0.8387424871888243</v>
+        <v>0.8387424871885116</v>
       </c>
       <c r="D10">
-        <v>0.0562994749136152</v>
+        <v>0.05629947491360099</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.922799208453256</v>
+        <v>1.922799208453242</v>
       </c>
       <c r="G10">
-        <v>1.275862291224584</v>
+        <v>1.275862291224541</v>
       </c>
       <c r="H10">
-        <v>0.7945225152545277</v>
+        <v>0.7945225152545206</v>
       </c>
       <c r="I10">
-        <v>0.3661381166105429</v>
+        <v>0.3661381166105357</v>
       </c>
       <c r="J10">
-        <v>0.7778220830079334</v>
+        <v>0.7778220830079263</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -754,37 +754,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.75227539526685</v>
+        <v>2.752275395267134</v>
       </c>
       <c r="C11">
-        <v>0.9037881901914773</v>
+        <v>0.9037881901913067</v>
       </c>
       <c r="D11">
-        <v>0.06016979749303175</v>
+        <v>0.06016979749302465</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>2.05376613168113</v>
+        <v>2.053766131681144</v>
       </c>
       <c r="G11">
-        <v>1.359281804119121</v>
+        <v>1.359281804119107</v>
       </c>
       <c r="H11">
         <v>0.8368439058006985</v>
       </c>
       <c r="I11">
-        <v>0.3959296484896839</v>
+        <v>0.3959296484897052</v>
       </c>
       <c r="J11">
-        <v>0.8373256209608257</v>
+        <v>0.8373256209608044</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>1.755491674192442</v>
+        <v>1.75549167419247</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,19 +792,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.826507488961511</v>
+        <v>2.826507488961454</v>
       </c>
       <c r="C12">
-        <v>0.9286501242693816</v>
+        <v>0.9286501242689837</v>
       </c>
       <c r="D12">
-        <v>0.06164263645134582</v>
+        <v>0.06164263645145951</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>2.104392908604254</v>
+        <v>2.104392908604282</v>
       </c>
       <c r="G12">
         <v>1.39159543313076</v>
@@ -813,16 +813,16 @@
         <v>0.8533585108064159</v>
       </c>
       <c r="I12">
-        <v>0.4074505087104825</v>
+        <v>0.4074505087104754</v>
       </c>
       <c r="J12">
-        <v>0.8600334757887822</v>
+        <v>0.8600334757887964</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>1.805493715707797</v>
+        <v>1.805493715707783</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -833,28 +833,28 @@
         <v>2.810495232615665</v>
       </c>
       <c r="C13">
-        <v>0.9232847550555618</v>
+        <v>0.923284755055704</v>
       </c>
       <c r="D13">
-        <v>0.06132508729231034</v>
+        <v>0.06132508729229613</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>2.093441340726855</v>
+        <v>2.093441340726841</v>
       </c>
       <c r="G13">
         <v>1.384602325985881</v>
       </c>
       <c r="H13">
-        <v>0.8497790738075466</v>
+        <v>0.8497790738075608</v>
       </c>
       <c r="I13">
-        <v>0.4049580156936869</v>
+        <v>0.4049580156936443</v>
       </c>
       <c r="J13">
-        <v>0.8551346475781116</v>
+        <v>0.8551346475780974</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -868,13 +868,13 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.758371366946562</v>
+        <v>2.758371366946676</v>
       </c>
       <c r="C14">
-        <v>0.9058287424748812</v>
+        <v>0.9058287424749096</v>
       </c>
       <c r="D14">
-        <v>0.06029081486097709</v>
+        <v>0.06029081486077104</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -889,16 +889,16 @@
         <v>0.8381924265517355</v>
       </c>
       <c r="I14">
-        <v>0.3968724561397394</v>
+        <v>0.3968724561397465</v>
       </c>
       <c r="J14">
-        <v>0.8391901223649896</v>
+        <v>0.839190122365018</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>1.759592790622108</v>
+        <v>1.759592790622079</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,31 +906,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.726515709159173</v>
+        <v>2.726515709159059</v>
       </c>
       <c r="C15">
-        <v>0.8951676571999485</v>
+        <v>0.8951676571998348</v>
       </c>
       <c r="D15">
-        <v>0.05965828150188912</v>
+        <v>0.05965828150221597</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>2.036284215113909</v>
+        <v>2.036284215113881</v>
       </c>
       <c r="G15">
-        <v>1.348132018106412</v>
+        <v>1.348132018106426</v>
       </c>
       <c r="H15">
         <v>0.8311607166527608</v>
       </c>
       <c r="I15">
-        <v>0.3919521412623652</v>
+        <v>0.3919521412623723</v>
       </c>
       <c r="J15">
-        <v>0.8294473631229309</v>
+        <v>0.8294473631229238</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -947,19 +947,19 @@
         <v>2.544993775705109</v>
       </c>
       <c r="C16">
-        <v>0.8345216926084618</v>
+        <v>0.8345216926084902</v>
       </c>
       <c r="D16">
-        <v>0.05604746845880726</v>
+        <v>0.05604746845889963</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.91437717048926</v>
+        <v>1.914377170489288</v>
       </c>
       <c r="G16">
-        <v>1.270506810252954</v>
+        <v>1.270506810252968</v>
       </c>
       <c r="H16">
         <v>0.7918217462778614</v>
@@ -968,13 +968,13 @@
         <v>0.3642226317151867</v>
       </c>
       <c r="J16">
-        <v>0.7739562551711288</v>
+        <v>0.7739562551711572</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>1.616582818656383</v>
+        <v>1.61658281865634</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,10 +982,10 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.434482908235395</v>
+        <v>2.434482908235566</v>
       </c>
       <c r="C17">
-        <v>0.7976860784127382</v>
+        <v>0.7976860784128803</v>
       </c>
       <c r="D17">
         <v>0.05384361236534119</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.84128455860764</v>
+        <v>1.841284558607626</v>
       </c>
       <c r="G17">
         <v>1.224076005560008</v>
@@ -1003,7 +1003,7 @@
         <v>0.7684943575244247</v>
       </c>
       <c r="I17">
-        <v>0.3475984451598535</v>
+        <v>0.3475984451598251</v>
       </c>
       <c r="J17">
         <v>0.7401944431588632</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>1.542956357632988</v>
+        <v>1.542956357632974</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1023,7 +1023,7 @@
         <v>2.371203892280448</v>
       </c>
       <c r="C18">
-        <v>0.7766228262728987</v>
+        <v>0.7766228262728418</v>
       </c>
       <c r="D18">
         <v>0.05257969204195945</v>
@@ -1035,16 +1035,16 @@
         <v>1.799824606160044</v>
       </c>
       <c r="G18">
-        <v>1.197778872910703</v>
+        <v>1.197778872910689</v>
       </c>
       <c r="H18">
-        <v>0.7553549615817587</v>
+        <v>0.7553549615817516</v>
       </c>
       <c r="I18">
-        <v>0.3381677199865507</v>
+        <v>0.3381677199865649</v>
       </c>
       <c r="J18">
-        <v>0.7208694753835232</v>
+        <v>0.720869475383509</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1058,13 +1058,13 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.34982498273132</v>
+        <v>2.349824982731434</v>
       </c>
       <c r="C19">
-        <v>0.7695113249261851</v>
+        <v>0.7695113249262135</v>
       </c>
       <c r="D19">
-        <v>0.05215234071979324</v>
+        <v>0.05215234071980035</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1073,22 +1073,22 @@
         <v>1.785883009803129</v>
       </c>
       <c r="G19">
-        <v>1.188942703628669</v>
+        <v>1.188942703628641</v>
       </c>
       <c r="H19">
         <v>0.7509522622518787</v>
       </c>
       <c r="I19">
-        <v>0.3349961438443501</v>
+        <v>0.3349961438443572</v>
       </c>
       <c r="J19">
-        <v>0.7143416862154268</v>
+        <v>0.71434168621537</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>1.48675874369988</v>
+        <v>1.486758743699866</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1099,10 +1099,10 @@
         <v>2.446216997738247</v>
       </c>
       <c r="C20">
-        <v>0.8015942391428155</v>
+        <v>0.8015942391425881</v>
       </c>
       <c r="D20">
-        <v>0.05407782580473963</v>
+        <v>0.05407782580498122</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1111,22 +1111,22 @@
         <v>1.849004359798244</v>
       </c>
       <c r="G20">
-        <v>1.228975727361387</v>
+        <v>1.228975727361401</v>
       </c>
       <c r="H20">
-        <v>0.7709484382137504</v>
+        <v>0.7709484382137433</v>
       </c>
       <c r="I20">
-        <v>0.3493543111012229</v>
+        <v>0.3493543111012087</v>
       </c>
       <c r="J20">
-        <v>0.7437785267033163</v>
+        <v>0.743778526703295</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>1.550759718729111</v>
+        <v>1.550759718729097</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,37 +1134,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.773666294302927</v>
+        <v>2.77366629430287</v>
       </c>
       <c r="C21">
-        <v>0.9109494146021575</v>
+        <v>0.9109494146020154</v>
       </c>
       <c r="D21">
-        <v>0.06059439689140333</v>
+        <v>0.0605943968913607</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>2.068317073171002</v>
+        <v>2.068317073170988</v>
       </c>
       <c r="G21">
-        <v>1.3685655694524</v>
+        <v>1.368565569452414</v>
       </c>
       <c r="H21">
-        <v>0.8415819532308433</v>
+        <v>0.8415819532308504</v>
       </c>
       <c r="I21">
-        <v>0.3992405741086031</v>
+        <v>0.3992405741086245</v>
       </c>
       <c r="J21">
-        <v>0.8438684158006851</v>
+        <v>0.8438684158006708</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>1.769886579535168</v>
+        <v>1.769886579535196</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,13 +1172,13 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.990807875872633</v>
+        <v>2.99080787587252</v>
       </c>
       <c r="C22">
-        <v>0.9837842286817988</v>
+        <v>0.9837842286818272</v>
       </c>
       <c r="D22">
-        <v>0.06489632501011044</v>
+        <v>0.06489632501022413</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1190,10 +1190,10 @@
         <v>1.464068936996426</v>
       </c>
       <c r="H22">
-        <v>0.8906240875155618</v>
+        <v>0.8906240875155476</v>
       </c>
       <c r="I22">
-        <v>0.4332601121667992</v>
+        <v>0.4332601121667849</v>
       </c>
       <c r="J22">
         <v>0.9103198531302752</v>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>1.916642986794244</v>
+        <v>1.91664298679423</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,37 +1210,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.874596979801765</v>
+        <v>2.874596979801993</v>
       </c>
       <c r="C23">
-        <v>0.9447722504009732</v>
+        <v>0.9447722504009448</v>
       </c>
       <c r="D23">
-        <v>0.06259583948177294</v>
+        <v>0.06259583948179426</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>2.137385817339521</v>
+        <v>2.137385817339506</v>
       </c>
       <c r="G23">
-        <v>1.41267293759006</v>
+        <v>1.412672937590045</v>
       </c>
       <c r="H23">
         <v>0.864164891965018</v>
       </c>
       <c r="I23">
-        <v>0.4149605888659949</v>
+        <v>0.4149605888659593</v>
       </c>
       <c r="J23">
-        <v>0.8747481576270815</v>
+        <v>0.8747481576270673</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>1.837958136787051</v>
+        <v>1.83795813678708</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,13 +1248,13 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.44091122756322</v>
+        <v>2.440911227563276</v>
       </c>
       <c r="C24">
-        <v>0.7998270072861828</v>
+        <v>0.7998270072861544</v>
       </c>
       <c r="D24">
-        <v>0.05397192834254838</v>
+        <v>0.05397192834267628</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1263,22 +1263,22 @@
         <v>1.845512497021758</v>
       </c>
       <c r="G24">
-        <v>1.226759334685127</v>
+        <v>1.226759334685141</v>
       </c>
       <c r="H24">
-        <v>0.7698381059345749</v>
+        <v>0.7698381059345678</v>
       </c>
       <c r="I24">
-        <v>0.348560091960799</v>
+        <v>0.3485600919607919</v>
       </c>
       <c r="J24">
-        <v>0.7421578994432494</v>
+        <v>0.7421578994432565</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>1.547230872456765</v>
+        <v>1.54723087245678</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,37 +1286,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.983695163448346</v>
+        <v>1.983695163448175</v>
       </c>
       <c r="C25">
-        <v>0.6480903542026226</v>
+        <v>0.6480903542025374</v>
       </c>
       <c r="D25">
-        <v>0.04480586537700759</v>
+        <v>0.04480586537719944</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.552486131275643</v>
+        <v>1.552486131275629</v>
       </c>
       <c r="G25">
-        <v>1.041563717938629</v>
+        <v>1.041563717938658</v>
       </c>
       <c r="H25">
-        <v>0.678536909194797</v>
+        <v>0.6785369091948041</v>
       </c>
       <c r="I25">
         <v>0.2818422303144601</v>
       </c>
       <c r="J25">
-        <v>0.6026401494719806</v>
+        <v>0.6026401494720162</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>1.2457906863158</v>
+        <v>1.245790686315772</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_1/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_1/res_line/pl_mw.xlsx
@@ -412,7 +412,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.653322138937625</v>
+        <v>1.653322138937568</v>
       </c>
       <c r="C2">
         <v>0.5391172207603461</v>
@@ -424,7 +424,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.351280259581657</v>
+        <v>1.351280259581671</v>
       </c>
       <c r="G2">
         <v>0.9154937077987881</v>
@@ -433,16 +433,16 @@
         <v>0.6184458199067464</v>
       </c>
       <c r="I2">
-        <v>0.2358267891378603</v>
+        <v>0.2358267891378745</v>
       </c>
       <c r="J2">
-        <v>0.501994538134042</v>
+        <v>0.5019945381340563</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>1.031346979320645</v>
+        <v>1.031346979320624</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,13 +450,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.432126264457338</v>
+        <v>1.43212626445748</v>
       </c>
       <c r="C3">
-        <v>0.466463255008648</v>
+        <v>0.4664632550086765</v>
       </c>
       <c r="D3">
-        <v>0.0336239847226949</v>
+        <v>0.03362398472273043</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -471,10 +471,10 @@
         <v>0.58137795006337</v>
       </c>
       <c r="I3">
-        <v>0.2061162335083822</v>
+        <v>0.2061162335083964</v>
       </c>
       <c r="J3">
-        <v>0.4346857007791485</v>
+        <v>0.4346857007791627</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -488,37 +488,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.297291444821582</v>
+        <v>1.29729144482144</v>
       </c>
       <c r="C4">
         <v>0.4222946799893634</v>
       </c>
       <c r="D4">
-        <v>0.03086515889523156</v>
+        <v>0.03086515889533104</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.145997238443982</v>
+        <v>1.145997238443968</v>
       </c>
       <c r="G4">
-        <v>0.7881323853430828</v>
+        <v>0.7881323853430686</v>
       </c>
       <c r="H4">
-        <v>0.56018961396029</v>
+        <v>0.5601896139602971</v>
       </c>
       <c r="I4">
-        <v>0.1884680378141077</v>
+        <v>0.1884680378141148</v>
       </c>
       <c r="J4">
-        <v>0.3936859868049467</v>
+        <v>0.3936859868049112</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.8036566049696958</v>
+        <v>0.80365660496971</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,13 +526,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.242544592911884</v>
+        <v>1.242544592911855</v>
       </c>
       <c r="C5">
-        <v>0.4043865011299488</v>
+        <v>0.4043865011299204</v>
       </c>
       <c r="D5">
-        <v>0.02974165284634722</v>
+        <v>0.02974165284630459</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -541,22 +541,22 @@
         <v>1.11564474086623</v>
       </c>
       <c r="G5">
-        <v>0.7694414143431416</v>
+        <v>0.7694414143431629</v>
       </c>
       <c r="H5">
-        <v>0.5519187565891954</v>
+        <v>0.5519187565891741</v>
       </c>
       <c r="I5">
-        <v>0.181407808185849</v>
+        <v>0.1814078081858597</v>
       </c>
       <c r="J5">
-        <v>0.377045319300251</v>
+        <v>0.3770453193002865</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.7689820766274096</v>
+        <v>0.7689820766274167</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,37 +564,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.233464658726405</v>
+        <v>1.233464658726291</v>
       </c>
       <c r="C6">
-        <v>0.4014177935676173</v>
+        <v>0.4014177935671057</v>
       </c>
       <c r="D6">
-        <v>0.02955511931448029</v>
+        <v>0.02955511931470056</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.110644936501657</v>
+        <v>1.110644936501643</v>
       </c>
       <c r="G6">
-        <v>0.7663666674682617</v>
+        <v>0.7663666674682474</v>
       </c>
       <c r="H6">
-        <v>0.5505664654644917</v>
+        <v>0.5505664654644988</v>
       </c>
       <c r="I6">
-        <v>0.1802429145824114</v>
+        <v>0.1802429145824043</v>
       </c>
       <c r="J6">
-        <v>0.3742857694222153</v>
+        <v>0.3742857694222366</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.763240376600443</v>
+        <v>0.7632403766004501</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,37 +602,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.296552361686565</v>
+        <v>1.296552361686537</v>
       </c>
       <c r="C7">
         <v>0.4220528214579531</v>
       </c>
       <c r="D7">
-        <v>0.0308500048604472</v>
+        <v>0.03085000486033351</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.145585156116141</v>
+        <v>1.145585156116155</v>
       </c>
       <c r="G7">
-        <v>0.7878783471334998</v>
+        <v>0.7878783471335069</v>
       </c>
       <c r="H7">
         <v>0.5600766383041957</v>
       </c>
       <c r="I7">
-        <v>0.1883723109319639</v>
+        <v>0.1883723109319568</v>
       </c>
       <c r="J7">
-        <v>0.3934613130345213</v>
+        <v>0.3934613130345141</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.8031878721984285</v>
+        <v>0.8031878721984214</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -643,10 +643,10 @@
         <v>1.576820748050466</v>
       </c>
       <c r="C8">
-        <v>0.5139619276436349</v>
+        <v>0.5139619276434928</v>
       </c>
       <c r="D8">
-        <v>0.03657253372102787</v>
+        <v>0.03657253372089997</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -655,22 +655,22 @@
         <v>1.306091338392406</v>
       </c>
       <c r="G8">
-        <v>0.8873329872938598</v>
+        <v>0.8873329872938527</v>
       </c>
       <c r="H8">
-        <v>0.6053188745909068</v>
+        <v>0.605318874590921</v>
       </c>
       <c r="I8">
-        <v>0.2254480066880689</v>
+        <v>0.2254480066880831</v>
       </c>
       <c r="J8">
-        <v>0.4787086121911912</v>
+        <v>0.4787086121911841</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.982113655429103</v>
+        <v>0.9821136554290959</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -681,10 +681,10 @@
         <v>2.136559772921771</v>
       </c>
       <c r="C9">
-        <v>0.6987010676335501</v>
+        <v>0.698701067633408</v>
       </c>
       <c r="D9">
-        <v>0.0478797103068942</v>
+        <v>0.0478797103069013</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -693,22 +693,22 @@
         <v>1.648672731777566</v>
       </c>
       <c r="G9">
-        <v>1.102169319004204</v>
+        <v>1.102169319004219</v>
       </c>
       <c r="H9">
-        <v>0.7080693468572292</v>
+        <v>0.708069346857215</v>
       </c>
       <c r="I9">
-        <v>0.3037655474031453</v>
+        <v>0.3037655474031595</v>
       </c>
       <c r="J9">
-        <v>0.6492561999988098</v>
+        <v>0.6492561999988169</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>1.345984225446657</v>
+        <v>1.345984225446642</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,31 +716,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.557644248907422</v>
+        <v>2.557644248907366</v>
       </c>
       <c r="C10">
-        <v>0.8387424871885116</v>
+        <v>0.8387424871888243</v>
       </c>
       <c r="D10">
-        <v>0.05629947491360099</v>
+        <v>0.0562994749136152</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.922799208453242</v>
+        <v>1.922799208453256</v>
       </c>
       <c r="G10">
-        <v>1.275862291224541</v>
+        <v>1.275862291224584</v>
       </c>
       <c r="H10">
-        <v>0.7945225152545206</v>
+        <v>0.7945225152545277</v>
       </c>
       <c r="I10">
-        <v>0.3661381166105357</v>
+        <v>0.3661381166105429</v>
       </c>
       <c r="J10">
-        <v>0.7778220830079263</v>
+        <v>0.7778220830079334</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -754,37 +754,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.752275395267134</v>
+        <v>2.75227539526685</v>
       </c>
       <c r="C11">
-        <v>0.9037881901913067</v>
+        <v>0.9037881901914773</v>
       </c>
       <c r="D11">
-        <v>0.06016979749302465</v>
+        <v>0.06016979749303175</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>2.053766131681144</v>
+        <v>2.05376613168113</v>
       </c>
       <c r="G11">
-        <v>1.359281804119107</v>
+        <v>1.359281804119121</v>
       </c>
       <c r="H11">
         <v>0.8368439058006985</v>
       </c>
       <c r="I11">
-        <v>0.3959296484897052</v>
+        <v>0.3959296484896839</v>
       </c>
       <c r="J11">
-        <v>0.8373256209608044</v>
+        <v>0.8373256209608257</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>1.75549167419247</v>
+        <v>1.755491674192442</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,19 +792,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.826507488961454</v>
+        <v>2.826507488961511</v>
       </c>
       <c r="C12">
-        <v>0.9286501242689837</v>
+        <v>0.9286501242693816</v>
       </c>
       <c r="D12">
-        <v>0.06164263645145951</v>
+        <v>0.06164263645134582</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>2.104392908604282</v>
+        <v>2.104392908604254</v>
       </c>
       <c r="G12">
         <v>1.39159543313076</v>
@@ -813,16 +813,16 @@
         <v>0.8533585108064159</v>
       </c>
       <c r="I12">
-        <v>0.4074505087104754</v>
+        <v>0.4074505087104825</v>
       </c>
       <c r="J12">
-        <v>0.8600334757887964</v>
+        <v>0.8600334757887822</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>1.805493715707783</v>
+        <v>1.805493715707797</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -833,28 +833,28 @@
         <v>2.810495232615665</v>
       </c>
       <c r="C13">
-        <v>0.923284755055704</v>
+        <v>0.9232847550555618</v>
       </c>
       <c r="D13">
-        <v>0.06132508729229613</v>
+        <v>0.06132508729231034</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>2.093441340726841</v>
+        <v>2.093441340726855</v>
       </c>
       <c r="G13">
         <v>1.384602325985881</v>
       </c>
       <c r="H13">
-        <v>0.8497790738075608</v>
+        <v>0.8497790738075466</v>
       </c>
       <c r="I13">
-        <v>0.4049580156936443</v>
+        <v>0.4049580156936869</v>
       </c>
       <c r="J13">
-        <v>0.8551346475780974</v>
+        <v>0.8551346475781116</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -868,13 +868,13 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.758371366946676</v>
+        <v>2.758371366946562</v>
       </c>
       <c r="C14">
-        <v>0.9058287424749096</v>
+        <v>0.9058287424748812</v>
       </c>
       <c r="D14">
-        <v>0.06029081486077104</v>
+        <v>0.06029081486097709</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -889,16 +889,16 @@
         <v>0.8381924265517355</v>
       </c>
       <c r="I14">
-        <v>0.3968724561397465</v>
+        <v>0.3968724561397394</v>
       </c>
       <c r="J14">
-        <v>0.839190122365018</v>
+        <v>0.8391901223649896</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>1.759592790622079</v>
+        <v>1.759592790622108</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,31 +906,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.726515709159059</v>
+        <v>2.726515709159173</v>
       </c>
       <c r="C15">
-        <v>0.8951676571998348</v>
+        <v>0.8951676571999485</v>
       </c>
       <c r="D15">
-        <v>0.05965828150221597</v>
+        <v>0.05965828150188912</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>2.036284215113881</v>
+        <v>2.036284215113909</v>
       </c>
       <c r="G15">
-        <v>1.348132018106426</v>
+        <v>1.348132018106412</v>
       </c>
       <c r="H15">
         <v>0.8311607166527608</v>
       </c>
       <c r="I15">
-        <v>0.3919521412623723</v>
+        <v>0.3919521412623652</v>
       </c>
       <c r="J15">
-        <v>0.8294473631229238</v>
+        <v>0.8294473631229309</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -947,19 +947,19 @@
         <v>2.544993775705109</v>
       </c>
       <c r="C16">
-        <v>0.8345216926084902</v>
+        <v>0.8345216926084618</v>
       </c>
       <c r="D16">
-        <v>0.05604746845889963</v>
+        <v>0.05604746845880726</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.914377170489288</v>
+        <v>1.91437717048926</v>
       </c>
       <c r="G16">
-        <v>1.270506810252968</v>
+        <v>1.270506810252954</v>
       </c>
       <c r="H16">
         <v>0.7918217462778614</v>
@@ -968,13 +968,13 @@
         <v>0.3642226317151867</v>
       </c>
       <c r="J16">
-        <v>0.7739562551711572</v>
+        <v>0.7739562551711288</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>1.61658281865634</v>
+        <v>1.616582818656383</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,10 +982,10 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.434482908235566</v>
+        <v>2.434482908235395</v>
       </c>
       <c r="C17">
-        <v>0.7976860784128803</v>
+        <v>0.7976860784127382</v>
       </c>
       <c r="D17">
         <v>0.05384361236534119</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.841284558607626</v>
+        <v>1.84128455860764</v>
       </c>
       <c r="G17">
         <v>1.224076005560008</v>
@@ -1003,7 +1003,7 @@
         <v>0.7684943575244247</v>
       </c>
       <c r="I17">
-        <v>0.3475984451598251</v>
+        <v>0.3475984451598535</v>
       </c>
       <c r="J17">
         <v>0.7401944431588632</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>1.542956357632974</v>
+        <v>1.542956357632988</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1023,7 +1023,7 @@
         <v>2.371203892280448</v>
       </c>
       <c r="C18">
-        <v>0.7766228262728418</v>
+        <v>0.7766228262728987</v>
       </c>
       <c r="D18">
         <v>0.05257969204195945</v>
@@ -1035,16 +1035,16 @@
         <v>1.799824606160044</v>
       </c>
       <c r="G18">
-        <v>1.197778872910689</v>
+        <v>1.197778872910703</v>
       </c>
       <c r="H18">
-        <v>0.7553549615817516</v>
+        <v>0.7553549615817587</v>
       </c>
       <c r="I18">
-        <v>0.3381677199865649</v>
+        <v>0.3381677199865507</v>
       </c>
       <c r="J18">
-        <v>0.720869475383509</v>
+        <v>0.7208694753835232</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1058,13 +1058,13 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.349824982731434</v>
+        <v>2.34982498273132</v>
       </c>
       <c r="C19">
-        <v>0.7695113249262135</v>
+        <v>0.7695113249261851</v>
       </c>
       <c r="D19">
-        <v>0.05215234071980035</v>
+        <v>0.05215234071979324</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1073,22 +1073,22 @@
         <v>1.785883009803129</v>
       </c>
       <c r="G19">
-        <v>1.188942703628641</v>
+        <v>1.188942703628669</v>
       </c>
       <c r="H19">
         <v>0.7509522622518787</v>
       </c>
       <c r="I19">
-        <v>0.3349961438443572</v>
+        <v>0.3349961438443501</v>
       </c>
       <c r="J19">
-        <v>0.71434168621537</v>
+        <v>0.7143416862154268</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>1.486758743699866</v>
+        <v>1.48675874369988</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1099,10 +1099,10 @@
         <v>2.446216997738247</v>
       </c>
       <c r="C20">
-        <v>0.8015942391425881</v>
+        <v>0.8015942391428155</v>
       </c>
       <c r="D20">
-        <v>0.05407782580498122</v>
+        <v>0.05407782580473963</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1111,22 +1111,22 @@
         <v>1.849004359798244</v>
       </c>
       <c r="G20">
-        <v>1.228975727361401</v>
+        <v>1.228975727361387</v>
       </c>
       <c r="H20">
-        <v>0.7709484382137433</v>
+        <v>0.7709484382137504</v>
       </c>
       <c r="I20">
-        <v>0.3493543111012087</v>
+        <v>0.3493543111012229</v>
       </c>
       <c r="J20">
-        <v>0.743778526703295</v>
+        <v>0.7437785267033163</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>1.550759718729097</v>
+        <v>1.550759718729111</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,37 +1134,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.77366629430287</v>
+        <v>2.773666294302927</v>
       </c>
       <c r="C21">
-        <v>0.9109494146020154</v>
+        <v>0.9109494146021575</v>
       </c>
       <c r="D21">
-        <v>0.0605943968913607</v>
+        <v>0.06059439689140333</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>2.068317073170988</v>
+        <v>2.068317073171002</v>
       </c>
       <c r="G21">
-        <v>1.368565569452414</v>
+        <v>1.3685655694524</v>
       </c>
       <c r="H21">
-        <v>0.8415819532308504</v>
+        <v>0.8415819532308433</v>
       </c>
       <c r="I21">
-        <v>0.3992405741086245</v>
+        <v>0.3992405741086031</v>
       </c>
       <c r="J21">
-        <v>0.8438684158006708</v>
+        <v>0.8438684158006851</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>1.769886579535196</v>
+        <v>1.769886579535168</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,13 +1172,13 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.99080787587252</v>
+        <v>2.990807875872633</v>
       </c>
       <c r="C22">
-        <v>0.9837842286818272</v>
+        <v>0.9837842286817988</v>
       </c>
       <c r="D22">
-        <v>0.06489632501022413</v>
+        <v>0.06489632501011044</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1190,10 +1190,10 @@
         <v>1.464068936996426</v>
       </c>
       <c r="H22">
-        <v>0.8906240875155476</v>
+        <v>0.8906240875155618</v>
       </c>
       <c r="I22">
-        <v>0.4332601121667849</v>
+        <v>0.4332601121667992</v>
       </c>
       <c r="J22">
         <v>0.9103198531302752</v>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>1.91664298679423</v>
+        <v>1.916642986794244</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,37 +1210,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.874596979801993</v>
+        <v>2.874596979801765</v>
       </c>
       <c r="C23">
-        <v>0.9447722504009448</v>
+        <v>0.9447722504009732</v>
       </c>
       <c r="D23">
-        <v>0.06259583948179426</v>
+        <v>0.06259583948177294</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>2.137385817339506</v>
+        <v>2.137385817339521</v>
       </c>
       <c r="G23">
-        <v>1.412672937590045</v>
+        <v>1.41267293759006</v>
       </c>
       <c r="H23">
         <v>0.864164891965018</v>
       </c>
       <c r="I23">
-        <v>0.4149605888659593</v>
+        <v>0.4149605888659949</v>
       </c>
       <c r="J23">
-        <v>0.8747481576270673</v>
+        <v>0.8747481576270815</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>1.83795813678708</v>
+        <v>1.837958136787051</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,13 +1248,13 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.440911227563276</v>
+        <v>2.44091122756322</v>
       </c>
       <c r="C24">
-        <v>0.7998270072861544</v>
+        <v>0.7998270072861828</v>
       </c>
       <c r="D24">
-        <v>0.05397192834267628</v>
+        <v>0.05397192834254838</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1263,22 +1263,22 @@
         <v>1.845512497021758</v>
       </c>
       <c r="G24">
-        <v>1.226759334685141</v>
+        <v>1.226759334685127</v>
       </c>
       <c r="H24">
-        <v>0.7698381059345678</v>
+        <v>0.7698381059345749</v>
       </c>
       <c r="I24">
-        <v>0.3485600919607919</v>
+        <v>0.348560091960799</v>
       </c>
       <c r="J24">
-        <v>0.7421578994432565</v>
+        <v>0.7421578994432494</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>1.54723087245678</v>
+        <v>1.547230872456765</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,37 +1286,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.983695163448175</v>
+        <v>1.983695163448346</v>
       </c>
       <c r="C25">
-        <v>0.6480903542025374</v>
+        <v>0.6480903542026226</v>
       </c>
       <c r="D25">
-        <v>0.04480586537719944</v>
+        <v>0.04480586537700759</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.552486131275629</v>
+        <v>1.552486131275643</v>
       </c>
       <c r="G25">
-        <v>1.041563717938658</v>
+        <v>1.041563717938629</v>
       </c>
       <c r="H25">
-        <v>0.6785369091948041</v>
+        <v>0.678536909194797</v>
       </c>
       <c r="I25">
         <v>0.2818422303144601</v>
       </c>
       <c r="J25">
-        <v>0.6026401494720162</v>
+        <v>0.6026401494719806</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>1.245790686315772</v>
+        <v>1.2457906863158</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_1/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_1/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,917 +406,992 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.653322138937568</v>
+        <v>1.653317641523955</v>
       </c>
       <c r="C2">
-        <v>0.5391172207603461</v>
+        <v>0.5388563231374519</v>
       </c>
       <c r="D2">
-        <v>0.038126818136206</v>
+        <v>0.03822626260610917</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.351280259581671</v>
+        <v>1.349507099275272</v>
       </c>
       <c r="G2">
-        <v>0.9154937077987881</v>
+        <v>0.2853548681322025</v>
       </c>
       <c r="H2">
-        <v>0.6184458199067464</v>
+        <v>0.632678444954152</v>
       </c>
       <c r="I2">
-        <v>0.2358267891378745</v>
+        <v>0.6174230198226454</v>
       </c>
       <c r="J2">
-        <v>0.5019945381340563</v>
+        <v>0.235804498487731</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.5019220996594882</v>
       </c>
       <c r="L2">
-        <v>1.031346979320624</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>1.031387160310352</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.43212626445748</v>
+        <v>1.432139770502602</v>
       </c>
       <c r="C3">
-        <v>0.4664632550086765</v>
+        <v>0.466244286721718</v>
       </c>
       <c r="D3">
-        <v>0.03362398472273043</v>
+        <v>0.03370947128119894</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.222194587603994</v>
+        <v>1.220610554670913</v>
       </c>
       <c r="G3">
-        <v>0.8352278758688527</v>
+        <v>0.2562365865665228</v>
       </c>
       <c r="H3">
-        <v>0.58137795006337</v>
+        <v>0.5817743991160782</v>
       </c>
       <c r="I3">
-        <v>0.2061162335083964</v>
+        <v>0.5804561517199645</v>
       </c>
       <c r="J3">
-        <v>0.4346857007791627</v>
+        <v>0.2060975603810107</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.4346284310448567</v>
       </c>
       <c r="L3">
-        <v>0.8894494528776065</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0.8894900337275331</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.29729144482144</v>
+        <v>1.297314111701013</v>
       </c>
       <c r="C4">
-        <v>0.4222946799893634</v>
+        <v>0.4221005523112069</v>
       </c>
       <c r="D4">
-        <v>0.03086515889533104</v>
+        <v>0.03094206911258368</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.145997238443968</v>
+        <v>1.144526590412866</v>
       </c>
       <c r="G4">
-        <v>0.7881323853430686</v>
+        <v>0.2390545119788214</v>
       </c>
       <c r="H4">
-        <v>0.5601896139602971</v>
+        <v>0.552007026435021</v>
       </c>
       <c r="I4">
-        <v>0.1884680378141148</v>
+        <v>0.5593284849090665</v>
       </c>
       <c r="J4">
-        <v>0.3936859868049112</v>
+        <v>0.188451626248817</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.3936373857947686</v>
       </c>
       <c r="L4">
-        <v>0.80365660496971</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0.8036964919070471</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.242544592911855</v>
+        <v>1.242570574841039</v>
       </c>
       <c r="C5">
-        <v>0.4043865011299204</v>
+        <v>0.4042023022122976</v>
       </c>
       <c r="D5">
-        <v>0.02974165284630459</v>
+        <v>0.02981506460832861</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.11564474086623</v>
+        <v>1.114219706438902</v>
       </c>
       <c r="G5">
-        <v>0.7694414143431629</v>
+        <v>0.2322109799858794</v>
       </c>
       <c r="H5">
-        <v>0.5519187565891741</v>
+        <v>0.5402183490317753</v>
       </c>
       <c r="I5">
-        <v>0.1814078081858597</v>
+        <v>0.5510820592795369</v>
       </c>
       <c r="J5">
-        <v>0.3770453193002865</v>
+        <v>0.1813923314860375</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.3770001099164446</v>
       </c>
       <c r="L5">
-        <v>0.7689820766274167</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0.7690214763026333</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.233464658726291</v>
+        <v>1.233491167460755</v>
       </c>
       <c r="C6">
-        <v>0.4014177935671057</v>
+        <v>0.4012352325128461</v>
       </c>
       <c r="D6">
-        <v>0.02955511931470056</v>
+        <v>0.02962794989270634</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.110644936501643</v>
+        <v>1.109227443111905</v>
       </c>
       <c r="G6">
-        <v>0.7663666674682474</v>
+        <v>0.2310837081364454</v>
       </c>
       <c r="H6">
-        <v>0.5505664654644988</v>
+        <v>0.5382805892116664</v>
       </c>
       <c r="I6">
-        <v>0.1802429145824043</v>
+        <v>0.5497338087123467</v>
       </c>
       <c r="J6">
-        <v>0.3742857694222366</v>
+        <v>0.1802275939946689</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.3742411152853578</v>
       </c>
       <c r="L6">
-        <v>0.7632403766004501</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0.7632796838736624</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.296552361686537</v>
+        <v>1.296575074893696</v>
       </c>
       <c r="C7">
-        <v>0.4220528214579531</v>
+        <v>0.4218588284259397</v>
       </c>
       <c r="D7">
-        <v>0.03085000486033351</v>
+        <v>0.03092686791310939</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.145585156116155</v>
+        <v>1.144115125519832</v>
       </c>
       <c r="G7">
-        <v>0.7878783471335069</v>
+        <v>0.2389615981438098</v>
       </c>
       <c r="H7">
-        <v>0.5600766383041957</v>
+        <v>0.551846697434307</v>
       </c>
       <c r="I7">
-        <v>0.1883723109319568</v>
+        <v>0.5592158398692817</v>
       </c>
       <c r="J7">
-        <v>0.3934613130345141</v>
+        <v>0.1883559119173341</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.3934127583091325</v>
       </c>
       <c r="L7">
-        <v>0.8031878721984214</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0.8032277533530987</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.576820748050466</v>
+        <v>1.576822887914261</v>
       </c>
       <c r="C8">
-        <v>0.5139619276434928</v>
+        <v>0.5137156960318805</v>
       </c>
       <c r="D8">
-        <v>0.03657253372089997</v>
+        <v>0.03666716552690019</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.306091338392406</v>
+        <v>1.304384019608776</v>
       </c>
       <c r="G8">
-        <v>0.8873329872938527</v>
+        <v>0.2751597183259094</v>
       </c>
       <c r="H8">
-        <v>0.605318874590921</v>
+        <v>0.6147976305240377</v>
       </c>
       <c r="I8">
-        <v>0.2254480066880831</v>
+        <v>0.6043312090856077</v>
       </c>
       <c r="J8">
-        <v>0.4787086121911841</v>
+        <v>0.225426957083755</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.4786415511858166</v>
       </c>
       <c r="L8">
-        <v>0.9821136554290959</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0.9821541895942687</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.136559772921771</v>
+        <v>2.136503602273365</v>
       </c>
       <c r="C9">
-        <v>0.698701067633408</v>
+        <v>0.698343528043381</v>
       </c>
       <c r="D9">
-        <v>0.0478797103069013</v>
+        <v>0.04800923747559693</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.648672731777566</v>
+        <v>1.646473382781565</v>
       </c>
       <c r="G9">
-        <v>1.102169319004219</v>
+        <v>0.3525075667638617</v>
       </c>
       <c r="H9">
-        <v>0.708069346857215</v>
+        <v>0.7516532739794997</v>
       </c>
       <c r="I9">
-        <v>0.3037655474031595</v>
+        <v>0.7068198192486292</v>
       </c>
       <c r="J9">
-        <v>0.6492561999988169</v>
+        <v>0.3037355113092559</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.6491466540470228</v>
       </c>
       <c r="L9">
-        <v>1.345984225446642</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>1.346016926506437</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.557644248907366</v>
+        <v>2.557529590766023</v>
       </c>
       <c r="C10">
-        <v>0.8387424871888243</v>
+        <v>0.8382950623877434</v>
       </c>
       <c r="D10">
-        <v>0.0562994749136152</v>
+        <v>0.05645482541953584</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.922799208453256</v>
+        <v>1.920214122996711</v>
       </c>
       <c r="G10">
-        <v>1.275862291224584</v>
+        <v>0.4145057753379433</v>
       </c>
       <c r="H10">
-        <v>0.7945225152545277</v>
+        <v>0.8628530599942792</v>
       </c>
       <c r="I10">
-        <v>0.3661381166105429</v>
+        <v>0.7930687982939943</v>
       </c>
       <c r="J10">
-        <v>0.7778220830079334</v>
+        <v>0.3661012025466377</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.7776758302874285</v>
       </c>
       <c r="L10">
-        <v>1.625030254184736</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>1.625048899516671</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.75227539526685</v>
+        <v>2.75212948039399</v>
       </c>
       <c r="C11">
-        <v>0.9037881901914773</v>
+        <v>0.9032973961039374</v>
       </c>
       <c r="D11">
-        <v>0.06016979749303175</v>
+        <v>0.06033697492289036</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>2.05376613168113</v>
+        <v>2.05099817677025</v>
       </c>
       <c r="G11">
-        <v>1.359281804119121</v>
+        <v>0.4441611218413755</v>
       </c>
       <c r="H11">
-        <v>0.8368439058006985</v>
+        <v>0.9163830293835673</v>
       </c>
       <c r="I11">
-        <v>0.3959296484896839</v>
+        <v>0.8352937182034168</v>
       </c>
       <c r="J11">
-        <v>0.8373256209608257</v>
+        <v>0.3958894290742379</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.837161019530221</v>
       </c>
       <c r="L11">
-        <v>1.755491674192442</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>1.755501354799534</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.826507488961511</v>
+        <v>2.826348944491258</v>
       </c>
       <c r="C12">
-        <v>0.9286501242693816</v>
+        <v>0.9281424795719602</v>
       </c>
       <c r="D12">
-        <v>0.06164263645134582</v>
+        <v>0.06181430750251593</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>2.104392908604254</v>
+        <v>2.101554431348674</v>
       </c>
       <c r="G12">
-        <v>1.39159543313076</v>
+        <v>0.4556308190379923</v>
       </c>
       <c r="H12">
-        <v>0.8533585108064159</v>
+        <v>0.9371367348211379</v>
       </c>
       <c r="I12">
-        <v>0.4074505087104825</v>
+        <v>0.8517711762812468</v>
       </c>
       <c r="J12">
-        <v>0.8600334757887822</v>
+        <v>0.4074089987878153</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.8598616433773429</v>
       </c>
       <c r="L12">
-        <v>1.805493715707797</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>1.805499552259619</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.810495232615665</v>
+        <v>2.810339445638078</v>
       </c>
       <c r="C13">
-        <v>0.9232847550555618</v>
+        <v>0.9227807597061428</v>
       </c>
       <c r="D13">
-        <v>0.06132508729231034</v>
+        <v>0.0614957898331383</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>2.093441340726855</v>
+        <v>2.090618112072917</v>
       </c>
       <c r="G13">
-        <v>1.384602325985881</v>
+        <v>0.453149411152836</v>
       </c>
       <c r="H13">
-        <v>0.8497790738075466</v>
+        <v>0.9326445402076757</v>
       </c>
       <c r="I13">
-        <v>0.4049580156936869</v>
+        <v>0.8481997686819795</v>
       </c>
       <c r="J13">
-        <v>0.8551346475781116</v>
+        <v>0.4049167856875613</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.8549643858616349</v>
       </c>
       <c r="L13">
-        <v>1.794696628534993</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>1.794703314390148</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.758371366946562</v>
+        <v>2.75822442971355</v>
       </c>
       <c r="C14">
-        <v>0.9058287424748812</v>
+        <v>0.9053365710938124</v>
       </c>
       <c r="D14">
-        <v>0.06029081486097709</v>
+        <v>0.06045836166123308</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>2.057909724647772</v>
+        <v>2.055135994670081</v>
       </c>
       <c r="G14">
-        <v>1.361925185732645</v>
+        <v>0.4450997420923812</v>
       </c>
       <c r="H14">
-        <v>0.8381924265517355</v>
+        <v>0.9180804001680514</v>
       </c>
       <c r="I14">
-        <v>0.3968724561397394</v>
+        <v>0.8366391958219097</v>
       </c>
       <c r="J14">
-        <v>0.8391901223649896</v>
+        <v>0.3968321314225562</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.8390249319888667</v>
       </c>
       <c r="L14">
-        <v>1.759592790622108</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>1.759602164492222</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.726515709159173</v>
+        <v>2.726374085296868</v>
       </c>
       <c r="C15">
-        <v>0.8951676571999485</v>
+        <v>0.8946826703586908</v>
       </c>
       <c r="D15">
-        <v>0.05965828150188912</v>
+        <v>0.0598238973882701</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>2.036284215113909</v>
+        <v>2.03354063183329</v>
       </c>
       <c r="G15">
-        <v>1.348132018106412</v>
+        <v>0.440201310731041</v>
       </c>
       <c r="H15">
-        <v>0.8311607166527608</v>
+        <v>0.9092242475739312</v>
       </c>
       <c r="I15">
-        <v>0.3919521412623652</v>
+        <v>0.8296233738336056</v>
       </c>
       <c r="J15">
-        <v>0.8294473631229309</v>
+        <v>0.3919123655389285</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.8292852408023137</v>
       </c>
       <c r="L15">
-        <v>1.73817165755149</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>1.738182616771056</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.544993775705109</v>
+        <v>2.544881056469706</v>
       </c>
       <c r="C16">
-        <v>0.8345216926084618</v>
+        <v>0.8340770463656497</v>
       </c>
       <c r="D16">
-        <v>0.05604746845880726</v>
+        <v>0.05620204794756489</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.91437717048926</v>
+        <v>1.911803869932143</v>
       </c>
       <c r="G16">
-        <v>1.270506810252954</v>
+        <v>0.4125995182982507</v>
       </c>
       <c r="H16">
-        <v>0.7918217462778614</v>
+        <v>0.8594189397282292</v>
       </c>
       <c r="I16">
-        <v>0.3642226317151867</v>
+        <v>0.7903742535615663</v>
       </c>
       <c r="J16">
-        <v>0.7739562551711288</v>
+        <v>0.364185929043515</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.7738111646473129</v>
       </c>
       <c r="L16">
-        <v>1.616582818656383</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>1.616601991653766</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.434482908235395</v>
+        <v>2.434386647214069</v>
       </c>
       <c r="C17">
-        <v>0.7976860784127382</v>
+        <v>0.7972654974439308</v>
       </c>
       <c r="D17">
-        <v>0.05384361236534119</v>
+        <v>0.05399144421875235</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.84128455860764</v>
+        <v>1.83881368720067</v>
       </c>
       <c r="G17">
-        <v>1.224076005560008</v>
+        <v>0.3960595685076811</v>
       </c>
       <c r="H17">
-        <v>0.7684943575244247</v>
+        <v>0.8296594120308072</v>
       </c>
       <c r="I17">
-        <v>0.3475984451598535</v>
+        <v>0.7671010003975027</v>
       </c>
       <c r="J17">
-        <v>0.7401944431588632</v>
+        <v>0.3475635740247114</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.7400593481915081</v>
       </c>
       <c r="L17">
-        <v>1.542956357632988</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>1.542979858985333</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.371203892280448</v>
+        <v>2.371116668371599</v>
       </c>
       <c r="C18">
-        <v>0.7766228262728987</v>
+        <v>0.7762158584159522</v>
       </c>
       <c r="D18">
-        <v>0.05257969204195945</v>
+        <v>0.05272365010686286</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.799824606160044</v>
+        <v>1.797411967493304</v>
       </c>
       <c r="G18">
-        <v>1.197778872910703</v>
+        <v>0.3866808352759534</v>
       </c>
       <c r="H18">
-        <v>0.7553549615817587</v>
+        <v>0.8128157150772211</v>
       </c>
       <c r="I18">
-        <v>0.3381677199865507</v>
+        <v>0.753992411314762</v>
       </c>
       <c r="J18">
-        <v>0.7208694753835232</v>
+        <v>0.3381338866821011</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.72073997732668</v>
       </c>
       <c r="L18">
-        <v>1.500933667517856</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>1.50095942202212</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.34982498273132</v>
+        <v>2.349740748403917</v>
       </c>
       <c r="C19">
-        <v>0.7695113249261851</v>
+        <v>0.7691089289628508</v>
       </c>
       <c r="D19">
-        <v>0.05215234071979324</v>
+        <v>0.052294988333486</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.785883009803129</v>
+        <v>1.783489976523484</v>
       </c>
       <c r="G19">
-        <v>1.188942703628669</v>
+        <v>0.3835275897642845</v>
       </c>
       <c r="H19">
-        <v>0.7509522622518787</v>
+        <v>0.8071579479746021</v>
       </c>
       <c r="I19">
-        <v>0.3349961438443501</v>
+        <v>0.7496000887044758</v>
       </c>
       <c r="J19">
-        <v>0.7143416862154268</v>
+        <v>0.334962659601004</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.7142140582948144</v>
       </c>
       <c r="L19">
-        <v>1.48675874369988</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>1.486785222669837</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.446216997738247</v>
+        <v>2.446119029975478</v>
       </c>
       <c r="C20">
-        <v>0.8015942391428155</v>
+        <v>0.8011711205230938</v>
       </c>
       <c r="D20">
-        <v>0.05407782580473963</v>
+        <v>0.05422637517840201</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.849004359798244</v>
+        <v>1.846522656615534</v>
       </c>
       <c r="G20">
-        <v>1.228975727361387</v>
+        <v>0.3978061297605819</v>
       </c>
       <c r="H20">
-        <v>0.7709484382137504</v>
+        <v>0.8327986804845438</v>
       </c>
       <c r="I20">
-        <v>0.3493543111012229</v>
+        <v>0.7695493531438942</v>
       </c>
       <c r="J20">
-        <v>0.7437785267033163</v>
+        <v>0.3493192466985064</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.7436423837576953</v>
       </c>
       <c r="L20">
-        <v>1.550759718729111</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>1.550782784317249</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.773666294302927</v>
+        <v>2.773516780308682</v>
       </c>
       <c r="C21">
-        <v>0.9109494146021575</v>
+        <v>0.910453782460479</v>
       </c>
       <c r="D21">
-        <v>0.06059439689140333</v>
+        <v>0.06076287017098991</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>2.068317073171002</v>
+        <v>2.065528840640042</v>
       </c>
       <c r="G21">
-        <v>1.3685655694524</v>
+        <v>0.4474573488206914</v>
       </c>
       <c r="H21">
-        <v>0.8415819532308433</v>
+        <v>0.9223446191972613</v>
       </c>
       <c r="I21">
-        <v>0.3992405741086031</v>
+        <v>0.8400210814029236</v>
       </c>
       <c r="J21">
-        <v>0.8438684158006851</v>
+        <v>0.399199984666339</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.8437017439191834</v>
       </c>
       <c r="L21">
-        <v>1.769886579535168</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>1.769895176775492</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.990807875872633</v>
+        <v>2.990619976264441</v>
       </c>
       <c r="C22">
-        <v>0.9837842286817988</v>
+        <v>0.9832386709903744</v>
       </c>
       <c r="D22">
-        <v>0.06489632501011044</v>
+        <v>0.06507790921040879</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>2.21774162424353</v>
+        <v>2.214745510300091</v>
       </c>
       <c r="G22">
-        <v>1.464068936996426</v>
+        <v>0.4813226537653463</v>
       </c>
       <c r="H22">
-        <v>0.8906240875155618</v>
+        <v>0.983716918253549</v>
       </c>
       <c r="I22">
-        <v>0.4332601121667992</v>
+        <v>0.8889538321124775</v>
       </c>
       <c r="J22">
-        <v>0.9103198531302752</v>
+        <v>0.4332156762081354</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.9101315544034065</v>
       </c>
       <c r="L22">
-        <v>1.916642986794244</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>1.916639460489961</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.874596979801765</v>
+        <v>2.874430043666166</v>
       </c>
       <c r="C23">
-        <v>0.9447722504009732</v>
+        <v>0.944253597218534</v>
       </c>
       <c r="D23">
-        <v>0.06259583948177294</v>
+        <v>0.06277041667030403</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>2.137385817339521</v>
+        <v>2.134501422650686</v>
       </c>
       <c r="G23">
-        <v>1.41267293759006</v>
+        <v>0.4631073124533884</v>
       </c>
       <c r="H23">
-        <v>0.864164891965018</v>
+        <v>0.9506790274696186</v>
       </c>
       <c r="I23">
-        <v>0.4149605888659949</v>
+        <v>0.8625533876705944</v>
       </c>
       <c r="J23">
-        <v>0.8747481576270815</v>
+        <v>0.4149182329078798</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.8745715716964355</v>
       </c>
       <c r="L23">
-        <v>1.837958136787051</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>1.837961355639166</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.44091122756322</v>
+        <v>2.440814032732646</v>
       </c>
       <c r="C24">
-        <v>0.7998270072861828</v>
+        <v>0.7994050366259842</v>
       </c>
       <c r="D24">
-        <v>0.05397192834254838</v>
+        <v>0.05412015330835374</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.845512497021758</v>
+        <v>1.843035692910036</v>
       </c>
       <c r="G24">
-        <v>1.226759334685127</v>
+        <v>0.3970161058485928</v>
       </c>
       <c r="H24">
-        <v>0.7698381059345749</v>
+        <v>0.8313785948080152</v>
       </c>
       <c r="I24">
-        <v>0.348560091960799</v>
+        <v>0.768441611445887</v>
       </c>
       <c r="J24">
-        <v>0.7421578994432494</v>
+        <v>0.3485251149805961</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.7420222307514521</v>
       </c>
       <c r="L24">
-        <v>1.547230872456765</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>1.54725413578096</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.983695163448346</v>
+        <v>1.983657137127352</v>
       </c>
       <c r="C25">
-        <v>0.6480903542026226</v>
+        <v>0.6477641329947232</v>
       </c>
       <c r="D25">
-        <v>0.04480586537700759</v>
+        <v>0.04492593192130556</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.552486131275643</v>
+        <v>1.550423505634186</v>
       </c>
       <c r="G25">
-        <v>1.041563717938629</v>
+        <v>0.3307764624749296</v>
       </c>
       <c r="H25">
-        <v>0.678536909194797</v>
+        <v>0.7129544888054085</v>
       </c>
       <c r="I25">
-        <v>0.2818422303144601</v>
+        <v>0.6773599866411573</v>
       </c>
       <c r="J25">
-        <v>0.6026401494719806</v>
+        <v>0.2818146419541421</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.6025429233396196</v>
       </c>
       <c r="L25">
-        <v>1.2457906863158</v>
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>1.245826737989859</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_1/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_1/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.653317641523955</v>
+        <v>1.878338772522568</v>
       </c>
       <c r="C2">
-        <v>0.5388563231374519</v>
+        <v>0.2335057764752548</v>
       </c>
       <c r="D2">
-        <v>0.03822626260610917</v>
+        <v>0.003530145518656269</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.349507099275272</v>
+        <v>2.847427158821574</v>
       </c>
       <c r="G2">
-        <v>0.2853548681322025</v>
+        <v>0.0008494834625315394</v>
       </c>
       <c r="H2">
-        <v>0.632678444954152</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.6174230198226454</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.235804498487731</v>
+        <v>0.1016142878211443</v>
       </c>
       <c r="K2">
-        <v>0.5019220996594882</v>
+        <v>0.4201106630043654</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1352318704242776</v>
       </c>
       <c r="M2">
-        <v>1.031387160310352</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0.3265111356020327</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>2.125030945235807</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.432139770502602</v>
+        <v>1.648904523816356</v>
       </c>
       <c r="C3">
-        <v>0.466244286721718</v>
+        <v>0.2050439709876457</v>
       </c>
       <c r="D3">
-        <v>0.03370947128119894</v>
+        <v>0.003113269571292321</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.220610554670913</v>
+        <v>2.688404456683529</v>
       </c>
       <c r="G3">
-        <v>0.2562365865665228</v>
+        <v>0.0008571755101469789</v>
       </c>
       <c r="H3">
-        <v>0.5817743991160782</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.5804561517199645</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2060975603810107</v>
+        <v>0.1023664751374689</v>
       </c>
       <c r="K3">
-        <v>0.4346284310448567</v>
+        <v>0.3648472615671992</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1260229293610422</v>
       </c>
       <c r="M3">
-        <v>0.8894900337275331</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0.2900207759825477</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>2.00276732045262</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.297314111701013</v>
+        <v>1.510497694592488</v>
       </c>
       <c r="C4">
-        <v>0.4221005523112069</v>
+        <v>0.1876986666454457</v>
       </c>
       <c r="D4">
-        <v>0.03094206911258368</v>
+        <v>0.00286849796106825</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.144526590412866</v>
+        <v>2.594761481908392</v>
       </c>
       <c r="G4">
-        <v>0.2390545119788214</v>
+        <v>0.0008620354084386919</v>
       </c>
       <c r="H4">
-        <v>0.552007026435021</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.5593284849090665</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.188451626248817</v>
+        <v>0.1028703464017902</v>
       </c>
       <c r="K4">
-        <v>0.3936373857947686</v>
+        <v>0.3314284828106864</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.120547138026005</v>
       </c>
       <c r="M4">
-        <v>0.8036964919070471</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0.2680593021026425</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>1.930742640877185</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.242570574841039</v>
+        <v>1.454651375812858</v>
       </c>
       <c r="C5">
-        <v>0.4042023022122976</v>
+        <v>0.1806551496740099</v>
       </c>
       <c r="D5">
-        <v>0.02981506460832861</v>
+        <v>0.002771123410095555</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.114219706438902</v>
+        <v>2.557531112056651</v>
       </c>
       <c r="G5">
-        <v>0.2322109799858794</v>
+        <v>0.0008640515005406128</v>
       </c>
       <c r="H5">
-        <v>0.5402183490317753</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.5510820592795369</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1813923314860375</v>
+        <v>0.1030859882382984</v>
       </c>
       <c r="K5">
-        <v>0.3770001099164446</v>
+        <v>0.3179236730526185</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1183578231710953</v>
       </c>
       <c r="M5">
-        <v>0.7690214763026333</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0.259211035792287</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>1.902098765908761</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.233491167460755</v>
+        <v>1.445409894009344</v>
       </c>
       <c r="C6">
-        <v>0.4012352325128461</v>
+        <v>0.1794868587245446</v>
       </c>
       <c r="D6">
-        <v>0.02962794989270634</v>
+        <v>0.002755085578638905</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.109227443111905</v>
+        <v>2.551403100278364</v>
       </c>
       <c r="G6">
-        <v>0.2310837081364454</v>
+        <v>0.000864388457751</v>
       </c>
       <c r="H6">
-        <v>0.5382805892116664</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.5497338087123467</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1802275939946689</v>
+        <v>0.1031224109022482</v>
       </c>
       <c r="K6">
-        <v>0.3742411152853578</v>
+        <v>0.3156876428146589</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1179967553657306</v>
       </c>
       <c r="M6">
-        <v>0.7632796838736624</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0.2577476123428504</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>1.897383511301399</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.296575074893696</v>
+        <v>1.509742364024248</v>
       </c>
       <c r="C7">
-        <v>0.4218588284259397</v>
+        <v>0.187603584798353</v>
       </c>
       <c r="D7">
-        <v>0.03092686791310939</v>
+        <v>0.002867175683321399</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.144115125519832</v>
+        <v>2.594255710640709</v>
       </c>
       <c r="G7">
-        <v>0.2389615981438098</v>
+        <v>0.0008620624523228808</v>
       </c>
       <c r="H7">
-        <v>0.551846697434307</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0.5592158398692817</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1883559119173341</v>
+        <v>0.102873213204969</v>
       </c>
       <c r="K7">
-        <v>0.3934127583091325</v>
+        <v>0.3312459117457891</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1205174451634434</v>
       </c>
       <c r="M7">
-        <v>0.8032277533530987</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0.2679395746285671</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>1.930353552924331</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.576822887914261</v>
+        <v>1.798677319022914</v>
       </c>
       <c r="C8">
-        <v>0.5137156960318805</v>
+        <v>0.223660098375106</v>
       </c>
       <c r="D8">
-        <v>0.03666716552690019</v>
+        <v>0.003383803395673013</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.304384019608776</v>
+        <v>2.791719326834041</v>
       </c>
       <c r="G8">
-        <v>0.2751597183259094</v>
+        <v>0.0008521080094123588</v>
       </c>
       <c r="H8">
-        <v>0.6147976305240377</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0.6043312090856077</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0.225426957083755</v>
+        <v>0.1018647594829467</v>
       </c>
       <c r="K8">
-        <v>0.4786415511858166</v>
+        <v>0.4009396574507704</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1320178306232194</v>
       </c>
       <c r="M8">
-        <v>0.9821541895942687</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0.3138306562721098</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>2.082205361629278</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.136503602273365</v>
+        <v>2.388065084125685</v>
       </c>
       <c r="C9">
-        <v>0.698343528043381</v>
+        <v>0.295797956540639</v>
       </c>
       <c r="D9">
-        <v>0.04800923747559693</v>
+        <v>0.004508226788498604</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.646473382781565</v>
+        <v>3.214379570232637</v>
       </c>
       <c r="G9">
-        <v>0.3525075667638617</v>
+        <v>0.0008336147848940448</v>
       </c>
       <c r="H9">
-        <v>0.7516532739794997</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0.7068198192486292</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0.3037355113092559</v>
+        <v>0.1002331513294337</v>
       </c>
       <c r="K9">
-        <v>0.6491466540470228</v>
+        <v>0.542448073551256</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.15612467054099</v>
       </c>
       <c r="M9">
-        <v>1.346016926506437</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0.4078592658702647</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>2.407067832441911</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.557529590766023</v>
+        <v>2.839952968765374</v>
       </c>
       <c r="C10">
-        <v>0.8382950623877434</v>
+        <v>0.3502878633117632</v>
       </c>
       <c r="D10">
-        <v>0.05645482541953584</v>
+        <v>0.005438081105451076</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.920214122996711</v>
+        <v>3.552219970070468</v>
       </c>
       <c r="G10">
-        <v>0.4145057753379433</v>
+        <v>0.0008205636519310981</v>
       </c>
       <c r="H10">
-        <v>0.8628530599942792</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0.7930687982939943</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0.3661012025466377</v>
+        <v>0.0992643170537324</v>
       </c>
       <c r="K10">
-        <v>0.7776758302874285</v>
+        <v>0.650552875998585</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1749968398186041</v>
       </c>
       <c r="M10">
-        <v>1.625048899516671</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0.4801995545332076</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>2.666736089329333</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.75212948039399</v>
+        <v>3.05088024605152</v>
       </c>
       <c r="C11">
-        <v>0.9032973961039374</v>
+        <v>0.3755578545304274</v>
       </c>
       <c r="D11">
-        <v>0.06033697492289036</v>
+        <v>0.005893118480951642</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>2.05099817677025</v>
+        <v>3.713278379766933</v>
       </c>
       <c r="G11">
-        <v>0.4441611218413755</v>
+        <v>0.0008147201811448124</v>
       </c>
       <c r="H11">
-        <v>0.9163830293835673</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0.8352937182034168</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0.3958894290742379</v>
+        <v>0.09887824038317916</v>
       </c>
       <c r="K11">
-        <v>0.837161019530221</v>
+        <v>0.7009317834374897</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1838879640722197</v>
       </c>
       <c r="M11">
-        <v>1.755501354799534</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0.5140173303575395</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>2.790551819364737</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.826348944491258</v>
+        <v>3.131641817313891</v>
       </c>
       <c r="C12">
-        <v>0.9281424795719602</v>
+        <v>0.3852112400718681</v>
       </c>
       <c r="D12">
-        <v>0.06181430750251593</v>
+        <v>0.006070972256440044</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>2.101554431348674</v>
+        <v>3.775462232641274</v>
       </c>
       <c r="G12">
-        <v>0.4556308190379923</v>
+        <v>0.0008125187708512841</v>
       </c>
       <c r="H12">
-        <v>0.9371367348211379</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0.8517711762812468</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0.4074089987878153</v>
+        <v>0.09874035108944668</v>
       </c>
       <c r="K12">
-        <v>0.8598616433773429</v>
+        <v>0.7202100296429421</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.1873038313726809</v>
       </c>
       <c r="M12">
-        <v>1.805499552259619</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0.5269729363212363</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>2.838362158189852</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.810339445638078</v>
+        <v>3.114206864641801</v>
       </c>
       <c r="C13">
-        <v>0.9227807597061428</v>
+        <v>0.3831282104673335</v>
       </c>
       <c r="D13">
-        <v>0.0614957898331383</v>
+        <v>0.006032405476663172</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>2.090618112072917</v>
+        <v>3.762014397337509</v>
       </c>
       <c r="G13">
-        <v>0.453149411152836</v>
+        <v>0.0008129924129871569</v>
       </c>
       <c r="H13">
-        <v>0.9326445402076757</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0.8481997686819795</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0.4049167856875613</v>
+        <v>0.09876967072804987</v>
       </c>
       <c r="K13">
-        <v>0.8549643858616349</v>
+        <v>0.716048699211818</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.186565899042904</v>
       </c>
       <c r="M13">
-        <v>1.794703314390148</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0.5241757423660118</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>2.828022438919234</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.75822442971355</v>
+        <v>3.057506033660786</v>
       </c>
       <c r="C14">
-        <v>0.9053365710938124</v>
+        <v>0.3763502655754394</v>
       </c>
       <c r="D14">
-        <v>0.06045836166123308</v>
+        <v>0.00590763372908043</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>2.055135994670081</v>
+        <v>3.718369518837079</v>
       </c>
       <c r="G14">
-        <v>0.4450997420923812</v>
+        <v>0.0008145388542058883</v>
       </c>
       <c r="H14">
-        <v>0.9180804001680514</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0.8366391958219097</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0.3968321314225562</v>
+        <v>0.09886672685075482</v>
       </c>
       <c r="K14">
-        <v>0.8390249319888667</v>
+        <v>0.7025136185289611</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.1841679771606053</v>
       </c>
       <c r="M14">
-        <v>1.759602164492222</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0.5150800837943379</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>2.794466038116383</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.726374085296868</v>
+        <v>3.022894484324752</v>
       </c>
       <c r="C15">
-        <v>0.8946826703586908</v>
+        <v>0.3722100139688393</v>
       </c>
       <c r="D15">
-        <v>0.0598238973882701</v>
+        <v>0.005831959079179327</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>2.03354063183329</v>
+        <v>3.69179557906233</v>
       </c>
       <c r="G15">
-        <v>0.440201310731041</v>
+        <v>0.0008154875116726795</v>
       </c>
       <c r="H15">
-        <v>0.9092242475739312</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0.8296233738336056</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0.3919123655389285</v>
+        <v>0.09892727291061298</v>
       </c>
       <c r="K15">
-        <v>0.8292852408023137</v>
+        <v>0.6942500361841581</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1827057181520928</v>
       </c>
       <c r="M15">
-        <v>1.738182616771056</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0.509528797993795</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>2.7740354468947</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.544881056469706</v>
+        <v>2.826285961259373</v>
       </c>
       <c r="C16">
-        <v>0.8340770463656497</v>
+        <v>0.3486473421807545</v>
       </c>
       <c r="D16">
-        <v>0.05620204794756489</v>
+        <v>0.005409064844771549</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.911803869932143</v>
+        <v>3.541853929015303</v>
       </c>
       <c r="G16">
-        <v>0.4125995182982507</v>
+        <v>0.0008209472473677777</v>
       </c>
       <c r="H16">
-        <v>0.8594189397282292</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0.7903742535615663</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0.364185929043515</v>
+        <v>0.09929068521381801</v>
       </c>
       <c r="K16">
-        <v>0.7738111646473129</v>
+        <v>0.6472869997762558</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1744223561036691</v>
       </c>
       <c r="M16">
-        <v>1.616601991653766</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.4780093433816504</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>2.658767722676615</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.434386647214069</v>
+        <v>2.707125314468101</v>
       </c>
       <c r="C17">
-        <v>0.7972654974439308</v>
+        <v>0.3343259298674184</v>
       </c>
       <c r="D17">
-        <v>0.05399144421875235</v>
+        <v>0.00515846225765948</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.83881368720067</v>
+        <v>3.451848925356501</v>
       </c>
       <c r="G17">
-        <v>0.3960595685076811</v>
+        <v>0.0008243191773960834</v>
       </c>
       <c r="H17">
-        <v>0.8296594120308072</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0.7671010003975027</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0.3475635740247114</v>
+        <v>0.09952792991780868</v>
       </c>
       <c r="K17">
-        <v>0.7400593481915081</v>
+        <v>0.6188034078694074</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.169422548084512</v>
       </c>
       <c r="M17">
-        <v>1.542979858985333</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.4589188703022486</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>2.589583868429386</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.371116668371599</v>
+        <v>2.639084134573352</v>
       </c>
       <c r="C18">
-        <v>0.7762158584159522</v>
+        <v>0.3261330366266861</v>
       </c>
       <c r="D18">
-        <v>0.05272365010686286</v>
+        <v>0.00501727491132975</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.797411967493304</v>
+        <v>3.400765544653808</v>
       </c>
       <c r="G18">
-        <v>0.3866808352759534</v>
+        <v>0.0008262675643163546</v>
       </c>
       <c r="H18">
-        <v>0.8128157150772211</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0.753992411314762</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0.3381338866821011</v>
+        <v>0.09966950108165307</v>
       </c>
       <c r="K18">
-        <v>0.72073997732668</v>
+        <v>0.6025316283776689</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1665752716751925</v>
       </c>
       <c r="M18">
-        <v>1.50095942202212</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.4480229326864347</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>2.5503198576084</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.349740748403917</v>
+        <v>2.616128545169147</v>
       </c>
       <c r="C19">
-        <v>0.7691089289628508</v>
+        <v>0.3233662668133093</v>
       </c>
       <c r="D19">
-        <v>0.052294988333486</v>
+        <v>0.004969952137036771</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.783489976523484</v>
+        <v>3.383583408334175</v>
       </c>
       <c r="G19">
-        <v>0.3835275897642845</v>
+        <v>0.0008269288498272687</v>
       </c>
       <c r="H19">
-        <v>0.8071579479746021</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0.7496000887044758</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0.334962659601004</v>
+        <v>0.09971830007884286</v>
       </c>
       <c r="K19">
-        <v>0.7142140582948144</v>
+        <v>0.5970405834701538</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1656159815776732</v>
       </c>
       <c r="M19">
-        <v>1.486785222669837</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.4443477143372405</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>2.537113517723668</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.446119029975478</v>
+        <v>2.719757938574787</v>
       </c>
       <c r="C20">
-        <v>0.8011711205230938</v>
+        <v>0.3358457711654239</v>
       </c>
       <c r="D20">
-        <v>0.05422637517840201</v>
+        <v>0.005184827410801063</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.846522656615534</v>
+        <v>3.461358279536142</v>
       </c>
       <c r="G20">
-        <v>0.3978061297605819</v>
+        <v>0.0008239593183998787</v>
       </c>
       <c r="H20">
-        <v>0.8327986804845438</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0.7695493531438942</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0.3493192466985064</v>
+        <v>0.09950214239510302</v>
       </c>
       <c r="K20">
-        <v>0.7436423837576953</v>
+        <v>0.6218238299150727</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1699518042007142</v>
       </c>
       <c r="M20">
-        <v>1.550782784317249</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.4609422200299065</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>2.596893160786422</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.773516780308682</v>
+        <v>3.074135342085754</v>
       </c>
       <c r="C21">
-        <v>0.910453782460479</v>
+        <v>0.3783387000647451</v>
       </c>
       <c r="D21">
-        <v>0.06076287017098991</v>
+        <v>0.005944123709191729</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>2.065528840640042</v>
+        <v>3.731155512090282</v>
       </c>
       <c r="G21">
-        <v>0.4474573488206914</v>
+        <v>0.0008140843354450367</v>
       </c>
       <c r="H21">
-        <v>0.9223446191972613</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0.8400210814029236</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0.399199984666339</v>
+        <v>0.098837989753358</v>
       </c>
       <c r="K21">
-        <v>0.8437017439191834</v>
+        <v>0.7064835087714556</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.184870932875441</v>
       </c>
       <c r="M21">
-        <v>1.769895176775492</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.5177474806208338</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>2.804296387266433</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.990619976264441</v>
+        <v>3.310981798239197</v>
       </c>
       <c r="C22">
-        <v>0.9832386709903744</v>
+        <v>0.4066092583875616</v>
       </c>
       <c r="D22">
-        <v>0.06507790921040879</v>
+        <v>0.006473202106182185</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>2.214745510300091</v>
+        <v>3.914520001507555</v>
       </c>
       <c r="G22">
-        <v>0.4813226537653463</v>
+        <v>0.0008076956963196587</v>
       </c>
       <c r="H22">
-        <v>0.983716918253549</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0.8889538321124775</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0.4332156762081354</v>
+        <v>0.09845260886818608</v>
       </c>
       <c r="K22">
-        <v>0.9101315544034065</v>
+        <v>0.7629996843882623</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.1949097335393404</v>
       </c>
       <c r="M22">
-        <v>1.916639460489961</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.555754978877701</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>2.945290286187515</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.874430043666166</v>
+        <v>3.184050583972578</v>
       </c>
       <c r="C23">
-        <v>0.944253597218534</v>
+        <v>0.391469678144432</v>
       </c>
       <c r="D23">
-        <v>0.06277041667030403</v>
+        <v>0.006187473035261348</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>2.134501422650686</v>
+        <v>3.81596261337333</v>
       </c>
       <c r="G23">
-        <v>0.4631073124533884</v>
+        <v>0.0008111002085104149</v>
       </c>
       <c r="H23">
-        <v>0.9506790274696186</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0.8625533876705944</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0.4149182329078798</v>
+        <v>0.09865367714007789</v>
       </c>
       <c r="K23">
-        <v>0.8745715716964355</v>
+        <v>0.732717243298751</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.1895236637816282</v>
       </c>
       <c r="M23">
-        <v>1.837961355639166</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.535382199007941</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>2.8695029296467</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.440814032732646</v>
+        <v>2.714045286832402</v>
       </c>
       <c r="C24">
-        <v>0.7994050366259842</v>
+        <v>0.3351585253116411</v>
       </c>
       <c r="D24">
-        <v>0.05412015330835374</v>
+        <v>0.005172898800170245</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.843035692910036</v>
+        <v>3.457057049438731</v>
       </c>
       <c r="G24">
-        <v>0.3970161058485928</v>
+        <v>0.0008241219799777593</v>
       </c>
       <c r="H24">
-        <v>0.8313785948080152</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0.768441611445887</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0.3485251149805961</v>
+        <v>0.09951378484550766</v>
       </c>
       <c r="K24">
-        <v>0.7420222307514521</v>
+        <v>0.6204579758219708</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.169712443220682</v>
       </c>
       <c r="M24">
-        <v>1.54725413578096</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.4600272176000004</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>2.593587046799414</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.983657137127352</v>
+        <v>2.225697278340817</v>
       </c>
       <c r="C25">
-        <v>0.6477641329947232</v>
+        <v>0.2760697479009622</v>
       </c>
       <c r="D25">
-        <v>0.04492593192130556</v>
+        <v>0.00418870455421505</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.550423505634186</v>
+        <v>3.095689440665993</v>
       </c>
       <c r="G25">
-        <v>0.3307764624749296</v>
+        <v>0.0008385165476829515</v>
       </c>
       <c r="H25">
-        <v>0.7129544888054085</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0.6773599866411573</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2818146419541421</v>
+        <v>0.1006356534019126</v>
       </c>
       <c r="K25">
-        <v>0.6025429233396196</v>
+        <v>0.5035328171252118</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1494159575581619</v>
       </c>
       <c r="M25">
-        <v>1.245826737989859</v>
+        <v>0.3819124567594656</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>2.315848506580963</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_1/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_1/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.878338772522568</v>
+        <v>1.948202914090217</v>
       </c>
       <c r="C2">
-        <v>0.2335057764752548</v>
+        <v>0.4005587322827466</v>
       </c>
       <c r="D2">
-        <v>0.003530145518656269</v>
+        <v>0.0573219090589987</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2.847427158821574</v>
+        <v>0.3845338210803604</v>
       </c>
       <c r="G2">
-        <v>0.0008494834625315394</v>
+        <v>0.2778939598735946</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.2214304965291305</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.2056610948664108</v>
       </c>
       <c r="J2">
-        <v>0.1016142878211443</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.4201106630043654</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1352318704242776</v>
+        <v>0.1974440260565231</v>
       </c>
       <c r="M2">
-        <v>0.3265111356020327</v>
+        <v>0.3548478204645846</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.761333845149565</v>
       </c>
       <c r="O2">
-        <v>2.125030945235807</v>
+        <v>1.003347868898018</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.648904523816356</v>
+        <v>1.696146724396499</v>
       </c>
       <c r="C3">
-        <v>0.2050439709876457</v>
+        <v>0.3747846712982295</v>
       </c>
       <c r="D3">
-        <v>0.003113269571292321</v>
+        <v>0.05047047843358854</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>2.688404456683529</v>
+        <v>0.3531242591586548</v>
       </c>
       <c r="G3">
-        <v>0.0008571755101469789</v>
+        <v>0.2551318076261282</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.215708354690527</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.2075710686039471</v>
       </c>
       <c r="J3">
-        <v>0.1023664751374689</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.3648472615671992</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1260229293610422</v>
+        <v>0.182506173043258</v>
       </c>
       <c r="M3">
-        <v>0.2900207759825477</v>
+        <v>0.309553492933702</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.7698489918803304</v>
       </c>
       <c r="O3">
-        <v>2.00276732045262</v>
+        <v>0.9427897669897476</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.510497694592488</v>
+        <v>1.541311561253195</v>
       </c>
       <c r="C4">
-        <v>0.1876986666454457</v>
+        <v>0.3589293049070932</v>
       </c>
       <c r="D4">
-        <v>0.00286849796106825</v>
+        <v>0.04625400959751857</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>2.594761481908392</v>
+        <v>0.33452658574803</v>
       </c>
       <c r="G4">
-        <v>0.0008620354084386919</v>
+        <v>0.241763509741844</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.2125970696189938</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.2092917247534061</v>
       </c>
       <c r="J4">
-        <v>0.1028703464017902</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.3314284828106864</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.120547138026005</v>
+        <v>0.1735980709359239</v>
       </c>
       <c r="M4">
-        <v>0.2680593021026425</v>
+        <v>0.2818267624068795</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.7759292693048678</v>
       </c>
       <c r="O4">
-        <v>1.930742640877185</v>
+        <v>0.9077281899618015</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.454651375812858</v>
+        <v>1.478184524085634</v>
       </c>
       <c r="C5">
-        <v>0.1806551496740099</v>
+        <v>0.3524601153676201</v>
       </c>
       <c r="D5">
-        <v>0.002771123410095555</v>
+        <v>0.04453305084125248</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>2.557531112056651</v>
+        <v>0.3271108423726901</v>
       </c>
       <c r="G5">
-        <v>0.0008640515005406128</v>
+        <v>0.2364593285830807</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.2114261629022351</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.2101252231679887</v>
       </c>
       <c r="J5">
-        <v>0.1030859882382984</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.3179236730526185</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1183578231710953</v>
+        <v>0.1700308711192804</v>
       </c>
       <c r="M5">
-        <v>0.259211035792287</v>
+        <v>0.2705456642051409</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.7786153720148619</v>
       </c>
       <c r="O5">
-        <v>1.902098765908761</v>
+        <v>0.8939452847799316</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.445409894009344</v>
+        <v>1.467700139670427</v>
       </c>
       <c r="C6">
-        <v>0.1794868587245446</v>
+        <v>0.351385415944975</v>
       </c>
       <c r="D6">
-        <v>0.002755085578638905</v>
+        <v>0.04424711504327661</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>2.551403100278364</v>
+        <v>0.3258890210052598</v>
       </c>
       <c r="G6">
-        <v>0.000864388457751</v>
+        <v>0.2355869759350924</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.211237473245923</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.2102714608879239</v>
       </c>
       <c r="J6">
-        <v>0.1031224109022482</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.3156876428146589</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1179967553657306</v>
+        <v>0.1694422437685148</v>
       </c>
       <c r="M6">
-        <v>0.2577476123428504</v>
+        <v>0.2686734238262858</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.7790738136399966</v>
       </c>
       <c r="O6">
-        <v>1.897383511301399</v>
+        <v>0.8916863336335297</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.509742364024248</v>
+        <v>1.540460347139685</v>
       </c>
       <c r="C7">
-        <v>0.187603584798353</v>
+        <v>0.3588420921085174</v>
       </c>
       <c r="D7">
-        <v>0.002867175683321399</v>
+        <v>0.04623081149775032</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>2.594255710640709</v>
+        <v>0.334425927567203</v>
       </c>
       <c r="G7">
-        <v>0.0008620624523228808</v>
+        <v>0.2416914066660993</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.2125808911032649</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.2093024369196961</v>
       </c>
       <c r="J7">
-        <v>0.102873213204969</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0.3312459117457891</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1205174451634434</v>
+        <v>0.1735497120574649</v>
       </c>
       <c r="M7">
-        <v>0.2679395746285671</v>
+        <v>0.2816745539828815</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.7759646590397224</v>
       </c>
       <c r="O7">
-        <v>1.930353552924331</v>
+        <v>0.9075403010030811</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.798677319022914</v>
+        <v>1.861301016268072</v>
       </c>
       <c r="C8">
-        <v>0.223660098375106</v>
+        <v>0.3916777596521541</v>
       </c>
       <c r="D8">
-        <v>0.003383803395673013</v>
+        <v>0.05496136429655252</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2.791719326834041</v>
+        <v>0.3735548529595505</v>
       </c>
       <c r="G8">
-        <v>0.0008521080094123588</v>
+        <v>0.2699136948391256</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.2193714829578752</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.2062025773488187</v>
       </c>
       <c r="J8">
-        <v>0.1018647594829467</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0.4009396574507704</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1320178306232194</v>
+        <v>0.1922366011004115</v>
       </c>
       <c r="M8">
-        <v>0.3138306562721098</v>
+        <v>0.3392107551398524</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.7640894185778251</v>
       </c>
       <c r="O8">
-        <v>2.082205361629278</v>
+        <v>0.9820096324077809</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.388065084125685</v>
+        <v>2.490529149923077</v>
       </c>
       <c r="C9">
-        <v>0.295797956540639</v>
+        <v>0.4558571994160729</v>
       </c>
       <c r="D9">
-        <v>0.004508226788498604</v>
+        <v>0.07201954710966163</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>3.214379570232637</v>
+        <v>0.4562213152483423</v>
       </c>
       <c r="G9">
-        <v>0.0008336147848940448</v>
+        <v>0.3305218473778098</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.2360754902314852</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.20472819644597</v>
       </c>
       <c r="J9">
-        <v>0.1002331513294337</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0.542448073551256</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0.15612467054099</v>
+        <v>0.231137350740795</v>
       </c>
       <c r="M9">
-        <v>0.4078592658702647</v>
+        <v>0.4528742655112481</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.7478408287947005</v>
       </c>
       <c r="O9">
-        <v>2.407067832441911</v>
+        <v>1.146225725162367</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.839952968765374</v>
+        <v>2.953835849910945</v>
       </c>
       <c r="C10">
-        <v>0.3502878633117632</v>
+        <v>0.5029273759829493</v>
       </c>
       <c r="D10">
-        <v>0.005438081105451076</v>
+        <v>0.08453612739439365</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>3.552219970070468</v>
+        <v>0.5212734825823162</v>
       </c>
       <c r="G10">
-        <v>0.0008205636519310981</v>
+        <v>0.3789079153953594</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.2507016923549088</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.2068251543924653</v>
       </c>
       <c r="J10">
-        <v>0.0992643170537324</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0.650552875998585</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0.1749968398186041</v>
+        <v>0.2613324152457608</v>
       </c>
       <c r="M10">
-        <v>0.4801995545332076</v>
+        <v>0.5371458477648332</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.7406015567295015</v>
       </c>
       <c r="O10">
-        <v>2.666736089329333</v>
+        <v>1.27993818662037</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.05088024605152</v>
+        <v>3.165060918248969</v>
       </c>
       <c r="C11">
-        <v>0.3755578545304274</v>
+        <v>0.5243347638203488</v>
       </c>
       <c r="D11">
-        <v>0.005893118480951642</v>
+        <v>0.09023195207910817</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>3.713278379766933</v>
+        <v>0.5519687034618386</v>
       </c>
       <c r="G11">
-        <v>0.0008147201811448124</v>
+        <v>0.4019095747582213</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.2579343795959659</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.2085567432414486</v>
       </c>
       <c r="J11">
-        <v>0.09887824038317916</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0.7009317834374897</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0.1838879640722197</v>
+        <v>0.2754756427982983</v>
       </c>
       <c r="M11">
-        <v>0.5140173303575395</v>
+        <v>0.5757092567253892</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.7384241124781283</v>
       </c>
       <c r="O11">
-        <v>2.790551819364737</v>
+        <v>1.344068246952304</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.131641817313891</v>
+        <v>3.245133204939407</v>
       </c>
       <c r="C12">
-        <v>0.3852112400718681</v>
+        <v>0.5324414491334437</v>
       </c>
       <c r="D12">
-        <v>0.006070972256440044</v>
+        <v>0.09238952708960824</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>3.775462232641274</v>
+        <v>0.5637651371418286</v>
       </c>
       <c r="G12">
-        <v>0.0008125187708512841</v>
+        <v>0.4107755450989288</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.2607624764569039</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.20933197768829</v>
       </c>
       <c r="J12">
-        <v>0.09874035108944668</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0.7202100296429421</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0.1873038313726809</v>
+        <v>0.2808947868950895</v>
       </c>
       <c r="M12">
-        <v>0.5269729363212363</v>
+        <v>0.5903501819902743</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.7377684960135156</v>
       </c>
       <c r="O12">
-        <v>2.838362158189852</v>
+        <v>1.368868625834722</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.114206864641801</v>
+        <v>3.227884063328133</v>
       </c>
       <c r="C13">
-        <v>0.3831282104673335</v>
+        <v>0.5306955063080352</v>
       </c>
       <c r="D13">
-        <v>0.006032405476663172</v>
+        <v>0.09192481728407387</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>3.762014397337509</v>
+        <v>0.5612166416003461</v>
       </c>
       <c r="G13">
-        <v>0.0008129924129871569</v>
+        <v>0.4088589526936488</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.260149327705065</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.2091595741834844</v>
       </c>
       <c r="J13">
-        <v>0.09876967072804987</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0.716048699211818</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0.186565899042904</v>
+        <v>0.2797247769781421</v>
       </c>
       <c r="M13">
-        <v>0.5241757423660118</v>
+        <v>0.5871952318148246</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.737902040836417</v>
       </c>
       <c r="O13">
-        <v>2.828022438919234</v>
+        <v>1.363503809591606</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.057506033660786</v>
+        <v>3.17164667648791</v>
       </c>
       <c r="C14">
-        <v>0.3763502655754394</v>
+        <v>0.5250016967258375</v>
       </c>
       <c r="D14">
-        <v>0.00590763372908043</v>
+        <v>0.09040944083039193</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>3.718369518837079</v>
+        <v>0.5529356548521491</v>
       </c>
       <c r="G14">
-        <v>0.0008145388542058883</v>
+        <v>0.4026357831335332</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.2581652250112398</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.2086180812583081</v>
       </c>
       <c r="J14">
-        <v>0.09886672685075482</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0.7025136185289611</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0.1841679771606053</v>
+        <v>0.2759201794807495</v>
       </c>
       <c r="M14">
-        <v>0.5150800837943379</v>
+        <v>0.5769129868498339</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.7383667384162607</v>
       </c>
       <c r="O14">
-        <v>2.794466038116383</v>
+        <v>1.346098011493012</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.022894484324752</v>
+        <v>3.137211436912821</v>
       </c>
       <c r="C15">
-        <v>0.3722100139688393</v>
+        <v>0.5215141248449982</v>
       </c>
       <c r="D15">
-        <v>0.005831959079179327</v>
+        <v>0.08948133132573588</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>3.69179557906233</v>
+        <v>0.5478862554406305</v>
       </c>
       <c r="G15">
-        <v>0.0008154875116726795</v>
+        <v>0.3988446026327352</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.2569617088215921</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.2083022020040488</v>
       </c>
       <c r="J15">
-        <v>0.09892727291061298</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0.6942500361841581</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0.1827057181520928</v>
+        <v>0.2735981599985706</v>
       </c>
       <c r="M15">
-        <v>0.509528797993795</v>
+        <v>0.5706198927333332</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.7386736398139249</v>
       </c>
       <c r="O15">
-        <v>2.7740354468947</v>
+        <v>1.335504868525987</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.826285961259373</v>
+        <v>2.940042746678216</v>
       </c>
       <c r="C16">
-        <v>0.3486473421807545</v>
+        <v>0.5015283255685006</v>
       </c>
       <c r="D16">
-        <v>0.005409064844771549</v>
+        <v>0.08416396568066631</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>3.541853929015303</v>
+        <v>0.5192908655643862</v>
       </c>
       <c r="G16">
-        <v>0.0008209472473677777</v>
+        <v>0.3774257543442587</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.2502411739787931</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.2067282871832461</v>
       </c>
       <c r="J16">
-        <v>0.09929068521381801</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0.6472869997762558</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0.1744223561036691</v>
+        <v>0.260416725741635</v>
       </c>
       <c r="M16">
-        <v>0.4780093433816504</v>
+        <v>0.5346306458985239</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.740767024193282</v>
       </c>
       <c r="O16">
-        <v>2.658767722676615</v>
+        <v>1.275817033118045</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.707125314468101</v>
+        <v>2.819218298598173</v>
       </c>
       <c r="C17">
-        <v>0.3343259298674184</v>
+        <v>0.4892669961932938</v>
       </c>
       <c r="D17">
-        <v>0.00515846225765948</v>
+        <v>0.08090272006325705</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>3.451848925356501</v>
+        <v>0.5020408174509825</v>
       </c>
       <c r="G17">
-        <v>0.0008243191773960834</v>
+        <v>0.3645489080010265</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.2462708016853554</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.2059672567480746</v>
       </c>
       <c r="J17">
-        <v>0.09952792991780868</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0.6188034078694074</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0.169422548084512</v>
+        <v>0.2524380248885905</v>
       </c>
       <c r="M17">
-        <v>0.4589188703022486</v>
+        <v>0.5126142426063183</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.7423429045623422</v>
       </c>
       <c r="O17">
-        <v>2.589583868429386</v>
+        <v>1.240074772047649</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.639084134573352</v>
+        <v>2.749765767606789</v>
       </c>
       <c r="C18">
-        <v>0.3261330366266861</v>
+        <v>0.4822140666329062</v>
       </c>
       <c r="D18">
-        <v>0.00501727491132975</v>
+        <v>0.07902709742484149</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>3.400765544653808</v>
+        <v>0.4922219311328959</v>
       </c>
       <c r="G18">
-        <v>0.0008262675643163546</v>
+        <v>0.3572348836114401</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.2440412839685422</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.2056022445141537</v>
       </c>
       <c r="J18">
-        <v>0.09966950108165307</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0.6025316283776689</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0.1665752716751925</v>
+        <v>0.2478869221948372</v>
       </c>
       <c r="M18">
-        <v>0.4480229326864347</v>
+        <v>0.499972114382345</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.7433537907106285</v>
       </c>
       <c r="O18">
-        <v>2.5503198576084</v>
+        <v>1.219825141629315</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.616128545169147</v>
+        <v>2.726257072160706</v>
       </c>
       <c r="C19">
-        <v>0.3233662668133093</v>
+        <v>0.4798259477593092</v>
       </c>
       <c r="D19">
-        <v>0.004969952137036771</v>
+        <v>0.07839205924937431</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>3.383583408334175</v>
+        <v>0.4889146748993554</v>
       </c>
       <c r="G19">
-        <v>0.0008269288498272687</v>
+        <v>0.3547739578284848</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.243295529851423</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.2054909188347551</v>
       </c>
       <c r="J19">
-        <v>0.09971830007884286</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0.5970405834701538</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0.1656159815776732</v>
+        <v>0.2463523868073878</v>
       </c>
       <c r="M19">
-        <v>0.4443477143372405</v>
+        <v>0.4956951871782067</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.743713753317472</v>
       </c>
       <c r="O19">
-        <v>2.537113517723668</v>
+        <v>1.213020728870617</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.719757938574787</v>
+        <v>2.832075734998909</v>
       </c>
       <c r="C20">
-        <v>0.3358457711654239</v>
+        <v>0.49057228502366</v>
       </c>
       <c r="D20">
-        <v>0.005184827410801063</v>
+        <v>0.08124986584349614</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>3.461358279536142</v>
+        <v>0.503866365730353</v>
       </c>
       <c r="G20">
-        <v>0.0008239593183998787</v>
+        <v>0.3659100137866602</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.2466878098119309</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.2060406899741487</v>
       </c>
       <c r="J20">
-        <v>0.09950214239510302</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0.6218238299150727</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0.1699518042007142</v>
+        <v>0.2532834006074296</v>
       </c>
       <c r="M20">
-        <v>0.4609422200299065</v>
+        <v>0.5149557045937883</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.7421642760085874</v>
       </c>
       <c r="O20">
-        <v>2.596893160786422</v>
+        <v>1.243847394617688</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.074135342085754</v>
+        <v>3.188162468344501</v>
       </c>
       <c r="C21">
-        <v>0.3783387000647451</v>
+        <v>0.5266740942609545</v>
       </c>
       <c r="D21">
-        <v>0.005944123709191729</v>
+        <v>0.09085452154148044</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>3.731155512090282</v>
+        <v>0.5553631731990407</v>
       </c>
       <c r="G21">
-        <v>0.0008140843354450367</v>
+        <v>0.4044593421114229</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.2587455329794608</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.2087738236271122</v>
       </c>
       <c r="J21">
-        <v>0.098837989753358</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0.7064835087714556</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0.184870932875441</v>
+        <v>0.2770359210811648</v>
       </c>
       <c r="M21">
-        <v>0.5177474806208338</v>
+        <v>0.5799320637588181</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.7382255905075112</v>
       </c>
       <c r="O21">
-        <v>2.804296387266433</v>
+        <v>1.351196183423383</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.310981798239197</v>
+        <v>3.421396554537239</v>
       </c>
       <c r="C22">
-        <v>0.4066092583875616</v>
+        <v>0.5502702092475147</v>
       </c>
       <c r="D22">
-        <v>0.006473202106182185</v>
+        <v>0.0971359469615507</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>3.914520001507555</v>
+        <v>0.5900338868835959</v>
       </c>
       <c r="G22">
-        <v>0.0008076956963196587</v>
+        <v>0.4305681010086033</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.2671491144125753</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.2112606296187813</v>
       </c>
       <c r="J22">
-        <v>0.09845260886818608</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0.7629996843882623</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0.1949097335393404</v>
+        <v>0.292931625673063</v>
       </c>
       <c r="M22">
-        <v>0.555754978877701</v>
+        <v>0.6226207784510791</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.7366404104113826</v>
       </c>
       <c r="O22">
-        <v>2.945290286187515</v>
+        <v>1.424381512603134</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.184050583972578</v>
+        <v>3.296861696602036</v>
       </c>
       <c r="C23">
-        <v>0.391469678144432</v>
+        <v>0.5376760571500938</v>
       </c>
       <c r="D23">
-        <v>0.006187473035261348</v>
+        <v>0.09378290421965119</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>3.81596261337333</v>
+        <v>0.5714317019476027</v>
       </c>
       <c r="G23">
-        <v>0.0008111002085104149</v>
+        <v>0.4165450759509639</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.2626140312915339</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.2098666155396387</v>
       </c>
       <c r="J23">
-        <v>0.09865367714007789</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0.732717243298751</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0.1895236637816282</v>
+        <v>0.2844120722551509</v>
       </c>
       <c r="M23">
-        <v>0.535382199007941</v>
+        <v>0.5998148583477985</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.7373930233390951</v>
       </c>
       <c r="O23">
-        <v>2.8695029296467</v>
+        <v>1.385030086623544</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.714045286832402</v>
+        <v>2.826262855002142</v>
       </c>
       <c r="C24">
-        <v>0.3351585253116411</v>
+        <v>0.4899821756218898</v>
       </c>
       <c r="D24">
-        <v>0.005172898800170245</v>
+        <v>0.0810929234131379</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>3.457057049438731</v>
+        <v>0.503040729939471</v>
       </c>
       <c r="G24">
-        <v>0.0008241219799777593</v>
+        <v>0.3652943814980887</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.246499115482294</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.2060072655233185</v>
       </c>
       <c r="J24">
-        <v>0.09951378484550766</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0.6204579758219708</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0.169712443220682</v>
+        <v>0.252901094603871</v>
       </c>
       <c r="M24">
-        <v>0.4600272176000004</v>
+        <v>0.5138970820529707</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.7422447079007171</v>
       </c>
       <c r="O24">
-        <v>2.593587046799414</v>
+        <v>1.242140863458729</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.225697278340817</v>
+        <v>2.32020295546306</v>
       </c>
       <c r="C25">
-        <v>0.2760697479009622</v>
+        <v>0.438513071299127</v>
       </c>
       <c r="D25">
-        <v>0.00418870455421505</v>
+        <v>0.06740933952697503</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>3.095689440665993</v>
+        <v>0.4331525976034527</v>
       </c>
       <c r="G25">
-        <v>0.0008385165476829515</v>
+        <v>0.313497405783508</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.2311651192350155</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.2045967700502409</v>
       </c>
       <c r="J25">
-        <v>0.1006356534019126</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0.5035328171252118</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0.1494159575581619</v>
+        <v>0.2203482131007064</v>
       </c>
       <c r="M25">
-        <v>0.3819124567594656</v>
+        <v>0.4220105855225569</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.7514422840145656</v>
       </c>
       <c r="O25">
-        <v>2.315848506580963</v>
+        <v>1.099656726718706</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_1/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_1/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.948202914090217</v>
+        <v>0.7128751226751149</v>
       </c>
       <c r="C2">
-        <v>0.4005587322827466</v>
+        <v>0.3543759157529536</v>
       </c>
       <c r="D2">
-        <v>0.0573219090589987</v>
+        <v>0.02081387122260736</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.3845338210803604</v>
+        <v>0.4893753016434701</v>
       </c>
       <c r="G2">
-        <v>0.2778939598735946</v>
+        <v>0.3327632245813135</v>
       </c>
       <c r="H2">
-        <v>0.2214304965291305</v>
+        <v>0.4938077791304067</v>
       </c>
       <c r="I2">
-        <v>0.2056610948664108</v>
+        <v>0.498200890656765</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1974440260565231</v>
+        <v>0.2924414607851986</v>
       </c>
       <c r="M2">
-        <v>0.3548478204645846</v>
+        <v>0.1940569876331608</v>
       </c>
       <c r="N2">
-        <v>0.761333845149565</v>
+        <v>1.157805533820984</v>
       </c>
       <c r="O2">
-        <v>1.003347868898018</v>
+        <v>1.586271237881789</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.696146724396499</v>
+        <v>0.6352109149433147</v>
       </c>
       <c r="C3">
-        <v>0.3747846712982295</v>
+        <v>0.3458021839002612</v>
       </c>
       <c r="D3">
-        <v>0.05047047843358854</v>
+        <v>0.01856818486260181</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.3531242591586548</v>
+        <v>0.4854483037129924</v>
       </c>
       <c r="G3">
-        <v>0.2551318076261282</v>
+        <v>0.3302188605005938</v>
       </c>
       <c r="H3">
-        <v>0.215708354690527</v>
+        <v>0.4960073959640141</v>
       </c>
       <c r="I3">
-        <v>0.2075710686039471</v>
+        <v>0.503346268012784</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.182506173043258</v>
+        <v>0.2905181278108699</v>
       </c>
       <c r="M3">
-        <v>0.309553492933702</v>
+        <v>0.1811856445322633</v>
       </c>
       <c r="N3">
-        <v>0.7698489918803304</v>
+        <v>1.163573009443311</v>
       </c>
       <c r="O3">
-        <v>0.9427897669897476</v>
+        <v>1.585234177931312</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.541311561253195</v>
+        <v>0.5874854472365598</v>
       </c>
       <c r="C4">
-        <v>0.3589293049070932</v>
+        <v>0.3405163943951237</v>
       </c>
       <c r="D4">
-        <v>0.04625400959751857</v>
+        <v>0.01718075915257344</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.33452658574803</v>
+        <v>0.4833754075076939</v>
       </c>
       <c r="G4">
-        <v>0.241763509741844</v>
+        <v>0.328925087773186</v>
       </c>
       <c r="H4">
-        <v>0.2125970696189938</v>
+        <v>0.497600021986301</v>
       </c>
       <c r="I4">
-        <v>0.2092917247534061</v>
+        <v>0.5068040267129597</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1735980709359239</v>
+        <v>0.2894929083530826</v>
       </c>
       <c r="M4">
-        <v>0.2818267624068795</v>
+        <v>0.1733322675635804</v>
       </c>
       <c r="N4">
-        <v>0.7759292693048678</v>
+        <v>1.167535931310873</v>
       </c>
       <c r="O4">
-        <v>0.9077281899618015</v>
+        <v>1.585664395227084</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.478184524085634</v>
+        <v>0.5680285010659532</v>
       </c>
       <c r="C5">
-        <v>0.3524601153676201</v>
+        <v>0.338357190792081</v>
       </c>
       <c r="D5">
-        <v>0.04453305084125248</v>
+        <v>0.01661324912110729</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.3271108423726901</v>
+        <v>0.482615773291819</v>
       </c>
       <c r="G5">
-        <v>0.2364593285830807</v>
+        <v>0.3284653124447203</v>
       </c>
       <c r="H5">
-        <v>0.2114261629022351</v>
+        <v>0.4983099428221109</v>
       </c>
       <c r="I5">
-        <v>0.2101252231679887</v>
+        <v>0.5082881152425749</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1700308711192804</v>
+        <v>0.2891143457128678</v>
       </c>
       <c r="M5">
-        <v>0.2705456642051409</v>
+        <v>0.1701446828150566</v>
       </c>
       <c r="N5">
-        <v>0.7786153720148619</v>
+        <v>1.169257066467587</v>
       </c>
       <c r="O5">
-        <v>0.8939452847799316</v>
+        <v>1.586107969906323</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.467700139670427</v>
+        <v>0.5647972237505314</v>
       </c>
       <c r="C6">
-        <v>0.351385415944975</v>
+        <v>0.3379983484327198</v>
       </c>
       <c r="D6">
-        <v>0.04424711504327661</v>
+        <v>0.01651888721171701</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.3258890210052598</v>
+        <v>0.4824947762986511</v>
       </c>
       <c r="G6">
-        <v>0.2355869759350924</v>
+        <v>0.3283930389081107</v>
       </c>
       <c r="H6">
-        <v>0.211237473245923</v>
+        <v>0.498431504995402</v>
       </c>
       <c r="I6">
-        <v>0.2102714608879239</v>
+        <v>0.5085390773683756</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1694422437685148</v>
+        <v>0.2890538565906056</v>
       </c>
       <c r="M6">
-        <v>0.2686734238262858</v>
+        <v>0.1696161626616899</v>
       </c>
       <c r="N6">
-        <v>0.7790738136399966</v>
+        <v>1.169549279978774</v>
       </c>
       <c r="O6">
-        <v>0.8916863336335297</v>
+        <v>1.586197825999292</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.540460347139685</v>
+        <v>0.5872230762570041</v>
       </c>
       <c r="C7">
-        <v>0.3588420921085174</v>
+        <v>0.3404872954137943</v>
       </c>
       <c r="D7">
-        <v>0.04623081149775032</v>
+        <v>0.01717311406758881</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.334425927567203</v>
+        <v>0.483364818271049</v>
       </c>
       <c r="G7">
-        <v>0.2416914066660993</v>
+        <v>0.3289186140740554</v>
       </c>
       <c r="H7">
-        <v>0.2125808911032649</v>
+        <v>0.4976093495310892</v>
       </c>
       <c r="I7">
-        <v>0.2093024369196961</v>
+        <v>0.5068237379218949</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1735497120574649</v>
+        <v>0.2894876440248169</v>
       </c>
       <c r="M7">
-        <v>0.2816745539828815</v>
+        <v>0.1732892268219217</v>
       </c>
       <c r="N7">
-        <v>0.7759646590397224</v>
+        <v>1.167558712850244</v>
       </c>
       <c r="O7">
-        <v>0.9075403010030811</v>
+        <v>1.585669291322716</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.861301016268072</v>
+        <v>0.6861055181615541</v>
       </c>
       <c r="C8">
-        <v>0.3916777596521541</v>
+        <v>0.3514242696606971</v>
       </c>
       <c r="D8">
-        <v>0.05496136429655252</v>
+        <v>0.02004135426444265</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.3735548529595505</v>
+        <v>0.4879510690554909</v>
       </c>
       <c r="G8">
-        <v>0.2699136948391256</v>
+        <v>0.3318301657309561</v>
       </c>
       <c r="H8">
-        <v>0.2193714829578752</v>
+        <v>0.4945159965070189</v>
       </c>
       <c r="I8">
-        <v>0.2062025773488187</v>
+        <v>0.4999130498355484</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1922366011004115</v>
+        <v>0.2917460157591094</v>
       </c>
       <c r="M8">
-        <v>0.3392107551398524</v>
+        <v>0.1896087759260681</v>
       </c>
       <c r="N8">
-        <v>0.7640894185778251</v>
+        <v>1.15970674865909</v>
       </c>
       <c r="O8">
-        <v>0.9820096324077809</v>
+        <v>1.585692178326426</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.490529149923077</v>
+        <v>0.8796467481263903</v>
       </c>
       <c r="C9">
-        <v>0.4558571994160729</v>
+        <v>0.3726933418084286</v>
       </c>
       <c r="D9">
-        <v>0.07201954710966163</v>
+        <v>0.02559688546015337</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.4562213152483423</v>
+        <v>0.4996292743078072</v>
       </c>
       <c r="G9">
-        <v>0.3305218473778098</v>
+        <v>0.3396736686073609</v>
       </c>
       <c r="H9">
-        <v>0.2360754902314852</v>
+        <v>0.4903687672619981</v>
       </c>
       <c r="I9">
-        <v>0.20472819644597</v>
+        <v>0.4887309140553384</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.231137350740795</v>
+        <v>0.2974078541453338</v>
       </c>
       <c r="M9">
-        <v>0.4528742655112481</v>
+        <v>0.2219967606496454</v>
       </c>
       <c r="N9">
-        <v>0.7478408287947005</v>
+        <v>1.147647358681461</v>
       </c>
       <c r="O9">
-        <v>1.146225725162367</v>
+        <v>1.594207525287857</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.953835849910945</v>
+        <v>1.021557652276442</v>
       </c>
       <c r="C10">
-        <v>0.5029273759829493</v>
+        <v>0.3882019363155962</v>
       </c>
       <c r="D10">
-        <v>0.08453612739439365</v>
+        <v>0.02963527850752001</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.5212734825823162</v>
+        <v>0.5098481660411665</v>
       </c>
       <c r="G10">
-        <v>0.3789079153953594</v>
+        <v>0.3467435912101564</v>
       </c>
       <c r="H10">
-        <v>0.2507016923549088</v>
+        <v>0.4884896626476376</v>
       </c>
       <c r="I10">
-        <v>0.2068251543924653</v>
+        <v>0.4819620865078491</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2613324152457608</v>
+        <v>0.3023170994370332</v>
       </c>
       <c r="M10">
-        <v>0.5371458477648332</v>
+        <v>0.246017793309143</v>
       </c>
       <c r="N10">
-        <v>0.7406015567295015</v>
+        <v>1.140813076142351</v>
       </c>
       <c r="O10">
-        <v>1.27993818662037</v>
+        <v>1.605637508367835</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.165060918248969</v>
+        <v>1.086043024602475</v>
       </c>
       <c r="C11">
-        <v>0.5243347638203488</v>
+        <v>0.3952297802741782</v>
       </c>
       <c r="D11">
-        <v>0.09023195207910817</v>
+        <v>0.03146283184143783</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.5519687034618386</v>
+        <v>0.5148534717729447</v>
       </c>
       <c r="G11">
-        <v>0.4019095747582213</v>
+        <v>0.3502451783680414</v>
       </c>
       <c r="H11">
-        <v>0.2579343795959659</v>
+        <v>0.4878880291655321</v>
       </c>
       <c r="I11">
-        <v>0.2085567432414486</v>
+        <v>0.479197355579533</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2754756427982983</v>
+        <v>0.3047127543233614</v>
       </c>
       <c r="M11">
-        <v>0.5757092567253892</v>
+        <v>0.256992722639545</v>
       </c>
       <c r="N11">
-        <v>0.7384241124781283</v>
+        <v>1.138141984070728</v>
       </c>
       <c r="O11">
-        <v>1.344068246952304</v>
+        <v>1.611963070022796</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.245133204939407</v>
+        <v>1.110450491496692</v>
       </c>
       <c r="C12">
-        <v>0.5324414491334437</v>
+        <v>0.3978869597029586</v>
       </c>
       <c r="D12">
-        <v>0.09238952708960824</v>
+        <v>0.03215348040070154</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.5637651371418286</v>
+        <v>0.5168001480095086</v>
       </c>
       <c r="G12">
-        <v>0.4107755450989288</v>
+        <v>0.3516122714184178</v>
       </c>
       <c r="H12">
-        <v>0.2607624764569039</v>
+        <v>0.4876965756852343</v>
       </c>
       <c r="I12">
-        <v>0.20933197768829</v>
+        <v>0.4781956788440098</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2808947868950895</v>
+        <v>0.3056432266194378</v>
       </c>
       <c r="M12">
-        <v>0.5903501819902743</v>
+        <v>0.2611552830679287</v>
       </c>
       <c r="N12">
-        <v>0.7377684960135156</v>
+        <v>1.137193321482357</v>
       </c>
       <c r="O12">
-        <v>1.368868625834722</v>
+        <v>1.614520424965889</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.227884063328133</v>
+        <v>1.105194454423668</v>
       </c>
       <c r="C13">
-        <v>0.5306955063080352</v>
+        <v>0.3973148749182656</v>
       </c>
       <c r="D13">
-        <v>0.09192481728407387</v>
+        <v>0.03200479998547223</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.5612166416003461</v>
+        <v>0.5163786162089394</v>
       </c>
       <c r="G13">
-        <v>0.4088589526936488</v>
+        <v>0.3513160136157865</v>
       </c>
       <c r="H13">
-        <v>0.260149327705065</v>
+        <v>0.4877361915200851</v>
       </c>
       <c r="I13">
-        <v>0.2091595741834844</v>
+        <v>0.478409393798735</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2797247769781421</v>
+        <v>0.3054417979856652</v>
       </c>
       <c r="M13">
-        <v>0.5871952318148246</v>
+        <v>0.260258512088221</v>
       </c>
       <c r="N13">
-        <v>0.737902040836417</v>
+        <v>1.137394841131538</v>
       </c>
       <c r="O13">
-        <v>1.363503809591606</v>
+        <v>1.613962446446351</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.17164667648791</v>
+        <v>1.088051286066673</v>
       </c>
       <c r="C14">
-        <v>0.5250016967258375</v>
+        <v>0.3954484716845457</v>
       </c>
       <c r="D14">
-        <v>0.09040944083039193</v>
+        <v>0.03151968030134356</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.5529356548521491</v>
+        <v>0.5150125984498501</v>
       </c>
       <c r="G14">
-        <v>0.4026357831335332</v>
+        <v>0.3503568254667613</v>
       </c>
       <c r="H14">
-        <v>0.2581652250112398</v>
+        <v>0.4878715494238008</v>
       </c>
       <c r="I14">
-        <v>0.2086180812583081</v>
+        <v>0.4791140395295024</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2759201794807495</v>
+        <v>0.3047888384524526</v>
       </c>
       <c r="M14">
-        <v>0.5769129868498339</v>
+        <v>0.2573350483373034</v>
       </c>
       <c r="N14">
-        <v>0.7383667384162607</v>
+        <v>1.138062678778979</v>
       </c>
       <c r="O14">
-        <v>1.346098011493012</v>
+        <v>1.612170217925524</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.137211436912821</v>
+        <v>1.077549023846871</v>
       </c>
       <c r="C15">
-        <v>0.5215141248449982</v>
+        <v>0.3943047038195289</v>
       </c>
       <c r="D15">
-        <v>0.08948133132573588</v>
+        <v>0.03122234629716303</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.5478862554406305</v>
+        <v>0.5141825502581412</v>
       </c>
       <c r="G15">
-        <v>0.3988446026327352</v>
+        <v>0.3497746518984002</v>
       </c>
       <c r="H15">
-        <v>0.2569617088215921</v>
+        <v>0.4879591957213449</v>
       </c>
       <c r="I15">
-        <v>0.2083022020040488</v>
+        <v>0.4795515519543088</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2735981599985706</v>
+        <v>0.3043919129583657</v>
       </c>
       <c r="M15">
-        <v>0.5706198927333332</v>
+        <v>0.2555451933101125</v>
       </c>
       <c r="N15">
-        <v>0.7386736398139249</v>
+        <v>1.138479925767271</v>
       </c>
       <c r="O15">
-        <v>1.335504868525987</v>
+        <v>1.611093526072295</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.940042746678216</v>
+        <v>1.01734182469221</v>
       </c>
       <c r="C16">
-        <v>0.5015283255685006</v>
+        <v>0.3877420864715191</v>
       </c>
       <c r="D16">
-        <v>0.08416396568066631</v>
+        <v>0.02951564875637303</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.5192908655643862</v>
+        <v>0.5095282336552671</v>
       </c>
       <c r="G16">
-        <v>0.3774257543442587</v>
+        <v>0.3465205042665218</v>
       </c>
       <c r="H16">
-        <v>0.2502411739787931</v>
+        <v>0.4885340724648728</v>
       </c>
       <c r="I16">
-        <v>0.2067282871832461</v>
+        <v>0.4821490998861542</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.260416725741635</v>
+        <v>0.3021638003852161</v>
       </c>
       <c r="M16">
-        <v>0.5346306458985239</v>
+        <v>0.245301492486611</v>
       </c>
       <c r="N16">
-        <v>0.740767024193282</v>
+        <v>1.140996436935751</v>
       </c>
       <c r="O16">
-        <v>1.275817033118045</v>
+        <v>1.605246783400133</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.819218298598173</v>
+        <v>0.9803874410715707</v>
       </c>
       <c r="C17">
-        <v>0.4892669961932938</v>
+        <v>0.3837090397518068</v>
       </c>
       <c r="D17">
-        <v>0.08090272006325705</v>
+        <v>0.02846617848897637</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.5020408174509825</v>
+        <v>0.5067643057885647</v>
       </c>
       <c r="G17">
-        <v>0.3645489080010265</v>
+        <v>0.344597350539928</v>
       </c>
       <c r="H17">
-        <v>0.2462708016853554</v>
+        <v>0.4889515615186326</v>
       </c>
       <c r="I17">
-        <v>0.2059672567480746</v>
+        <v>0.4838231837393039</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2524380248885905</v>
+        <v>0.3008384774688437</v>
       </c>
       <c r="M17">
-        <v>0.5126142426063183</v>
+        <v>0.2390293324013726</v>
       </c>
       <c r="N17">
-        <v>0.7423429045623422</v>
+        <v>1.142652279088104</v>
       </c>
       <c r="O17">
-        <v>1.240074772047649</v>
+        <v>1.601948454012984</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.749765767606789</v>
+        <v>0.9591257058573888</v>
       </c>
       <c r="C18">
-        <v>0.4822140666329062</v>
+        <v>0.3813868006922405</v>
       </c>
       <c r="D18">
-        <v>0.07902709742484149</v>
+        <v>0.02786165589240142</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.4922219311328959</v>
+        <v>0.5052081410424378</v>
       </c>
       <c r="G18">
-        <v>0.3572348836114401</v>
+        <v>0.3435180665451725</v>
       </c>
       <c r="H18">
-        <v>0.2440412839685422</v>
+        <v>0.4892155228439208</v>
       </c>
       <c r="I18">
-        <v>0.2056022445141537</v>
+        <v>0.484815666346563</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2478869221948372</v>
+        <v>0.3000914779364194</v>
       </c>
       <c r="M18">
-        <v>0.499972114382345</v>
+        <v>0.2354262514345464</v>
       </c>
       <c r="N18">
-        <v>0.7433537907106285</v>
+        <v>1.143645897121814</v>
       </c>
       <c r="O18">
-        <v>1.219825141629315</v>
+        <v>1.600157322348508</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.726257072160706</v>
+        <v>0.9519257709649196</v>
       </c>
       <c r="C19">
-        <v>0.4798259477593092</v>
+        <v>0.3806001012792137</v>
       </c>
       <c r="D19">
-        <v>0.07839205924937431</v>
+        <v>0.02765682228274358</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.4889146748993554</v>
+        <v>0.5046870170891324</v>
       </c>
       <c r="G19">
-        <v>0.3547739578284848</v>
+        <v>0.3431572510976224</v>
       </c>
       <c r="H19">
-        <v>0.243295529851423</v>
+        <v>0.4893089899601364</v>
       </c>
       <c r="I19">
-        <v>0.2054909188347551</v>
+        <v>0.485156785133487</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2463523868073878</v>
+        <v>0.2998411849813039</v>
       </c>
       <c r="M19">
-        <v>0.4956951871782067</v>
+        <v>0.234207090799174</v>
       </c>
       <c r="N19">
-        <v>0.743713753317472</v>
+        <v>1.143989403300999</v>
       </c>
       <c r="O19">
-        <v>1.213020728870617</v>
+        <v>1.599569075517564</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.832075734998909</v>
+        <v>0.9843219878404739</v>
       </c>
       <c r="C20">
-        <v>0.49057228502366</v>
+        <v>0.3841386286267721</v>
       </c>
       <c r="D20">
-        <v>0.08124986584349614</v>
+        <v>0.02857798928359045</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.503866365730353</v>
+        <v>0.5070550560018319</v>
       </c>
       <c r="G20">
-        <v>0.3659100137866602</v>
+        <v>0.3447992927774521</v>
       </c>
       <c r="H20">
-        <v>0.2466878098119309</v>
+        <v>0.488904652757725</v>
       </c>
       <c r="I20">
-        <v>0.2060406899741487</v>
+        <v>0.4836419114358108</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2532834006074296</v>
+        <v>0.3009779782506996</v>
       </c>
       <c r="M20">
-        <v>0.5149557045937883</v>
+        <v>0.2396965507235294</v>
       </c>
       <c r="N20">
-        <v>0.7421642760085874</v>
+        <v>1.142471746636289</v>
       </c>
       <c r="O20">
-        <v>1.243847394617688</v>
+        <v>1.602288597637227</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.188162468344501</v>
+        <v>1.09308698156849</v>
       </c>
       <c r="C21">
-        <v>0.5266740942609545</v>
+        <v>0.395996792893925</v>
       </c>
       <c r="D21">
-        <v>0.09085452154148044</v>
+        <v>0.03166221016039827</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.5553631731990407</v>
+        <v>0.5154124394997552</v>
       </c>
       <c r="G21">
-        <v>0.4044593421114229</v>
+        <v>0.3506374457854804</v>
       </c>
       <c r="H21">
-        <v>0.2587455329794608</v>
+        <v>0.4878308046791062</v>
       </c>
       <c r="I21">
-        <v>0.2087738236271122</v>
+        <v>0.4789058390688083</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2770359210811648</v>
+        <v>0.304979996939224</v>
       </c>
       <c r="M21">
-        <v>0.5799320637588181</v>
+        <v>0.2581935636332346</v>
       </c>
       <c r="N21">
-        <v>0.7382255905075112</v>
+        <v>1.137864814810612</v>
       </c>
       <c r="O21">
-        <v>1.351196183423383</v>
+        <v>1.612692241549524</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.421396554537239</v>
+        <v>1.164102001976744</v>
       </c>
       <c r="C22">
-        <v>0.5502702092475147</v>
+        <v>0.4037227175220721</v>
       </c>
       <c r="D22">
-        <v>0.0971359469615507</v>
+        <v>0.03366971365439753</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.5900338868835959</v>
+        <v>0.5211733379900494</v>
       </c>
       <c r="G22">
-        <v>0.4305681010086033</v>
+        <v>0.354692715343532</v>
       </c>
       <c r="H22">
-        <v>0.2671491144125753</v>
+        <v>0.487340970702661</v>
       </c>
       <c r="I22">
-        <v>0.2112606296187813</v>
+        <v>0.4760744149304657</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.292931625673063</v>
+        <v>0.3077312676188484</v>
       </c>
       <c r="M22">
-        <v>0.6226207784510791</v>
+        <v>0.2703207394784641</v>
       </c>
       <c r="N22">
-        <v>0.7366404104113826</v>
+        <v>1.1352200302059</v>
       </c>
       <c r="O22">
-        <v>1.424381512603134</v>
+        <v>1.620435932069881</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.296861696602036</v>
+        <v>1.126206805107927</v>
       </c>
       <c r="C23">
-        <v>0.5376760571500938</v>
+        <v>0.3996015200701777</v>
       </c>
       <c r="D23">
-        <v>0.09378290421965119</v>
+        <v>0.03259903453929525</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.5714317019476027</v>
+        <v>0.5180712971718364</v>
       </c>
       <c r="G23">
-        <v>0.4165450759509639</v>
+        <v>0.352506385995099</v>
       </c>
       <c r="H23">
-        <v>0.2626140312915339</v>
+        <v>0.4875830190346733</v>
       </c>
       <c r="I23">
-        <v>0.2098666155396387</v>
+        <v>0.4775614383766786</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2844120722551509</v>
+        <v>0.3062504659359462</v>
       </c>
       <c r="M23">
-        <v>0.5998148583477985</v>
+        <v>0.2638448174673158</v>
       </c>
       <c r="N23">
-        <v>0.7373930233390951</v>
+        <v>1.136598148063896</v>
       </c>
       <c r="O23">
-        <v>1.385030086623544</v>
+        <v>1.616216547822631</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.826262855002142</v>
+        <v>0.9825432294852021</v>
       </c>
       <c r="C24">
-        <v>0.4899821756218898</v>
+        <v>0.383944422651723</v>
       </c>
       <c r="D24">
-        <v>0.0810929234131379</v>
+        <v>0.02852744325883094</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.503040729939471</v>
+        <v>0.5069235054918053</v>
       </c>
       <c r="G24">
-        <v>0.3652943814980887</v>
+        <v>0.344707912580148</v>
       </c>
       <c r="H24">
-        <v>0.246499115482294</v>
+        <v>0.4889257856305704</v>
       </c>
       <c r="I24">
-        <v>0.2060072655233185</v>
+        <v>0.4837237711086431</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.252901094603871</v>
+        <v>0.3009148633866801</v>
       </c>
       <c r="M24">
-        <v>0.5138970820529707</v>
+        <v>0.2393948923689493</v>
       </c>
       <c r="N24">
-        <v>0.7422447079007171</v>
+        <v>1.142553235603152</v>
       </c>
       <c r="O24">
-        <v>1.242140863458729</v>
+        <v>1.602134491265446</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.32020295546306</v>
+        <v>0.8273342248923541</v>
       </c>
       <c r="C25">
-        <v>0.438513071299127</v>
+        <v>0.3669595248959041</v>
       </c>
       <c r="D25">
-        <v>0.06740933952697503</v>
+        <v>0.0241014802005779</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.4331525976034527</v>
+        <v>0.4961823615164178</v>
       </c>
       <c r="G25">
-        <v>0.313497405783508</v>
+        <v>0.3373226729840013</v>
       </c>
       <c r="H25">
-        <v>0.2311651192350155</v>
+        <v>0.4912854754238936</v>
       </c>
       <c r="I25">
-        <v>0.2045967700502409</v>
+        <v>0.4915020714289753</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.2203482131007064</v>
+        <v>0.2957443917369886</v>
       </c>
       <c r="M25">
-        <v>0.4220105855225569</v>
+        <v>0.2131946616254368</v>
       </c>
       <c r="N25">
-        <v>0.7514422840145656</v>
+        <v>1.150553338523501</v>
       </c>
       <c r="O25">
-        <v>1.099656726718706</v>
+        <v>1.590996036994881</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_1/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_1/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7128751226751149</v>
+        <v>3.568408525178256</v>
       </c>
       <c r="C2">
-        <v>0.3543759157529536</v>
+        <v>0.9613797458861768</v>
       </c>
       <c r="D2">
-        <v>0.02081387122260736</v>
+        <v>0.08776080198537528</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.4893753016434701</v>
+        <v>0.1958911521984135</v>
       </c>
       <c r="G2">
-        <v>0.3327632245813135</v>
+        <v>0.0007784831501217991</v>
       </c>
       <c r="H2">
-        <v>0.4938077791304067</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.498200890656765</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.2924414607851986</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.1940569876331608</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>1.157805533820984</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>1.586271237881789</v>
+        <v>0.4078019025806725</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6352109149433147</v>
+        <v>3.108280895464588</v>
       </c>
       <c r="C3">
-        <v>0.3458021839002612</v>
+        <v>0.8454797792917645</v>
       </c>
       <c r="D3">
-        <v>0.01856818486260181</v>
+        <v>0.0769749681230536</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.4854483037129924</v>
+        <v>0.1856415171195458</v>
       </c>
       <c r="G3">
-        <v>0.3302188605005938</v>
+        <v>0.0007825411692239198</v>
       </c>
       <c r="H3">
-        <v>0.4960073959640141</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.503346268012784</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2905181278108699</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.1811856445322633</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>1.163573009443311</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>1.585234177931312</v>
+        <v>0.4129486137278917</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5874854472365598</v>
+        <v>2.825915327457949</v>
       </c>
       <c r="C4">
-        <v>0.3405163943951237</v>
+        <v>0.7743374143394135</v>
       </c>
       <c r="D4">
-        <v>0.01718075915257344</v>
+        <v>0.07035252012673965</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.4833754075076939</v>
+        <v>0.1805558398268623</v>
       </c>
       <c r="G4">
-        <v>0.328925087773186</v>
+        <v>0.0007851080792580546</v>
       </c>
       <c r="H4">
-        <v>0.497600021986301</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.5068040267129597</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2894929083530826</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.1733322675635804</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>1.167535931310873</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>1.585664395227084</v>
+        <v>0.4200921746041786</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5680285010659532</v>
+        <v>2.710850376950873</v>
       </c>
       <c r="C5">
-        <v>0.338357190792081</v>
+        <v>0.7453433845122106</v>
       </c>
       <c r="D5">
-        <v>0.01661324912110729</v>
+        <v>0.06765309539918718</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.482615773291819</v>
+        <v>0.1787677427549141</v>
       </c>
       <c r="G5">
-        <v>0.3284653124447203</v>
+        <v>0.0007861734535698822</v>
       </c>
       <c r="H5">
-        <v>0.4983099428221109</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.5082881152425749</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2891143457128678</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.1701446828150566</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>1.169257066467587</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>1.586107969906323</v>
+        <v>0.4239439229481547</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5647972237505314</v>
+        <v>2.691742962474791</v>
       </c>
       <c r="C6">
-        <v>0.3379983484327198</v>
+        <v>0.7405285449754899</v>
       </c>
       <c r="D6">
-        <v>0.01651888721171701</v>
+        <v>0.06720479356266651</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.4824947762986511</v>
+        <v>0.1784874583106522</v>
       </c>
       <c r="G6">
-        <v>0.3283930389081107</v>
+        <v>0.0007863515377168166</v>
       </c>
       <c r="H6">
-        <v>0.498431504995402</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.5085390773683756</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2890538565906056</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.1696161626616899</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>1.169549279978774</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>1.586197825999292</v>
+        <v>0.4246385924569864</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.5872230762570041</v>
+        <v>2.824363563686688</v>
       </c>
       <c r="C7">
-        <v>0.3404872954137943</v>
+        <v>0.7739464129014948</v>
       </c>
       <c r="D7">
-        <v>0.01717311406758881</v>
+        <v>0.07031611861558673</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.483364818271049</v>
+        <v>0.1805305984054506</v>
       </c>
       <c r="G7">
-        <v>0.3289186140740554</v>
+        <v>0.000785122368472757</v>
       </c>
       <c r="H7">
-        <v>0.4976093495310892</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0.5068237379218949</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2894876440248169</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0.1732892268219217</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>1.167558712850244</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>1.585669291322716</v>
+        <v>0.4201403901948879</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.6861055181615541</v>
+        <v>3.409700816782276</v>
       </c>
       <c r="C8">
-        <v>0.3514242696606971</v>
+        <v>0.9214080094844235</v>
       </c>
       <c r="D8">
-        <v>0.02004135426444265</v>
+        <v>0.08404135434444981</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.4879510690554909</v>
+        <v>0.1920945074206486</v>
       </c>
       <c r="G8">
-        <v>0.3318301657309561</v>
+        <v>0.0007798669867489226</v>
       </c>
       <c r="H8">
-        <v>0.4945159965070189</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0.4999130498355484</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.2917460157591094</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0.1896087759260681</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>1.15970674865909</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>1.585692178326426</v>
+        <v>0.4087120610777362</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.8796467481263903</v>
+        <v>4.56066311628399</v>
       </c>
       <c r="C9">
-        <v>0.3726933418084286</v>
+        <v>1.211158529000897</v>
       </c>
       <c r="D9">
-        <v>0.02559688546015337</v>
+        <v>0.1109953941717379</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.4996292743078072</v>
+        <v>0.225274455495871</v>
       </c>
       <c r="G9">
-        <v>0.3396736686073609</v>
+        <v>0.0007701386537401495</v>
       </c>
       <c r="H9">
-        <v>0.4903687672619981</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0.4887309140553384</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2974078541453338</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0.2219967606496454</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>1.147647358681461</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>1.594207525287857</v>
+        <v>0.42081543761023</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.021557652276442</v>
+        <v>5.411103633937728</v>
       </c>
       <c r="C10">
-        <v>0.3882019363155962</v>
+        <v>1.42503993474611</v>
       </c>
       <c r="D10">
-        <v>0.02963527850752001</v>
+        <v>0.1308819464941422</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.5098481660411665</v>
+        <v>0.2574161719831096</v>
       </c>
       <c r="G10">
-        <v>0.3467435912101564</v>
+        <v>0.0007633137999647484</v>
       </c>
       <c r="H10">
-        <v>0.4884896626476376</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0.4819620865078491</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.3023170994370332</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0.246017793309143</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>1.140813076142351</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>1.605637508367835</v>
+        <v>0.4550456187863006</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.086043024602475</v>
+        <v>5.7997576473702</v>
       </c>
       <c r="C11">
-        <v>0.3952297802741782</v>
+        <v>1.522717869787016</v>
       </c>
       <c r="D11">
-        <v>0.03146283184143783</v>
+        <v>0.1399617362665424</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.5148534717729447</v>
+        <v>0.2740497845923784</v>
       </c>
       <c r="G11">
-        <v>0.3502451783680414</v>
+        <v>0.0007602720129080831</v>
       </c>
       <c r="H11">
-        <v>0.4878880291655321</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0.479197355579533</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.3047127543233614</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0.256992722639545</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>1.138141984070728</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>1.611963070022796</v>
+        <v>0.4771489766506676</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.110450491496692</v>
+        <v>5.947251234155772</v>
       </c>
       <c r="C12">
-        <v>0.3978869597029586</v>
+        <v>1.559775161208393</v>
       </c>
       <c r="D12">
-        <v>0.03215348040070154</v>
+        <v>0.1434061189158768</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.5168001480095086</v>
+        <v>0.2806672519525293</v>
       </c>
       <c r="G12">
-        <v>0.3516122714184178</v>
+        <v>0.0007591285871704212</v>
       </c>
       <c r="H12">
-        <v>0.4876965756852343</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0.4781956788440098</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.3056432266194378</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0.2611552830679287</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>1.137193321482357</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>1.614520424965889</v>
+        <v>0.4865514949928382</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.105194454423668</v>
+        <v>5.915470627238278</v>
       </c>
       <c r="C13">
-        <v>0.3973148749182656</v>
+        <v>1.551790918291204</v>
       </c>
       <c r="D13">
-        <v>0.03200479998547223</v>
+        <v>0.1426640182583725</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.5163786162089394</v>
+        <v>0.2792273974870767</v>
       </c>
       <c r="G13">
-        <v>0.3513160136157865</v>
+        <v>0.0007593744794825054</v>
       </c>
       <c r="H13">
-        <v>0.4877361915200851</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0.478409393798735</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.3054417979856652</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0.260258512088221</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>1.137394841131538</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>1.613962446446351</v>
+        <v>0.4844790141395663</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.088051286066673</v>
+        <v>5.811885270083565</v>
       </c>
       <c r="C14">
-        <v>0.3954484716845457</v>
+        <v>1.525765133502091</v>
       </c>
       <c r="D14">
-        <v>0.03151968030134356</v>
+        <v>0.1402449784615669</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.5150125984498501</v>
+        <v>0.2745876448037166</v>
       </c>
       <c r="G14">
-        <v>0.3503568254667613</v>
+        <v>0.0007601777771378838</v>
       </c>
       <c r="H14">
-        <v>0.4878715494238008</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0.4791140395295024</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.3047888384524526</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0.2573350483373034</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>1.138062678778979</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>1.612170217925524</v>
+        <v>0.4779012759578336</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.077549023846871</v>
+        <v>5.748479694756838</v>
       </c>
       <c r="C15">
-        <v>0.3943047038195289</v>
+        <v>1.509832976798577</v>
       </c>
       <c r="D15">
-        <v>0.03122234629716303</v>
+        <v>0.1387640761950735</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.5141825502581412</v>
+        <v>0.2717880724406569</v>
       </c>
       <c r="G15">
-        <v>0.3497746518984002</v>
+        <v>0.0007606708997362992</v>
       </c>
       <c r="H15">
-        <v>0.4879591957213449</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0.4795515519543088</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.3043919129583657</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0.2555451933101125</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>1.138479925767271</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>1.611093526072295</v>
+        <v>0.4740095665105599</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.01734182469221</v>
+        <v>5.385745278278989</v>
       </c>
       <c r="C16">
-        <v>0.3877420864715191</v>
+        <v>1.418665296221036</v>
       </c>
       <c r="D16">
-        <v>0.02951564875637303</v>
+        <v>0.130289337293064</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.5095282336552671</v>
+        <v>0.2563720735383228</v>
       </c>
       <c r="G16">
-        <v>0.3465205042665218</v>
+        <v>0.0007635138021167797</v>
       </c>
       <c r="H16">
-        <v>0.4885340724648728</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0.4821490998861542</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.3021638003852161</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0.245301492486611</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>1.140996436935751</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>1.605246783400133</v>
+        <v>0.4537403537276106</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.9803874410715707</v>
+        <v>5.163719042956473</v>
       </c>
       <c r="C17">
-        <v>0.3837090397518068</v>
+        <v>1.362844218450618</v>
       </c>
       <c r="D17">
-        <v>0.02846617848897637</v>
+        <v>0.1250997590664298</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.5067643057885647</v>
+        <v>0.2474504070969772</v>
       </c>
       <c r="G17">
-        <v>0.344597350539928</v>
+        <v>0.000765273515227094</v>
       </c>
       <c r="H17">
-        <v>0.4889515615186326</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0.4838231837393039</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.3008384774688437</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0.2390293324013726</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>1.142652279088104</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>1.601948454012984</v>
+        <v>0.4430428993702549</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.9591257058573888</v>
+        <v>5.036179346052108</v>
       </c>
       <c r="C18">
-        <v>0.3813868006922405</v>
+        <v>1.330772487954789</v>
       </c>
       <c r="D18">
-        <v>0.02786165589240142</v>
+        <v>0.1221179019916292</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.5052081410424378</v>
+        <v>0.242506414845657</v>
       </c>
       <c r="G18">
-        <v>0.3435180665451725</v>
+        <v>0.0007662916126281048</v>
       </c>
       <c r="H18">
-        <v>0.4892155228439208</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0.484815666346563</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.3000914779364194</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0.2354262514345464</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>1.143645897121814</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>1.600157322348508</v>
+        <v>0.437498832413894</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.9519257709649196</v>
+        <v>4.993022941985771</v>
       </c>
       <c r="C19">
-        <v>0.3806001012792137</v>
+        <v>1.319919174428549</v>
       </c>
       <c r="D19">
-        <v>0.02765682228274358</v>
+        <v>0.1211087834543036</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.5046870170891324</v>
+        <v>0.2408638117801729</v>
       </c>
       <c r="G19">
-        <v>0.3431572510976224</v>
+        <v>0.0007666373637661989</v>
       </c>
       <c r="H19">
-        <v>0.4893089899601364</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0.485156785133487</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2998411849813039</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0.234207090799174</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>1.143989403300999</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>1.599569075517564</v>
+        <v>0.4357235489059121</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.9843219878404739</v>
+        <v>5.18733671616792</v>
       </c>
       <c r="C20">
-        <v>0.3841386286267721</v>
+        <v>1.368782740942265</v>
       </c>
       <c r="D20">
-        <v>0.02857798928359045</v>
+        <v>0.1256518738836405</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.5070550560018319</v>
+        <v>0.2483805212699011</v>
       </c>
       <c r="G20">
-        <v>0.3447992927774521</v>
+        <v>0.0007650855785755966</v>
       </c>
       <c r="H20">
-        <v>0.488904652757725</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0.4836419114358108</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.3009779782506996</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0.2396965507235294</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>1.142471746636289</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>1.602288597637227</v>
+        <v>0.4441179981796353</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.09308698156849</v>
+        <v>5.842301627519475</v>
       </c>
       <c r="C21">
-        <v>0.395996792893925</v>
+        <v>1.533407554506823</v>
       </c>
       <c r="D21">
-        <v>0.03166221016039827</v>
+        <v>0.1409553337879714</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.5154124394997552</v>
+        <v>0.2759415588642469</v>
       </c>
       <c r="G21">
-        <v>0.3506374457854804</v>
+        <v>0.0007599416053421482</v>
       </c>
       <c r="H21">
-        <v>0.4878308046791062</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0.4789058390688083</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.304979996939224</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0.2581935636332346</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>1.137864814810612</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>1.612692241549524</v>
+        <v>0.4798045178978469</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.164102001976744</v>
+        <v>6.272249760092336</v>
       </c>
       <c r="C22">
-        <v>0.4037227175220721</v>
+        <v>1.641407591728637</v>
       </c>
       <c r="D22">
-        <v>0.03366971365439753</v>
+        <v>0.1509930485583624</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.5211733379900494</v>
+        <v>0.2958270638375922</v>
       </c>
       <c r="G22">
-        <v>0.354692715343532</v>
+        <v>0.0007566285602187133</v>
       </c>
       <c r="H22">
-        <v>0.487340970702661</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0.4760744149304657</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.3077312676188484</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0.2703207394784641</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>1.1352200302059</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>1.620435932069881</v>
+        <v>0.509194256684566</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.126206805107927</v>
+        <v>6.042583384391548</v>
       </c>
       <c r="C23">
-        <v>0.3996015200701777</v>
+        <v>1.583723695943263</v>
       </c>
       <c r="D23">
-        <v>0.03259903453929525</v>
+        <v>0.1456319832651332</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.5180712971718364</v>
+        <v>0.2850321490321335</v>
       </c>
       <c r="G23">
-        <v>0.352506385995099</v>
+        <v>0.0007583925389662519</v>
       </c>
       <c r="H23">
-        <v>0.4875830190346733</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0.4775614383766786</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.3062504659359462</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0.2638448174673158</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>1.136598148063896</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>1.616216547822631</v>
+        <v>0.4929205970773722</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.9825432294852021</v>
+        <v>5.176658840130017</v>
       </c>
       <c r="C24">
-        <v>0.383944422651723</v>
+        <v>1.366097871942429</v>
       </c>
       <c r="D24">
-        <v>0.02852744325883094</v>
+        <v>0.1254022575727305</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.5069235054918053</v>
+        <v>0.2479594420095381</v>
       </c>
       <c r="G24">
-        <v>0.344707912580148</v>
+        <v>0.00076517052469674</v>
       </c>
       <c r="H24">
-        <v>0.4889257856305704</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0.4837237711086431</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.3009148633866801</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0.2393948923689493</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>1.142553235603152</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>1.602134491265446</v>
+        <v>0.4436300652813969</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.8273342248923541</v>
+        <v>4.2486756990034</v>
       </c>
       <c r="C25">
-        <v>0.3669595248959041</v>
+        <v>1.132647752374282</v>
       </c>
       <c r="D25">
-        <v>0.0241014802005779</v>
+        <v>0.1036935965487373</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.4961823615164178</v>
+        <v>0.2150389426212342</v>
       </c>
       <c r="G25">
-        <v>0.3373226729840013</v>
+        <v>0.000772711535301805</v>
       </c>
       <c r="H25">
-        <v>0.4912854754238936</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0.4915020714289753</v>
+        <v>0</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.2957443917369886</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0.2131946616254368</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>1.150553338523501</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>1.590996036994881</v>
+        <v>0.4134203297328582</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_1/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_1/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,34 +415,40 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.568408525178256</v>
+        <v>3.474798344480178</v>
       </c>
       <c r="C2">
-        <v>0.9613797458861768</v>
+        <v>1.028811158724977</v>
       </c>
       <c r="D2">
-        <v>0.08776080198537528</v>
+        <v>0.09244169505385003</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.1958911521984135</v>
+        <v>0.215384746749443</v>
       </c>
       <c r="G2">
-        <v>0.0007784831501217991</v>
+        <v>0.0007878213449589255</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.004342034164140696</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -460,36 +466,42 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.4078019025806725</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0.5037206014540914</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.108280895464588</v>
+        <v>3.028242116624824</v>
       </c>
       <c r="C3">
-        <v>0.8454797792917645</v>
+        <v>0.9095836216172586</v>
       </c>
       <c r="D3">
-        <v>0.0769749681230536</v>
+        <v>0.08144680489036915</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.1856415171195458</v>
+        <v>0.2079164474233188</v>
       </c>
       <c r="G3">
-        <v>0.0007825411692239198</v>
+        <v>0.0007913191441614731</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.002627410753965886</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -507,36 +519,42 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.4129486137278917</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0.5170899731007097</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.825915327457949</v>
+        <v>2.753769637390974</v>
       </c>
       <c r="C4">
-        <v>0.7743374143394135</v>
+        <v>0.8369175960381483</v>
       </c>
       <c r="D4">
-        <v>0.07035252012673965</v>
+        <v>0.0747359746587648</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.1805558398268623</v>
+        <v>0.2041134526760544</v>
       </c>
       <c r="G4">
-        <v>0.0007851080792580546</v>
+        <v>0.0007935369428712949</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.001813952300414812</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -554,36 +572,42 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.4200921746041786</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0.5279113412277923</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.710850376950873</v>
+        <v>2.641799028473429</v>
       </c>
       <c r="C5">
-        <v>0.7453433845122106</v>
+        <v>0.8090124634292692</v>
       </c>
       <c r="D5">
-        <v>0.06765309539918718</v>
+        <v>0.07213695982333945</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.1787677427549141</v>
+        <v>0.2022530400963163</v>
       </c>
       <c r="G5">
-        <v>0.0007861734535698822</v>
+        <v>0.0007944626045199381</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.001596515654408215</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -601,36 +625,42 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.4239439229481547</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0.5315560935065662</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.691742962474791</v>
+        <v>2.623166834794176</v>
       </c>
       <c r="C6">
-        <v>0.7405285449754899</v>
+        <v>0.8063278378857319</v>
       </c>
       <c r="D6">
-        <v>0.06720479356266651</v>
+        <v>0.07186117016502891</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.1784874583106522</v>
+        <v>0.2013499986950862</v>
       </c>
       <c r="G6">
-        <v>0.0007863515377168166</v>
+        <v>0.0007946221990319479</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.001642483165760211</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -648,36 +678,42 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.4246385924569864</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0.5305089285972784</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.824363563686688</v>
+        <v>2.75216823782398</v>
       </c>
       <c r="C7">
-        <v>0.7739464129014948</v>
+        <v>0.8418601316625143</v>
       </c>
       <c r="D7">
-        <v>0.07031611861558673</v>
+        <v>0.07512620537927717</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.1805305984054506</v>
+        <v>0.2024359241411631</v>
       </c>
       <c r="G7">
-        <v>0.000785122368472757</v>
+        <v>0.0007935620479241891</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.002010764238572271</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -695,36 +731,42 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.4201403901948879</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0.5233522562144231</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.409700816782276</v>
+        <v>3.320746749036402</v>
       </c>
       <c r="C8">
-        <v>0.9214080094844235</v>
+        <v>0.9947037192501682</v>
       </c>
       <c r="D8">
-        <v>0.08404135434444981</v>
+        <v>0.08921112445907653</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.1920945074206486</v>
+        <v>0.2104624602156306</v>
       </c>
       <c r="G8">
-        <v>0.0007798669867489226</v>
+        <v>0.0007890280355672963</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.003933701769336828</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -742,36 +784,42 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.4087120610777362</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0.5017252544370336</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.56066311628399</v>
+        <v>4.434762411754207</v>
       </c>
       <c r="C9">
-        <v>1.211158529000897</v>
+        <v>1.289645937344005</v>
       </c>
       <c r="D9">
-        <v>0.1109953941717379</v>
+        <v>0.1164251945498194</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.225274455495871</v>
+        <v>0.2359253096864506</v>
       </c>
       <c r="G9">
-        <v>0.0007701386537401495</v>
+        <v>0.0007806592506337806</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.009528435898541687</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -789,36 +837,42 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.42081543761023</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0.4899511050140291</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.411103633937728</v>
+        <v>5.254271404277119</v>
       </c>
       <c r="C10">
-        <v>1.42503993474611</v>
+        <v>1.512968138794918</v>
       </c>
       <c r="D10">
-        <v>0.1308819464941422</v>
+        <v>0.1369357146427319</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.2574161719831096</v>
+        <v>0.2588012297296487</v>
       </c>
       <c r="G10">
-        <v>0.0007633137999647484</v>
+        <v>0.0007748235914224699</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.01534737945539533</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -836,36 +890,42 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.4550456187863006</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0.4953909904036493</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.7997576473702</v>
+        <v>5.627597724287341</v>
       </c>
       <c r="C11">
-        <v>1.522717869787016</v>
+        <v>1.62477588229757</v>
       </c>
       <c r="D11">
-        <v>0.1399617362665424</v>
+        <v>0.1470796374983223</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.2740497845923784</v>
+        <v>0.2678473146346505</v>
       </c>
       <c r="G11">
-        <v>0.0007602720129080831</v>
+        <v>0.0007722429752540227</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.01872997709034241</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -883,36 +943,42 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0.4771489766506676</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0.4948416215512879</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.947251234155772</v>
+        <v>5.769190647156222</v>
       </c>
       <c r="C12">
-        <v>1.559775161208393</v>
+        <v>1.662452287175142</v>
       </c>
       <c r="D12">
-        <v>0.1434061189158768</v>
+        <v>0.1505480697081367</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.2806672519525293</v>
+        <v>0.2728827059642285</v>
       </c>
       <c r="G12">
-        <v>0.0007591285871704212</v>
+        <v>0.0007712671257639721</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.01991643805048859</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -930,36 +996,42 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0.4865514949928382</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0.4991265633185975</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.915470627238278</v>
+        <v>5.738706857486704</v>
       </c>
       <c r="C13">
-        <v>1.551790918291204</v>
+        <v>1.65335173492474</v>
       </c>
       <c r="D13">
-        <v>0.1426640182583725</v>
+        <v>0.1497223277782069</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.2792273974870767</v>
+        <v>0.2720711800320714</v>
       </c>
       <c r="G13">
-        <v>0.0007593744794825054</v>
+        <v>0.0007714755825004936</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.01962236130179384</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -977,36 +1049,42 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0.4844790141395663</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0.4989409606163946</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.811885270083565</v>
+        <v>5.639251098238447</v>
       </c>
       <c r="C14">
-        <v>1.525765133502091</v>
+        <v>1.627456661801148</v>
       </c>
       <c r="D14">
-        <v>0.1402449784615669</v>
+        <v>0.1473315415494625</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.2745876448037166</v>
+        <v>0.2683773270195218</v>
       </c>
       <c r="G14">
-        <v>0.0007601777771378838</v>
+        <v>0.0007721619481533582</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.01881082380847499</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1024,36 +1102,42 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0.4779012759578336</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0.4955067809692224</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.748479694756838</v>
+        <v>5.578316350597504</v>
       </c>
       <c r="C15">
-        <v>1.509832976798577</v>
+        <v>1.613542739335628</v>
       </c>
       <c r="D15">
-        <v>0.1387640761950735</v>
+        <v>0.146022594001991</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.2717880724406569</v>
+        <v>0.2655860180574834</v>
       </c>
       <c r="G15">
-        <v>0.0007606708997362992</v>
+        <v>0.0007725861531889014</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.01839689215435136</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1071,36 +1155,42 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.4740095665105599</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0.4919791961578568</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.385745278278989</v>
+        <v>5.229603591229932</v>
       </c>
       <c r="C16">
-        <v>1.418665296221036</v>
+        <v>1.521826652682591</v>
       </c>
       <c r="D16">
-        <v>0.130289337293064</v>
+        <v>0.1375640009747485</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.2563720735383228</v>
+        <v>0.253538066662216</v>
       </c>
       <c r="G16">
-        <v>0.0007635138021167797</v>
+        <v>0.0007750172678775947</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.01570696817500039</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1118,36 +1208,42 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.4537403537276106</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0.482698401191314</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.163719042956473</v>
+        <v>5.015883724479011</v>
       </c>
       <c r="C17">
-        <v>1.362844218450618</v>
+        <v>1.465770281291327</v>
       </c>
       <c r="D17">
-        <v>0.1250997590664298</v>
+        <v>0.1323909025705774</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.2474504070969772</v>
+        <v>0.2465075129474243</v>
       </c>
       <c r="G17">
-        <v>0.000765273515227094</v>
+        <v>0.0007765242766214764</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.01417780346684516</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1165,36 +1261,42 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.4430428993702549</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0.4781600032656854</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.036179346052108</v>
+        <v>4.893106207286223</v>
       </c>
       <c r="C18">
-        <v>1.330772487954789</v>
+        <v>1.42871326216482</v>
       </c>
       <c r="D18">
-        <v>0.1221179019916292</v>
+        <v>0.1290308034419496</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.242506414845657</v>
+        <v>0.2440092956714182</v>
       </c>
       <c r="G18">
-        <v>0.0007662916126281048</v>
+        <v>0.0007773894687673949</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.01312846072559104</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1212,36 +1314,42 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.437498832413894</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0.4798235662855177</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.993022941985771</v>
+        <v>4.851479932017412</v>
       </c>
       <c r="C19">
-        <v>1.319919174428549</v>
+        <v>1.419946660042513</v>
       </c>
       <c r="D19">
-        <v>0.1211087834543036</v>
+        <v>0.1281949237475857</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.2408638117801729</v>
+        <v>0.2420897649791769</v>
       </c>
       <c r="G19">
-        <v>0.0007666373637661989</v>
+        <v>0.0007776891788000883</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.01294034349131579</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1259,36 +1367,42 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.4357235489059121</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0.4774702580048995</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.18733671616792</v>
+        <v>5.038634438275665</v>
       </c>
       <c r="C20">
-        <v>1.368782740942265</v>
+        <v>1.471345795093384</v>
       </c>
       <c r="D20">
-        <v>0.1256518738836405</v>
+        <v>0.1329103356176944</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.2483805212699011</v>
+        <v>0.2473539082364624</v>
       </c>
       <c r="G20">
-        <v>0.0007650855785755966</v>
+        <v>0.0007763626748547517</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.01431928511958613</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1306,36 +1420,42 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0.4441179981796353</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0.4789034281026829</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.842301627519475</v>
+        <v>5.668362351303585</v>
       </c>
       <c r="C21">
-        <v>1.533407554506823</v>
+        <v>1.640548625708448</v>
       </c>
       <c r="D21">
-        <v>0.1409553337879714</v>
+        <v>0.1484718562840612</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.2759415588642469</v>
+        <v>0.2678756722076869</v>
       </c>
       <c r="G21">
-        <v>0.0007599416053421482</v>
+        <v>0.0007719676543110315</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.01925839013490371</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1353,36 +1473,42 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0.4798045178978469</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0.4922019874233428</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.272249760092336</v>
+        <v>6.08086761876217</v>
       </c>
       <c r="C22">
-        <v>1.641407591728637</v>
+        <v>1.744903541909025</v>
       </c>
       <c r="D22">
-        <v>0.1509930485583624</v>
+        <v>0.1581426640339174</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.2958270638375922</v>
+        <v>0.2845486363314151</v>
       </c>
       <c r="G22">
-        <v>0.0007566285602187133</v>
+        <v>0.0007691350043418969</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.0226357147787466</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1400,36 +1526,42 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0.509194256684566</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0.5103524705731388</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.042583384391548</v>
+        <v>5.86073621393308</v>
       </c>
       <c r="C23">
-        <v>1.583723695943263</v>
+        <v>1.682516017764442</v>
       </c>
       <c r="D23">
-        <v>0.1456319832651332</v>
+        <v>0.1524469523580478</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.2850321490321335</v>
+        <v>0.2774363152505543</v>
       </c>
       <c r="G23">
-        <v>0.0007583925389662519</v>
+        <v>0.000770633497717991</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.0205555905296313</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1447,36 +1579,42 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0.4929205970773722</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0.5054626737246934</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.176658840130017</v>
+        <v>5.028530598248324</v>
       </c>
       <c r="C24">
-        <v>1.366097871942429</v>
+        <v>1.458486462537508</v>
       </c>
       <c r="D24">
-        <v>0.1254022575727305</v>
+        <v>0.1318498588219654</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.2479594420095381</v>
+        <v>0.249978908953473</v>
       </c>
       <c r="G24">
-        <v>0.00076517052469674</v>
+        <v>0.0007764200885551076</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.01384744488613876</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1494,36 +1632,42 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0.4436300652813969</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0.4867696337544345</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.2486756990034</v>
+        <v>4.133163646007404</v>
       </c>
       <c r="C25">
-        <v>1.132647752374282</v>
+        <v>1.219142006372522</v>
       </c>
       <c r="D25">
-        <v>0.1036935965487373</v>
+        <v>0.109807504906712</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.2150389426212342</v>
+        <v>0.2252774970166698</v>
       </c>
       <c r="G25">
-        <v>0.000772711535301805</v>
+        <v>0.0007828848980073834</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.00809595745542957</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1541,7 +1685,13 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0.4134203297328582</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0.4823595699843537</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_1/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_1/res_line/pl_mw.xlsx
@@ -427,52 +427,52 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.474798344480178</v>
+        <v>0.9262233024979878</v>
       </c>
       <c r="C2">
-        <v>1.028811158724977</v>
+        <v>0.1596022949744764</v>
       </c>
       <c r="D2">
-        <v>0.09244169505385003</v>
+        <v>0.1187768548398225</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.215384746749443</v>
+        <v>0.6550001259120108</v>
       </c>
       <c r="G2">
-        <v>0.0007878213449589255</v>
+        <v>0.3920883499616394</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.01241619262868195</v>
       </c>
       <c r="I2">
-        <v>0.004342034164140696</v>
+        <v>0.01082587255251433</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.3625256375047101</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.4173254591760944</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.09045107815414077</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.842082272946044</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.1890322265868676</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>0.2109495226589573</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.5037206014540914</v>
+        <v>1.536296036477296</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -480,52 +480,52 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.028242116624824</v>
+        <v>0.8070989572570397</v>
       </c>
       <c r="C3">
-        <v>0.9095836216172586</v>
+        <v>0.1533049032492713</v>
       </c>
       <c r="D3">
-        <v>0.08144680489036915</v>
+        <v>0.1083189375130473</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.2079164474233188</v>
+        <v>0.6469085903211749</v>
       </c>
       <c r="G3">
-        <v>0.0007913191441614731</v>
+        <v>0.390328260215874</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.01494680889829189</v>
       </c>
       <c r="I3">
-        <v>0.002627410753965886</v>
+        <v>0.01304951979785729</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.365795822973233</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.4225312261225902</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.08850813456441031</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.739451009757758</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.1711805972853497</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.1846526881067909</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.5170899731007097</v>
+        <v>1.539148766310532</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -533,52 +533,52 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.753769637390974</v>
+        <v>0.7336932068735678</v>
       </c>
       <c r="C4">
-        <v>0.8369175960381483</v>
+        <v>0.1494524406197684</v>
       </c>
       <c r="D4">
-        <v>0.0747359746587648</v>
+        <v>0.1019290569713291</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.2041134526760544</v>
+        <v>0.6423855952693813</v>
       </c>
       <c r="G4">
-        <v>0.0007935369428712949</v>
+        <v>0.3895958437065516</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.01668262911218948</v>
       </c>
       <c r="I4">
-        <v>0.001813952300414812</v>
+        <v>0.01461046137731259</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.3680465539260567</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.4259695255211895</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.08726881641298156</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.6763812060897152</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.1602717748064322</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.1684934992438762</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.5279113412277923</v>
+        <v>1.542140173720369</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -586,52 +586,52 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.641799028473429</v>
+        <v>0.7034210238965386</v>
       </c>
       <c r="C5">
-        <v>0.8090124634292692</v>
+        <v>0.1480298320751103</v>
       </c>
       <c r="D5">
-        <v>0.07213695982333945</v>
+        <v>0.09935185624194531</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.2022530400963163</v>
+        <v>0.64022987659569</v>
       </c>
       <c r="G5">
-        <v>0.0007944626045199381</v>
+        <v>0.3890437001371438</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.01743886907440734</v>
       </c>
       <c r="I5">
-        <v>0.001596515654408215</v>
+        <v>0.01538158707281445</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.3688449124575968</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.4271247305228769</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.08671476609288842</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.6509540403656757</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.1559589193569408</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.1619160967364763</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.5315560935065662</v>
+        <v>1.542570604669777</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -639,52 +639,52 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.623166834794176</v>
+        <v>0.6980340754700478</v>
       </c>
       <c r="C6">
-        <v>0.8063278378857319</v>
+        <v>0.1479723917769888</v>
       </c>
       <c r="D6">
-        <v>0.07186117016502891</v>
+        <v>0.09894799434724888</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.2013499986950862</v>
+        <v>0.6393628628166752</v>
       </c>
       <c r="G6">
-        <v>0.0007946221990319479</v>
+        <v>0.3885433153308924</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.01757253099348216</v>
       </c>
       <c r="I6">
-        <v>0.001642483165760211</v>
+        <v>0.01562637352350116</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.3687625440593223</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.4269469540695141</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.08657665560086869</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.6470878631977115</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.1553912767653074</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.160837856052904</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.5305089285972784</v>
+        <v>1.541325225183371</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -692,52 +692,52 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.75216823782398</v>
+        <v>0.7323092114745577</v>
       </c>
       <c r="C7">
-        <v>0.8418601316625143</v>
+        <v>0.1499235058764512</v>
       </c>
       <c r="D7">
-        <v>0.07512620537927717</v>
+        <v>0.1019589521980038</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.2024359241411631</v>
+        <v>0.6409507362850562</v>
       </c>
       <c r="G7">
-        <v>0.0007935620479241891</v>
+        <v>0.388460188470944</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.01670679361640062</v>
       </c>
       <c r="I7">
-        <v>0.002010764238572271</v>
+        <v>0.01491522462534434</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.3674623921365878</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.424968800025237</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.08713810794679322</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.6770170826739417</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.1606179245866386</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.1684435008064469</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.5233522562144231</v>
+        <v>1.538507845749791</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -745,52 +745,52 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.320746749036402</v>
+        <v>0.8838974330545852</v>
       </c>
       <c r="C8">
-        <v>0.9947037192501682</v>
+        <v>0.1580906116988814</v>
       </c>
       <c r="D8">
-        <v>0.08921112445907653</v>
+        <v>0.1152502464264202</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.2104624602156306</v>
+        <v>0.6502700928550524</v>
       </c>
       <c r="G8">
-        <v>0.0007890280355672963</v>
+        <v>0.3899267426348274</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.01326570847993948</v>
       </c>
       <c r="I8">
-        <v>0.003933701769336828</v>
+        <v>0.01190626802948724</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.3628253076540346</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.4177418078600255</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.0896308948950626</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.8080135423901709</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.1834040136070954</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>0.2019353749615824</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.5017252544370336</v>
+        <v>1.532250957023464</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -798,52 +798,52 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.434762411754207</v>
+        <v>1.180946396605265</v>
       </c>
       <c r="C9">
-        <v>1.289645937344005</v>
+        <v>0.1733729272085398</v>
       </c>
       <c r="D9">
-        <v>0.1164251945498194</v>
+        <v>0.1414690498767328</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.2359253096864506</v>
+        <v>0.6747010268558142</v>
       </c>
       <c r="G9">
-        <v>0.0007806592506337806</v>
+        <v>0.3976893817944358</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.008005290070193877</v>
       </c>
       <c r="I9">
-        <v>0.009528435898541687</v>
+        <v>0.007172704701011057</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.356755201762418</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.4073287471680125</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.09437334194856639</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>1.062882168304725</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.2278274613427413</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>0.2674828547787698</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.4899511050140291</v>
+        <v>1.53661710100117</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -851,52 +851,52 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.254271404277119</v>
+        <v>1.396702032404704</v>
       </c>
       <c r="C10">
-        <v>1.512968138794918</v>
+        <v>0.1863983812894503</v>
       </c>
       <c r="D10">
-        <v>0.1369357146427319</v>
+        <v>0.1583789540341058</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.2588012297296487</v>
+        <v>0.6862779594799591</v>
       </c>
       <c r="G10">
-        <v>0.0007748235914224699</v>
+        <v>0.3997046506217856</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.005491142804570526</v>
       </c>
       <c r="I10">
-        <v>0.01534737945539533</v>
+        <v>0.004961045980616419</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.3506789136854138</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.3965586458800168</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.09601292670120642</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>1.254644426805015</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.252287089313711</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>0.311558106925709</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.4953909904036493</v>
+        <v>1.528586550006068</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -904,52 +904,52 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.627597724287341</v>
+        <v>1.484667915535795</v>
       </c>
       <c r="C11">
-        <v>1.62477588229757</v>
+        <v>0.2067849422977588</v>
       </c>
       <c r="D11">
-        <v>0.1470796374983223</v>
+        <v>0.1442652290690063</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.2678473146346505</v>
+        <v>0.6216960223324506</v>
       </c>
       <c r="G11">
-        <v>0.0007722429752540227</v>
+        <v>0.3568264302945394</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.02408273372926573</v>
       </c>
       <c r="I11">
-        <v>0.01872997709034241</v>
+        <v>0.004952623419203661</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.3253761168952494</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.358520986144498</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.08943672223220078</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1.378455001578288</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.1938017618188184</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>0.2961791766144515</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>0.4948416215512879</v>
+        <v>1.384871647063449</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -957,52 +957,52 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.769190647156222</v>
+        <v>1.514827293634823</v>
       </c>
       <c r="C12">
-        <v>1.662452287175142</v>
+        <v>0.2224288938479901</v>
       </c>
       <c r="D12">
-        <v>0.1505480697081367</v>
+        <v>0.1292904084778996</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.2728827059642285</v>
+        <v>0.5691779303108788</v>
       </c>
       <c r="G12">
-        <v>0.0007712671257639721</v>
+        <v>0.323548610980346</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.06297789397385145</v>
       </c>
       <c r="I12">
-        <v>0.01991643805048859</v>
+        <v>0.004849172242177069</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.3068506883493001</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.3323550271240414</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.09239853178642754</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1.442476552517405</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.1463154556890558</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>0.2742179563771785</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>0.4991265633185975</v>
+        <v>1.275590132349492</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1010,52 +1010,52 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.738706857486704</v>
+        <v>1.500402129746789</v>
       </c>
       <c r="C13">
-        <v>1.65335173492474</v>
+        <v>0.2359074872117901</v>
       </c>
       <c r="D13">
-        <v>0.1497223277782069</v>
+        <v>0.1129614163853461</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.2720711800320714</v>
+        <v>0.5205988785590634</v>
       </c>
       <c r="G13">
-        <v>0.0007714755825004936</v>
+        <v>0.2938307876871207</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1191629348277701</v>
       </c>
       <c r="I13">
-        <v>0.01962236130179384</v>
+        <v>0.005063854465012341</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.2914401186638216</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.3120741539878136</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.102414367417385</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1.465115619547475</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.105338497560922</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>0.2461359062277033</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>0.4989409606163946</v>
+        <v>1.180295195940715</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1063,52 +1063,52 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.639251098238447</v>
+        <v>1.469813361102638</v>
       </c>
       <c r="C14">
-        <v>1.627456661801148</v>
+        <v>0.2447367031578267</v>
       </c>
       <c r="D14">
-        <v>0.1473315415494625</v>
+        <v>0.101123900833187</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.2683773270195218</v>
+        <v>0.4886003654635758</v>
       </c>
       <c r="G14">
-        <v>0.0007721619481533582</v>
+        <v>0.2747361098400845</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1688994504666397</v>
       </c>
       <c r="I14">
-        <v>0.01881082380847499</v>
+        <v>0.005458609059370012</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.2820732819597467</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.3006781021021929</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.1136325350824698</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1.462490889237671</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.08092113767376929</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>0.2239689438270709</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>0.4955067809692224</v>
+        <v>1.120145336746788</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1116,52 +1116,52 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.578316350597504</v>
+        <v>1.452467497039947</v>
       </c>
       <c r="C15">
-        <v>1.613542739335628</v>
+        <v>0.2464773112978662</v>
       </c>
       <c r="D15">
-        <v>0.146022594001991</v>
+        <v>0.0979188249113534</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.2655860180574834</v>
+        <v>0.4809985043682303</v>
       </c>
       <c r="G15">
-        <v>0.0007725861531889014</v>
+        <v>0.2703454543997026</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1815988763239034</v>
       </c>
       <c r="I15">
-        <v>0.01839689215435136</v>
+        <v>0.005762257521432446</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.2802112977656677</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.2986550561369956</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1167435389869773</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1.453173776589381</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.07548173468838471</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>0.2172806665754159</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>0.4919791961578568</v>
+        <v>1.106906134482287</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1169,52 +1169,52 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.229603591229932</v>
+        <v>1.361909203892083</v>
       </c>
       <c r="C16">
-        <v>1.521826652682591</v>
+        <v>0.2379008001186378</v>
       </c>
       <c r="D16">
-        <v>0.1375640009747485</v>
+        <v>0.09438048457480619</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.253538066662216</v>
+        <v>0.4851415391063014</v>
       </c>
       <c r="G16">
-        <v>0.0007750172678775947</v>
+        <v>0.2746856245362324</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1699366427804705</v>
       </c>
       <c r="I16">
-        <v>0.01570696817500039</v>
+        <v>0.006777929016906548</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.2853774014267572</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.3065177760005433</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1134949327847856</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1.365321611092156</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.07448897782288455</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>0.2048165541579081</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>0.482698401191314</v>
+        <v>1.126748186118235</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1222,52 +1222,52 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.015883724479011</v>
+        <v>1.308797968122235</v>
       </c>
       <c r="C17">
-        <v>1.465770281291327</v>
+        <v>0.2265923216146462</v>
       </c>
       <c r="D17">
-        <v>0.1323909025705774</v>
+        <v>0.09783827676616141</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.2465075129474243</v>
+        <v>0.5050938409972261</v>
       </c>
       <c r="G17">
-        <v>0.0007765242766214764</v>
+        <v>0.2880379006923164</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.132790345945935</v>
       </c>
       <c r="I17">
-        <v>0.01417780346684516</v>
+        <v>0.007388373637266632</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.2942993306905208</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.3184615597778535</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1043678132127219</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>1.299607863609538</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.08586790254212673</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>0.2068654910982595</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>0.4781600032656854</v>
+        <v>1.173631315751805</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1275,52 +1275,52 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.893106207286223</v>
+        <v>1.282554047056834</v>
       </c>
       <c r="C18">
-        <v>1.42871326216482</v>
+        <v>0.2118587210838001</v>
       </c>
       <c r="D18">
-        <v>0.1290308034419496</v>
+        <v>0.1080447050588376</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.2440092956714182</v>
+        <v>0.5431322897978248</v>
       </c>
       <c r="G18">
-        <v>0.0007773894687673949</v>
+        <v>0.3122652908841062</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.08010352722436664</v>
       </c>
       <c r="I18">
-        <v>0.01312846072559104</v>
+        <v>0.007335574228537034</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.3082185087604188</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.3369507461586974</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.09321743644222202</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>1.245018143005723</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.1129431018317817</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>0.2219326896933858</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>0.4798235662855177</v>
+        <v>1.254085576576657</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1328,52 +1328,52 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.851479932017412</v>
+        <v>1.277791684978467</v>
       </c>
       <c r="C19">
-        <v>1.419946660042513</v>
+        <v>0.1982056953046367</v>
       </c>
       <c r="D19">
-        <v>0.1281949237475857</v>
+        <v>0.1237060030542381</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.2420897649791769</v>
+        <v>0.5931729846234433</v>
       </c>
       <c r="G19">
-        <v>0.0007776891788000883</v>
+        <v>0.3434062300858898</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.03436456504995533</v>
       </c>
       <c r="I19">
-        <v>0.01294034349131579</v>
+        <v>0.007313182394524276</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.324950279047485</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.3598675805881868</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.08744212767687642</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>1.206017076588694</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.1572225197382835</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>0.2471082240293505</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>0.4774702580048995</v>
+        <v>1.355131937972004</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1381,52 +1381,52 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.038634438275665</v>
+        <v>1.336935914054408</v>
       </c>
       <c r="C20">
-        <v>1.471345795093384</v>
+        <v>0.1847005283142096</v>
       </c>
       <c r="D20">
-        <v>0.1329103356176944</v>
+        <v>0.1540230749932761</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.2473539082364624</v>
+        <v>0.6784754779745299</v>
       </c>
       <c r="G20">
-        <v>0.0007763626748547517</v>
+        <v>0.395421757681035</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.006095728533101585</v>
       </c>
       <c r="I20">
-        <v>0.01431928511958613</v>
+        <v>0.006347078395609884</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.3503055303279936</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.3961261724743679</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.09517886730205838</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>1.207591574279377</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.2467465947078438</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>0.2999330785301026</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>0.4789034281026829</v>
+        <v>1.518616162102049</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1434,52 +1434,52 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.668362351303585</v>
+        <v>1.504321814452226</v>
       </c>
       <c r="C21">
-        <v>1.640548625708448</v>
+        <v>0.1923382724650793</v>
       </c>
       <c r="D21">
-        <v>0.1484718562840612</v>
+        <v>0.1710233477798653</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.2678756722076869</v>
+        <v>0.7016749156427764</v>
       </c>
       <c r="G21">
-        <v>0.0007719676543110315</v>
+        <v>0.4062548986516461</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.003997129861779303</v>
       </c>
       <c r="I21">
-        <v>0.01925839013490371</v>
+        <v>0.004753468202887134</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.3505074898139995</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.3950072962262183</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.09889060758880852</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1.34822503553363</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.2789309193095164</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>0.3401264870672875</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>0.4922019874233428</v>
+        <v>1.542321396498878</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1487,52 +1487,52 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.08086761876217</v>
+        <v>1.614421002272735</v>
       </c>
       <c r="C22">
-        <v>1.744903541909025</v>
+        <v>0.1973867367613664</v>
       </c>
       <c r="D22">
-        <v>0.1581426640339174</v>
+        <v>0.1807806499895435</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.2845486363314151</v>
+        <v>0.7149772190370953</v>
       </c>
       <c r="G22">
-        <v>0.0007691350043418969</v>
+        <v>0.4125724083196189</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.002992558159410463</v>
       </c>
       <c r="I22">
-        <v>0.0226357147787466</v>
+        <v>0.003615173670707073</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.3502957625533796</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.3937897554743408</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.1006281921117509</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>1.44090648504158</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.2950541043731221</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>0.3642753873599247</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>0.5103524705731388</v>
+        <v>1.555470859431253</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1540,52 +1540,52 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.86073621393308</v>
+        <v>1.556865027286705</v>
       </c>
       <c r="C23">
-        <v>1.682516017764442</v>
+        <v>0.1940479767267718</v>
       </c>
       <c r="D23">
-        <v>0.1524469523580478</v>
+        <v>0.1754906975069019</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.2774363152505543</v>
+        <v>0.7094356967735607</v>
       </c>
       <c r="G23">
-        <v>0.000770633497717991</v>
+        <v>0.4104451765678832</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.003502817511603529</v>
       </c>
       <c r="I23">
-        <v>0.0205555905296313</v>
+        <v>0.003870004223538004</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.3510496100583183</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.395548196212804</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.09983747270952037</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>1.39022665585108</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.2859498991817873</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>0.3513399087819451</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>0.5054626737246934</v>
+        <v>1.552433611064501</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1593,52 +1593,52 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.028530598248324</v>
+        <v>1.336776279234442</v>
       </c>
       <c r="C24">
-        <v>1.458486462537508</v>
+        <v>0.1825160967267578</v>
       </c>
       <c r="D24">
-        <v>0.1318498588219654</v>
+        <v>0.1556725101209935</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.249978908953473</v>
+        <v>0.6869974109599539</v>
       </c>
       <c r="G24">
-        <v>0.0007764200885551076</v>
+        <v>0.4012493448708199</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.005871113469040679</v>
       </c>
       <c r="I24">
-        <v>0.01384744488613876</v>
+        <v>0.005796092981418255</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.3534013042178898</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.4009844335897021</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.09656826634167892</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>1.200402129765394</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.2524172420726813</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>0.3024702138689435</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>0.4867696337544345</v>
+        <v>1.537449696008025</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1646,52 +1646,52 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.133163646007404</v>
+        <v>1.098977063496477</v>
       </c>
       <c r="C25">
-        <v>1.219142006372522</v>
+        <v>0.17015127657492</v>
       </c>
       <c r="D25">
-        <v>0.109807504906712</v>
+        <v>0.1344620437535298</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.2252774970166698</v>
+        <v>0.6651834911764496</v>
       </c>
       <c r="G25">
-        <v>0.0007828848980073834</v>
+        <v>0.3932619697311566</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.009274006724408118</v>
       </c>
       <c r="I25">
-        <v>0.00809595745542957</v>
+        <v>0.008763444062935832</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.3571350989809972</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.408146972327593</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.0929157400731917</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.9957429950872267</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.2164938935562901</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>0.2498194425847053</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>0.4823595699843537</v>
+        <v>1.52786417169267</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_1/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_1/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9262233024979878</v>
+        <v>0.9174344747123655</v>
       </c>
       <c r="C2">
-        <v>0.1596022949744764</v>
+        <v>0.1458092638859512</v>
       </c>
       <c r="D2">
-        <v>0.1187768548398225</v>
+        <v>0.1207967766831928</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.6550001259120108</v>
+        <v>0.6171675094258688</v>
       </c>
       <c r="G2">
-        <v>0.3920883499616394</v>
+        <v>0.3499566236129255</v>
       </c>
       <c r="H2">
-        <v>0.01241619262868195</v>
+        <v>0.01061059916404187</v>
       </c>
       <c r="I2">
-        <v>0.01082587255251433</v>
+        <v>0.008210244421078983</v>
       </c>
       <c r="J2">
-        <v>0.3625256375047101</v>
+        <v>0.3610976995152129</v>
       </c>
       <c r="K2">
-        <v>0.4173254591760944</v>
+        <v>0.3786934185697319</v>
       </c>
       <c r="L2">
-        <v>0.09045107815414077</v>
+        <v>0.1668446536135466</v>
       </c>
       <c r="M2">
-        <v>0.842082272946044</v>
+        <v>0.1197327659857592</v>
       </c>
       <c r="N2">
-        <v>0.1890322265868676</v>
+        <v>0.08644743125830523</v>
       </c>
       <c r="O2">
-        <v>0.2109495226589573</v>
+        <v>0.8596683331850556</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.2025912218169807</v>
       </c>
       <c r="Q2">
-        <v>1.536296036477296</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.2118394296325121</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>1.429422969039493</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8070989572570397</v>
+        <v>0.8014181318752662</v>
       </c>
       <c r="C3">
-        <v>0.1533049032492713</v>
+        <v>0.1370399137822318</v>
       </c>
       <c r="D3">
-        <v>0.1083189375130473</v>
+        <v>0.1102192770978192</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.6469085903211749</v>
+        <v>0.6117782186629981</v>
       </c>
       <c r="G3">
-        <v>0.390328260215874</v>
+        <v>0.351592414222317</v>
       </c>
       <c r="H3">
-        <v>0.01494680889829189</v>
+        <v>0.01281197812594148</v>
       </c>
       <c r="I3">
-        <v>0.01304951979785729</v>
+        <v>0.009922457509312643</v>
       </c>
       <c r="J3">
-        <v>0.365795822973233</v>
+        <v>0.3625420690647445</v>
       </c>
       <c r="K3">
-        <v>0.4225312261225902</v>
+        <v>0.3850548709454991</v>
       </c>
       <c r="L3">
-        <v>0.08850813456441031</v>
+        <v>0.1720101022891249</v>
       </c>
       <c r="M3">
-        <v>0.739451009757758</v>
+        <v>0.1210159678520242</v>
       </c>
       <c r="N3">
-        <v>0.1711805972853497</v>
+        <v>0.08482962050971654</v>
       </c>
       <c r="O3">
-        <v>0.1846526881067909</v>
+        <v>0.7536609647932409</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.1837392832292082</v>
       </c>
       <c r="Q3">
-        <v>1.539148766310532</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.1853505822927453</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>1.438043819770002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7336932068735678</v>
+        <v>0.7298383167484133</v>
       </c>
       <c r="C4">
-        <v>0.1494524406197684</v>
+        <v>0.1317294618652696</v>
       </c>
       <c r="D4">
-        <v>0.1019290569713291</v>
+        <v>0.1037619336473341</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.6423855952693813</v>
+        <v>0.6088237127460161</v>
       </c>
       <c r="G4">
-        <v>0.3895958437065516</v>
+        <v>0.3529587708301065</v>
       </c>
       <c r="H4">
-        <v>0.01668262911218948</v>
+        <v>0.01432407094125293</v>
       </c>
       <c r="I4">
-        <v>0.01461046137731259</v>
+        <v>0.0111413674459877</v>
       </c>
       <c r="J4">
-        <v>0.3680465539260567</v>
+        <v>0.363520885556504</v>
       </c>
       <c r="K4">
-        <v>0.4259695255211895</v>
+        <v>0.3891394762094542</v>
       </c>
       <c r="L4">
-        <v>0.08726881641298156</v>
+        <v>0.1753163187259759</v>
       </c>
       <c r="M4">
-        <v>0.6763812060897152</v>
+        <v>0.1223094490390402</v>
       </c>
       <c r="N4">
-        <v>0.1602717748064322</v>
+        <v>0.08379135592321596</v>
       </c>
       <c r="O4">
-        <v>0.1684934992438762</v>
+        <v>0.6885635338776979</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.1722479328364059</v>
       </c>
       <c r="Q4">
-        <v>1.542140173720369</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.1690697092356181</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>1.444326303473034</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7034210238965386</v>
+        <v>0.7002935908240602</v>
       </c>
       <c r="C5">
-        <v>0.1480298320751103</v>
+        <v>0.1297493471771674</v>
       </c>
       <c r="D5">
-        <v>0.09935185624194531</v>
+        <v>0.1011587539720011</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.64022987659569</v>
+        <v>0.6073005460092773</v>
       </c>
       <c r="G5">
-        <v>0.3890437001371438</v>
+        <v>0.3532857476640672</v>
       </c>
       <c r="H5">
-        <v>0.01743886907440734</v>
+        <v>0.01498346490518171</v>
       </c>
       <c r="I5">
-        <v>0.01538158707281445</v>
+        <v>0.01177809859230727</v>
       </c>
       <c r="J5">
-        <v>0.3688449124575968</v>
+        <v>0.3637641805712803</v>
       </c>
       <c r="K5">
-        <v>0.4271247305228769</v>
+        <v>0.3905637649405111</v>
       </c>
       <c r="L5">
-        <v>0.08671476609288842</v>
+        <v>0.1765479640894405</v>
       </c>
       <c r="M5">
-        <v>0.6509540403656757</v>
+        <v>0.1228993792779667</v>
       </c>
       <c r="N5">
-        <v>0.1559589193569408</v>
+        <v>0.08332246171540891</v>
       </c>
       <c r="O5">
-        <v>0.1619160967364763</v>
+        <v>0.6623216415198669</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.1677062659494482</v>
       </c>
       <c r="Q5">
-        <v>1.542570604669777</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.1624417783526155</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>1.446086350929249</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6980340754700478</v>
+        <v>0.6950305461242579</v>
       </c>
       <c r="C6">
-        <v>0.1479723917769888</v>
+        <v>0.1296272335019921</v>
       </c>
       <c r="D6">
-        <v>0.09894799434724888</v>
+        <v>0.1007506410702419</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.6393628628166752</v>
+        <v>0.6065567830166216</v>
       </c>
       <c r="G6">
-        <v>0.3885433153308924</v>
+        <v>0.352957249259866</v>
       </c>
       <c r="H6">
-        <v>0.01757253099348216</v>
+        <v>0.0151002298701888</v>
       </c>
       <c r="I6">
-        <v>0.01562637352350116</v>
+        <v>0.01201612700593646</v>
       </c>
       <c r="J6">
-        <v>0.3687625440593223</v>
+        <v>0.3635880394837159</v>
       </c>
       <c r="K6">
-        <v>0.4269469540695141</v>
+        <v>0.3904562059505423</v>
       </c>
       <c r="L6">
-        <v>0.08657665560086869</v>
+        <v>0.1765728015661772</v>
       </c>
       <c r="M6">
-        <v>0.6470878631977115</v>
+        <v>0.122926279414969</v>
       </c>
       <c r="N6">
-        <v>0.1553912767653074</v>
+        <v>0.08320204353325522</v>
       </c>
       <c r="O6">
-        <v>0.160837856052904</v>
+        <v>0.6583204974405419</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.16710183921343</v>
       </c>
       <c r="Q6">
-        <v>1.541325225183371</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.1613549528162608</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>1.445120419828925</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7323092114745577</v>
+        <v>0.7285907162474814</v>
       </c>
       <c r="C7">
-        <v>0.1499235058764512</v>
+        <v>0.132154963593905</v>
       </c>
       <c r="D7">
-        <v>0.1019589521980038</v>
+        <v>0.1039468330386057</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.6409507362850562</v>
+        <v>0.6067318650893583</v>
       </c>
       <c r="G7">
-        <v>0.388460188470944</v>
+        <v>0.3538382094589778</v>
       </c>
       <c r="H7">
-        <v>0.01670679361640062</v>
+        <v>0.01435227270356876</v>
       </c>
       <c r="I7">
-        <v>0.01491522462534434</v>
+        <v>0.01149267822802269</v>
       </c>
       <c r="J7">
-        <v>0.3674623921365878</v>
+        <v>0.3598803604045742</v>
       </c>
       <c r="K7">
-        <v>0.424968800025237</v>
+        <v>0.3878571149138459</v>
       </c>
       <c r="L7">
-        <v>0.08713810794679322</v>
+        <v>0.1746694762591439</v>
       </c>
       <c r="M7">
-        <v>0.6770170826739417</v>
+        <v>0.1220024902977004</v>
       </c>
       <c r="N7">
-        <v>0.1606179245866386</v>
+        <v>0.08365169032062614</v>
       </c>
       <c r="O7">
-        <v>0.1684435008064469</v>
+        <v>0.6889962825055989</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.172596332066675</v>
       </c>
       <c r="Q7">
-        <v>1.538507845749791</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.1690417325365239</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>1.438875597958969</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8838974330545852</v>
+        <v>0.8765981569083863</v>
       </c>
       <c r="C8">
-        <v>0.1580906116988814</v>
+        <v>0.1431635834523135</v>
       </c>
       <c r="D8">
-        <v>0.1152502464264202</v>
+        <v>0.1177491717544754</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.6502700928550524</v>
+        <v>0.611101784928664</v>
       </c>
       <c r="G8">
-        <v>0.3899267426348274</v>
+        <v>0.3555271640572712</v>
       </c>
       <c r="H8">
-        <v>0.01326570847993948</v>
+        <v>0.01136775076250502</v>
       </c>
       <c r="I8">
-        <v>0.01190626802948724</v>
+        <v>0.009191360999615483</v>
       </c>
       <c r="J8">
-        <v>0.3628253076540346</v>
+        <v>0.3509790835709694</v>
       </c>
       <c r="K8">
-        <v>0.4177418078600255</v>
+        <v>0.3784695148718242</v>
       </c>
       <c r="L8">
-        <v>0.0896308948950626</v>
+        <v>0.1674976861405231</v>
       </c>
       <c r="M8">
-        <v>0.8080135423901709</v>
+        <v>0.1193816292334056</v>
       </c>
       <c r="N8">
-        <v>0.1834040136070954</v>
+        <v>0.08569153624369719</v>
       </c>
       <c r="O8">
-        <v>0.2019353749615824</v>
+        <v>0.8237885084597849</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.196627488596306</v>
       </c>
       <c r="Q8">
-        <v>1.532250957023464</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.2028359358346457</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>1.42109385098567</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.180946396605265</v>
+        <v>1.165499578957906</v>
       </c>
       <c r="C9">
-        <v>0.1733729272085398</v>
+        <v>0.1647591588857864</v>
       </c>
       <c r="D9">
-        <v>0.1414690498767328</v>
+        <v>0.1444492254085787</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.6747010268558142</v>
+        <v>0.6275947288093917</v>
       </c>
       <c r="G9">
-        <v>0.3976893817944358</v>
+        <v>0.3566002060546012</v>
       </c>
       <c r="H9">
-        <v>0.008005290070193877</v>
+        <v>0.006801258677767957</v>
       </c>
       <c r="I9">
-        <v>0.007172704701011057</v>
+        <v>0.005518942768286905</v>
       </c>
       <c r="J9">
-        <v>0.356755201762418</v>
+        <v>0.3460007902284801</v>
       </c>
       <c r="K9">
-        <v>0.4073287471680125</v>
+        <v>0.3644603429269111</v>
       </c>
       <c r="L9">
-        <v>0.09437334194856639</v>
+        <v>0.1559148480116512</v>
       </c>
       <c r="M9">
-        <v>1.062882168304725</v>
+        <v>0.1190673709812309</v>
       </c>
       <c r="N9">
-        <v>0.2278274613427413</v>
+        <v>0.0896085024535207</v>
       </c>
       <c r="O9">
-        <v>0.2674828547787698</v>
+        <v>1.08712810499452</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>0.2437240270710248</v>
       </c>
       <c r="Q9">
-        <v>1.53661710100117</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.2688563695414494</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>1.40776161645752</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.396702032404704</v>
+        <v>1.375926406830871</v>
       </c>
       <c r="C10">
-        <v>0.1863983812894503</v>
+        <v>0.1821515899691377</v>
       </c>
       <c r="D10">
-        <v>0.1583789540341058</v>
+        <v>0.1626162893141583</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.6862779594799591</v>
+        <v>0.6298448477771359</v>
       </c>
       <c r="G10">
-        <v>0.3997046506217856</v>
+        <v>0.3661518071643926</v>
       </c>
       <c r="H10">
-        <v>0.005491142804570526</v>
+        <v>0.004677029312596837</v>
       </c>
       <c r="I10">
-        <v>0.004961045980616419</v>
+        <v>0.003957953470041353</v>
       </c>
       <c r="J10">
-        <v>0.3506789136854138</v>
+        <v>0.3248444670772841</v>
       </c>
       <c r="K10">
-        <v>0.3965586458800168</v>
+        <v>0.3496944379517331</v>
       </c>
       <c r="L10">
-        <v>0.09601292670120642</v>
+        <v>0.1461817251571151</v>
       </c>
       <c r="M10">
-        <v>1.254644426805015</v>
+        <v>0.119111027411904</v>
       </c>
       <c r="N10">
-        <v>0.252287089313711</v>
+        <v>0.09084546201227184</v>
       </c>
       <c r="O10">
-        <v>0.311558106925709</v>
+        <v>1.283772633613864</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>0.2698912192922904</v>
       </c>
       <c r="Q10">
-        <v>1.528586550006068</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.3133493079667957</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>1.376969885046648</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.484667915535795</v>
+        <v>1.466393187301975</v>
       </c>
       <c r="C11">
-        <v>0.2067849422977588</v>
+        <v>0.2035057253274601</v>
       </c>
       <c r="D11">
-        <v>0.1442652290690063</v>
+        <v>0.150020167534791</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.6216960223324506</v>
+        <v>0.563443410082229</v>
       </c>
       <c r="G11">
-        <v>0.3568264302945394</v>
+        <v>0.3509282053100904</v>
       </c>
       <c r="H11">
-        <v>0.02408273372926573</v>
+        <v>0.02333733662240078</v>
       </c>
       <c r="I11">
-        <v>0.004952623419203661</v>
+        <v>0.004232376062959453</v>
       </c>
       <c r="J11">
-        <v>0.3253761168952494</v>
+        <v>0.279316658214892</v>
       </c>
       <c r="K11">
-        <v>0.358520986144498</v>
+        <v>0.314266565905772</v>
       </c>
       <c r="L11">
-        <v>0.08943672223220078</v>
+        <v>0.1324567263233778</v>
       </c>
       <c r="M11">
-        <v>1.378455001578288</v>
+        <v>0.1073120763636073</v>
       </c>
       <c r="N11">
-        <v>0.1938017618188184</v>
+        <v>0.08629954726368094</v>
       </c>
       <c r="O11">
-        <v>0.2961791766144515</v>
+        <v>1.404421048912951</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>0.2086309691851582</v>
       </c>
       <c r="Q11">
-        <v>1.384871647063449</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.2980993020653528</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>1.228578407982056</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.514827293634823</v>
+        <v>1.499504642285103</v>
       </c>
       <c r="C12">
-        <v>0.2224288938479901</v>
+        <v>0.218684992978524</v>
       </c>
       <c r="D12">
-        <v>0.1292904084778996</v>
+        <v>0.1353676459903994</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.5691779303108788</v>
+        <v>0.5140119326524797</v>
       </c>
       <c r="G12">
-        <v>0.323548610980346</v>
+        <v>0.3301968037649203</v>
       </c>
       <c r="H12">
-        <v>0.06297789397385145</v>
+        <v>0.06223586640298606</v>
       </c>
       <c r="I12">
-        <v>0.004849172242177069</v>
+        <v>0.004165319597118078</v>
       </c>
       <c r="J12">
-        <v>0.3068506883493001</v>
+        <v>0.2595006090528784</v>
       </c>
       <c r="K12">
-        <v>0.3323550271240414</v>
+        <v>0.2921854114927971</v>
       </c>
       <c r="L12">
-        <v>0.09239853178642754</v>
+        <v>0.1248982564134753</v>
       </c>
       <c r="M12">
-        <v>1.442476552517405</v>
+        <v>0.0987473576391853</v>
       </c>
       <c r="N12">
-        <v>0.1463154556890558</v>
+        <v>0.09083566593114334</v>
       </c>
       <c r="O12">
-        <v>0.2742179563771785</v>
+        <v>1.46517031657902</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>0.1586406456876759</v>
       </c>
       <c r="Q12">
-        <v>1.275590132349492</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.2760763203750614</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>1.127472128388234</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.500402129746789</v>
+        <v>1.488229590342286</v>
       </c>
       <c r="C13">
-        <v>0.2359074872117901</v>
+        <v>0.2312106615598708</v>
       </c>
       <c r="D13">
-        <v>0.1129614163853461</v>
+        <v>0.1182240459972235</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.5205988785590634</v>
+        <v>0.4732485463916234</v>
       </c>
       <c r="G13">
-        <v>0.2938307876871207</v>
+        <v>0.2984049856462718</v>
       </c>
       <c r="H13">
-        <v>0.1191629348277701</v>
+        <v>0.1183637185915103</v>
       </c>
       <c r="I13">
-        <v>0.005063854465012341</v>
+        <v>0.004302686588020244</v>
       </c>
       <c r="J13">
-        <v>0.2914401186638216</v>
+        <v>0.2541146422163578</v>
       </c>
       <c r="K13">
-        <v>0.3120741539878136</v>
+        <v>0.2774998995516125</v>
       </c>
       <c r="L13">
-        <v>0.102414367417385</v>
+        <v>0.1204407328100405</v>
       </c>
       <c r="M13">
-        <v>1.465115619547475</v>
+        <v>0.09202862564617398</v>
       </c>
       <c r="N13">
-        <v>0.105338497560922</v>
+        <v>0.1020802145131938</v>
       </c>
       <c r="O13">
-        <v>0.2461359062277033</v>
+        <v>1.484855782748724</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>0.1153051596677699</v>
       </c>
       <c r="Q13">
-        <v>1.180295195940715</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.2477367011587468</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>1.05271697212072</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.469813361102638</v>
+        <v>1.459935720710234</v>
       </c>
       <c r="C14">
-        <v>0.2447367031578267</v>
+        <v>0.2391577023135341</v>
       </c>
       <c r="D14">
-        <v>0.101123900833187</v>
+        <v>0.105417858446188</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.4886003654635758</v>
+        <v>0.4482595952622468</v>
       </c>
       <c r="G14">
-        <v>0.2747361098400845</v>
+        <v>0.2726887396752318</v>
       </c>
       <c r="H14">
-        <v>0.1688994504666397</v>
+        <v>0.1680315360103464</v>
       </c>
       <c r="I14">
-        <v>0.005458609059370012</v>
+        <v>0.004604131799188949</v>
       </c>
       <c r="J14">
-        <v>0.2820732819597467</v>
+        <v>0.2549501460896977</v>
       </c>
       <c r="K14">
-        <v>0.3006781021021929</v>
+        <v>0.2702872356467783</v>
       </c>
       <c r="L14">
-        <v>0.1136325350824698</v>
+        <v>0.1184394710159529</v>
       </c>
       <c r="M14">
-        <v>1.462490889237671</v>
+        <v>0.08824271287495478</v>
       </c>
       <c r="N14">
-        <v>0.08092113767376929</v>
+        <v>0.1139023791991427</v>
       </c>
       <c r="O14">
-        <v>0.2239689438270709</v>
+        <v>1.480292188858101</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>0.08939187078185995</v>
       </c>
       <c r="Q14">
-        <v>1.120145336746788</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.2253122724571206</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>1.010892948039412</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.452467497039947</v>
+        <v>1.443196099292038</v>
       </c>
       <c r="C15">
-        <v>0.2464773112978662</v>
+        <v>0.240669833096689</v>
       </c>
       <c r="D15">
-        <v>0.0979188249113534</v>
+        <v>0.1018122732903493</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.4809985043682303</v>
+        <v>0.4430853643766532</v>
       </c>
       <c r="G15">
-        <v>0.2703454543997026</v>
+        <v>0.2647115162156979</v>
       </c>
       <c r="H15">
-        <v>0.1815988763239034</v>
+        <v>0.180696132457598</v>
       </c>
       <c r="I15">
-        <v>0.005762257521432446</v>
+        <v>0.004879691103953476</v>
       </c>
       <c r="J15">
-        <v>0.2802112977656677</v>
+        <v>0.2570966164870612</v>
       </c>
       <c r="K15">
-        <v>0.2986550561369956</v>
+        <v>0.2694747268959468</v>
       </c>
       <c r="L15">
-        <v>0.1167435389869773</v>
+        <v>0.118288082261043</v>
       </c>
       <c r="M15">
-        <v>1.453173776589381</v>
+        <v>0.08757409868390909</v>
       </c>
       <c r="N15">
-        <v>0.07548173468838471</v>
+        <v>0.1171037961474752</v>
       </c>
       <c r="O15">
-        <v>0.2172806665754159</v>
+        <v>1.470570828903561</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>0.08360743089088274</v>
       </c>
       <c r="Q15">
-        <v>1.106906134482287</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.2185270512939574</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>1.003975377270507</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.361909203892083</v>
+        <v>1.353153849879533</v>
       </c>
       <c r="C16">
-        <v>0.2379008001186378</v>
+        <v>0.2317972937527486</v>
       </c>
       <c r="D16">
-        <v>0.09438048457480619</v>
+        <v>0.09685461853585053</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.4851415391063014</v>
+        <v>0.4535539655734588</v>
       </c>
       <c r="G16">
-        <v>0.2746856245362324</v>
+        <v>0.2529598339295021</v>
       </c>
       <c r="H16">
-        <v>0.1699366427804705</v>
+        <v>0.1688461290606966</v>
       </c>
       <c r="I16">
-        <v>0.006777929016906548</v>
+        <v>0.005651650392254126</v>
       </c>
       <c r="J16">
-        <v>0.2853774014267572</v>
+        <v>0.27759324869767</v>
       </c>
       <c r="K16">
-        <v>0.3065177760005433</v>
+        <v>0.2790903002691749</v>
       </c>
       <c r="L16">
-        <v>0.1134949327847856</v>
+        <v>0.1218661777605909</v>
       </c>
       <c r="M16">
-        <v>1.365321611092156</v>
+        <v>0.09018977340789291</v>
       </c>
       <c r="N16">
-        <v>0.07448897782288455</v>
+        <v>0.1135678395938697</v>
       </c>
       <c r="O16">
-        <v>0.2048165541579081</v>
+        <v>1.383165333796541</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>0.08257067862334821</v>
       </c>
       <c r="Q16">
-        <v>1.126748186118235</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.2057650680228065</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>1.039972555189763</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.308797968122235</v>
+        <v>1.29941813301707</v>
       </c>
       <c r="C17">
-        <v>0.2265923216146462</v>
+        <v>0.2204676272896222</v>
       </c>
       <c r="D17">
-        <v>0.09783827676616141</v>
+        <v>0.09983975750261465</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.5050938409972261</v>
+        <v>0.4744105882439094</v>
       </c>
       <c r="G17">
-        <v>0.2880379006923164</v>
+        <v>0.2588370679843308</v>
       </c>
       <c r="H17">
-        <v>0.132790345945935</v>
+        <v>0.1315922109931051</v>
       </c>
       <c r="I17">
-        <v>0.007388373637266632</v>
+        <v>0.006126949795658199</v>
       </c>
       <c r="J17">
-        <v>0.2942993306905208</v>
+        <v>0.2933513903264071</v>
       </c>
       <c r="K17">
-        <v>0.3184615597778535</v>
+        <v>0.2903115588348832</v>
       </c>
       <c r="L17">
-        <v>0.1043678132127219</v>
+        <v>0.1260392954965672</v>
       </c>
       <c r="M17">
-        <v>1.299607863609538</v>
+        <v>0.09395224358244647</v>
       </c>
       <c r="N17">
-        <v>0.08586790254212673</v>
+        <v>0.104000542599703</v>
       </c>
       <c r="O17">
-        <v>0.2068654910982595</v>
+        <v>1.318474112075364</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>0.09463282588020405</v>
       </c>
       <c r="Q17">
-        <v>1.173631315751805</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.2077446038814692</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>1.088989134572358</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.282554047056834</v>
+        <v>1.271266567907588</v>
       </c>
       <c r="C18">
-        <v>0.2118587210838001</v>
+        <v>0.2060059363917333</v>
       </c>
       <c r="D18">
-        <v>0.1080447050588376</v>
+        <v>0.110023253943389</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.5431322897978248</v>
+        <v>0.5098111960851028</v>
       </c>
       <c r="G18">
-        <v>0.3122652908841062</v>
+        <v>0.2775326772634301</v>
       </c>
       <c r="H18">
-        <v>0.08010352722436664</v>
+        <v>0.07887498196222253</v>
       </c>
       <c r="I18">
-        <v>0.007335574228537034</v>
+        <v>0.0059791958482176</v>
       </c>
       <c r="J18">
-        <v>0.3082185087604188</v>
+        <v>0.3092242321410055</v>
       </c>
       <c r="K18">
-        <v>0.3369507461586974</v>
+        <v>0.3060734679841079</v>
       </c>
       <c r="L18">
-        <v>0.09321743644222202</v>
+        <v>0.131949745682471</v>
       </c>
       <c r="M18">
-        <v>1.245018143005723</v>
+        <v>0.09965929368634896</v>
       </c>
       <c r="N18">
-        <v>0.1129431018317817</v>
+        <v>0.09208510722057639</v>
       </c>
       <c r="O18">
-        <v>0.2219326896933858</v>
+        <v>1.265904794251725</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>0.1232113750798121</v>
       </c>
       <c r="Q18">
-        <v>1.254085576576657</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.2228899153082331</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>1.162444602160591</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.277791684978467</v>
+        <v>1.263662706546796</v>
       </c>
       <c r="C19">
-        <v>0.1982056953046367</v>
+        <v>0.192788259382155</v>
       </c>
       <c r="D19">
-        <v>0.1237060030542381</v>
+        <v>0.1259341649376893</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.5931729846234433</v>
+        <v>0.5547403514805325</v>
       </c>
       <c r="G19">
-        <v>0.3434062300858898</v>
+        <v>0.303574771219985</v>
       </c>
       <c r="H19">
-        <v>0.03436456504995533</v>
+        <v>0.0331883134535147</v>
       </c>
       <c r="I19">
-        <v>0.007313182394524276</v>
+        <v>0.006016850550231823</v>
       </c>
       <c r="J19">
-        <v>0.324950279047485</v>
+        <v>0.3248933973382151</v>
       </c>
       <c r="K19">
-        <v>0.3598675805881868</v>
+        <v>0.3247618503016589</v>
       </c>
       <c r="L19">
-        <v>0.08744212767687642</v>
+        <v>0.1389381691850637</v>
       </c>
       <c r="M19">
-        <v>1.206017076588694</v>
+        <v>0.1066635738548456</v>
       </c>
       <c r="N19">
-        <v>0.1572225197382835</v>
+        <v>0.08509642000190176</v>
       </c>
       <c r="O19">
-        <v>0.2471082240293505</v>
+        <v>1.229656950426289</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>0.1697931152361321</v>
       </c>
       <c r="Q19">
-        <v>1.355131937972004</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.2482462483996706</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>1.250233004518137</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.336935914054408</v>
+        <v>1.317248188965351</v>
       </c>
       <c r="C20">
-        <v>0.1847005283142096</v>
+        <v>0.1800791668802333</v>
       </c>
       <c r="D20">
-        <v>0.1540230749932761</v>
+        <v>0.1573508070342484</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.6784754779745299</v>
+        <v>0.6273159500902921</v>
       </c>
       <c r="G20">
-        <v>0.395421757681035</v>
+        <v>0.3529561597690076</v>
       </c>
       <c r="H20">
-        <v>0.006095728533101585</v>
+        <v>0.005174207520425966</v>
       </c>
       <c r="I20">
-        <v>0.006347078395609884</v>
+        <v>0.005327677689490606</v>
       </c>
       <c r="J20">
-        <v>0.3503055303279936</v>
+        <v>0.3382049332814745</v>
       </c>
       <c r="K20">
-        <v>0.3961261724743679</v>
+        <v>0.3518971680435037</v>
       </c>
       <c r="L20">
-        <v>0.09517886730205838</v>
+        <v>0.1480691751333048</v>
       </c>
       <c r="M20">
-        <v>1.207591574279377</v>
+        <v>0.1183465126853918</v>
       </c>
       <c r="N20">
-        <v>0.2467465947078438</v>
+        <v>0.090228405803777</v>
       </c>
       <c r="O20">
-        <v>0.2999330785301026</v>
+        <v>1.236130630230093</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>0.2638818303966701</v>
       </c>
       <c r="Q20">
-        <v>1.518616162102049</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.3015327085459631</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>1.380893861900105</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.504321814452226</v>
+        <v>1.481966651009088</v>
       </c>
       <c r="C21">
-        <v>0.1923382724650793</v>
+        <v>0.1887334924614805</v>
       </c>
       <c r="D21">
-        <v>0.1710233477798653</v>
+        <v>0.1785533391964975</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.7016749156427764</v>
+        <v>0.6284740041185159</v>
       </c>
       <c r="G21">
-        <v>0.4062548986516461</v>
+        <v>0.4089343526195819</v>
       </c>
       <c r="H21">
-        <v>0.003997129861779303</v>
+        <v>0.003399086202885759</v>
       </c>
       <c r="I21">
-        <v>0.004753468202887134</v>
+        <v>0.004206283613153339</v>
       </c>
       <c r="J21">
-        <v>0.3505074898139995</v>
+        <v>0.2834568041703918</v>
       </c>
       <c r="K21">
-        <v>0.3950072962262183</v>
+        <v>0.3401880406521229</v>
       </c>
       <c r="L21">
-        <v>0.09889060758880852</v>
+        <v>0.1408587112125268</v>
       </c>
       <c r="M21">
-        <v>1.34822503553363</v>
+        <v>0.1185999551910264</v>
       </c>
       <c r="N21">
-        <v>0.2789309193095164</v>
+        <v>0.09290380398881304</v>
       </c>
       <c r="O21">
-        <v>0.3401264870672875</v>
+        <v>1.377396477457921</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>0.2981761983269564</v>
       </c>
       <c r="Q21">
-        <v>1.542321396498878</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.3425226542712281</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>1.346621734216157</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.614421002272735</v>
+        <v>1.590660737613121</v>
       </c>
       <c r="C22">
-        <v>0.1973867367613664</v>
+        <v>0.1942316090716645</v>
       </c>
       <c r="D22">
-        <v>0.1807806499895435</v>
+        <v>0.1913979423307666</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.7149772190370953</v>
+        <v>0.6264907343963912</v>
       </c>
       <c r="G22">
-        <v>0.4125724083196189</v>
+        <v>0.4523578163836817</v>
       </c>
       <c r="H22">
-        <v>0.002992558159410463</v>
+        <v>0.002559340135982358</v>
       </c>
       <c r="I22">
-        <v>0.003615173670707073</v>
+        <v>0.003256063750838756</v>
       </c>
       <c r="J22">
-        <v>0.3502957625533796</v>
+        <v>0.254764278124533</v>
       </c>
       <c r="K22">
-        <v>0.3937897554743408</v>
+        <v>0.3317666384739155</v>
       </c>
       <c r="L22">
-        <v>0.1006281921117509</v>
+        <v>0.1361130290375989</v>
       </c>
       <c r="M22">
-        <v>1.44090648504158</v>
+        <v>0.1186558081217264</v>
       </c>
       <c r="N22">
-        <v>0.2950541043731221</v>
+        <v>0.09408504570002485</v>
       </c>
       <c r="O22">
-        <v>0.3642753873599247</v>
+        <v>1.469982229661753</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>0.3154966208334145</v>
       </c>
       <c r="Q22">
-        <v>1.555470859431253</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.3672121710036649</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>1.319575907436672</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.556865027286705</v>
+        <v>1.533514535294813</v>
       </c>
       <c r="C23">
-        <v>0.1940479767267718</v>
+        <v>0.1908294285329362</v>
       </c>
       <c r="D23">
-        <v>0.1754906975069019</v>
+        <v>0.183999864085493</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.7094356967735607</v>
+        <v>0.630819301860214</v>
       </c>
       <c r="G23">
-        <v>0.4104451765678832</v>
+        <v>0.4239618888383063</v>
       </c>
       <c r="H23">
-        <v>0.003502817511603529</v>
+        <v>0.002981168252503053</v>
       </c>
       <c r="I23">
-        <v>0.003870004223538004</v>
+        <v>0.003349436806015404</v>
       </c>
       <c r="J23">
-        <v>0.3510496100583183</v>
+        <v>0.2737165318468051</v>
       </c>
       <c r="K23">
-        <v>0.395548196212804</v>
+        <v>0.338034293755765</v>
       </c>
       <c r="L23">
-        <v>0.09983747270952037</v>
+        <v>0.1391926404971677</v>
       </c>
       <c r="M23">
-        <v>1.39022665585108</v>
+        <v>0.1193735897985135</v>
       </c>
       <c r="N23">
-        <v>0.2859498991817873</v>
+        <v>0.09360728033934329</v>
       </c>
       <c r="O23">
-        <v>0.3513399087819451</v>
+        <v>1.419870128352756</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>0.3057283489273885</v>
       </c>
       <c r="Q23">
-        <v>1.552433611064501</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.3539261601848125</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>1.342520819962459</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.336776279234442</v>
+        <v>1.316783230340889</v>
       </c>
       <c r="C24">
-        <v>0.1825160967267578</v>
+        <v>0.177607096554496</v>
       </c>
       <c r="D24">
-        <v>0.1556725101209935</v>
+        <v>0.1590085637493814</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.6869974109599539</v>
+        <v>0.6351471687016073</v>
       </c>
       <c r="G24">
-        <v>0.4012493448708199</v>
+        <v>0.3577887476095114</v>
       </c>
       <c r="H24">
-        <v>0.005871113469040679</v>
+        <v>0.004958632787062822</v>
       </c>
       <c r="I24">
-        <v>0.005796092981418255</v>
+        <v>0.004681147105651817</v>
       </c>
       <c r="J24">
-        <v>0.3534013042178898</v>
+        <v>0.341385314384226</v>
       </c>
       <c r="K24">
-        <v>0.4009844335897021</v>
+        <v>0.3560251412501998</v>
       </c>
       <c r="L24">
-        <v>0.09656826634167892</v>
+        <v>0.1496153616355702</v>
       </c>
       <c r="M24">
-        <v>1.200402129765394</v>
+        <v>0.119885875502785</v>
       </c>
       <c r="N24">
-        <v>0.2524172420726813</v>
+        <v>0.09138558558373333</v>
       </c>
       <c r="O24">
-        <v>0.3024702138689435</v>
+        <v>1.229180509884088</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>0.2698486375802673</v>
       </c>
       <c r="Q24">
-        <v>1.537449696008025</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.3040868928948015</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>1.397823521054832</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.098977063496477</v>
+        <v>1.085678153521854</v>
       </c>
       <c r="C25">
-        <v>0.17015127657492</v>
+        <v>0.1601352344109017</v>
       </c>
       <c r="D25">
-        <v>0.1344620437535298</v>
+        <v>0.1370811018372677</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.6651834911764496</v>
+        <v>0.6214510077100002</v>
       </c>
       <c r="G25">
-        <v>0.3932619697311566</v>
+        <v>0.351301964712647</v>
       </c>
       <c r="H25">
-        <v>0.009274006724408118</v>
+        <v>0.007894960106290344</v>
       </c>
       <c r="I25">
-        <v>0.008763444062935832</v>
+        <v>0.006923302161400358</v>
       </c>
       <c r="J25">
-        <v>0.3571350989809972</v>
+        <v>0.3503876044060306</v>
       </c>
       <c r="K25">
-        <v>0.408146972327593</v>
+        <v>0.3669830966076866</v>
       </c>
       <c r="L25">
-        <v>0.0929157400731917</v>
+        <v>0.1584840997788337</v>
       </c>
       <c r="M25">
-        <v>0.9957429950872267</v>
+        <v>0.1183374885614885</v>
       </c>
       <c r="N25">
-        <v>0.2164938935562901</v>
+        <v>0.08842309605962129</v>
       </c>
       <c r="O25">
-        <v>0.2498194425847053</v>
+        <v>1.017946102569198</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>0.2316445580037936</v>
       </c>
       <c r="Q25">
-        <v>1.52786417169267</v>
+        <v>0.251036467224619</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>1.407262735551711</v>
       </c>
     </row>
   </sheetData>
